--- a/PIID/CM.xlsx
+++ b/PIID/CM.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
     <t>CM</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>GNE114_CMPLAN</t>
+  </si>
+  <si>
+    <t>Firmware design changed due to incident showing in version history.</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -604,6 +607,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -625,10 +640,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -649,16 +664,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,11 +1073,11 @@
   </sheetPr>
   <dimension ref="A1:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32:C58"/>
+      <selection pane="bottomRight" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1086,25 +1092,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="42.75">
       <c r="A3" s="3" t="s">
@@ -1155,20 +1161,20 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="38.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="58">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="65" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="5" t="str">
         <f>IF(LEN(E4)&gt;5,IF(LEN(K4&amp;L4&amp;M4)&gt;=1,"OK","Check"),"-")</f>
         <v>OK</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="53" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1198,18 +1204,18 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="53"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="57"/>
     </row>
     <row r="5" spans="1:18" ht="25.5">
-      <c r="A5" s="53"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="61"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="5" t="str">
         <f t="shared" ref="D5:D63" si="2">IF(LEN(E5)&gt;5,IF(LEN(K5&amp;L5&amp;M5)&gt;=1,"OK","Check"),"-")</f>
         <v>OK</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="55" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1239,18 +1245,18 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="53"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="57"/>
     </row>
     <row r="6" spans="1:18" ht="25.5">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="61"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="55" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -1280,18 +1286,18 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="53"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="57"/>
     </row>
     <row r="7" spans="1:18" ht="25.5">
-      <c r="A7" s="53"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="61"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="55" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1321,18 +1327,18 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="53"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="57"/>
     </row>
     <row r="8" spans="1:18" ht="38.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="61"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="55" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1362,22 +1368,20 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="53"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="57"/>
     </row>
     <row r="9" spans="1:18" ht="15.75">
-      <c r="A9" s="53"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="61"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E9" s="69"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1399,13 +1403,13 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="53"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="57"/>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="61"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1434,13 +1438,13 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="53"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="57"/>
     </row>
     <row r="11" spans="1:18" ht="15.75">
-      <c r="A11" s="53"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="61"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1469,13 +1473,13 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="53"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="57"/>
     </row>
     <row r="12" spans="1:18" ht="15.75">
-      <c r="A12" s="53"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="61"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1504,13 +1508,13 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="53"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="57"/>
     </row>
     <row r="13" spans="1:18" ht="15.75">
-      <c r="A13" s="53"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="61"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1538,13 +1542,13 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="53"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="57"/>
     </row>
     <row r="14" spans="1:18" ht="15.75">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="61"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1573,13 +1577,13 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="53"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="57"/>
     </row>
     <row r="15" spans="1:18" ht="15.75">
-      <c r="A15" s="53"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="61"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1608,13 +1612,13 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="53"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="57"/>
     </row>
     <row r="16" spans="1:18" ht="15.75">
-      <c r="A16" s="53"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="61"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1643,13 +1647,13 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="53"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="57"/>
     </row>
     <row r="17" spans="1:18" ht="15.75">
-      <c r="A17" s="53"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="61"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1678,17 +1682,17 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="53"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="57"/>
     </row>
     <row r="18" spans="1:18" ht="38.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="58">
         <v>2.1</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="66" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="5" t="str">
@@ -1722,18 +1726,18 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="53"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="57"/>
     </row>
     <row r="19" spans="1:18" ht="25.5">
-      <c r="A19" s="53"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="62"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="55" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -1763,18 +1767,18 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="53"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="57"/>
     </row>
     <row r="20" spans="1:18" ht="25.5">
-      <c r="A20" s="53"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="62"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="55" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -1804,18 +1808,18 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="53"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="57"/>
     </row>
     <row r="21" spans="1:18" ht="25.5">
-      <c r="A21" s="53"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="62"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="55" t="s">
         <v>47</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -1845,18 +1849,18 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="53"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="57"/>
     </row>
     <row r="22" spans="1:18" ht="38.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="62"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E22" s="70" t="s">
+      <c r="E22" s="55" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -1886,18 +1890,18 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="53"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="57"/>
     </row>
     <row r="23" spans="1:18" ht="15.75">
-      <c r="A23" s="53"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="62"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E23" s="69"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -1921,13 +1925,13 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="53"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="57"/>
     </row>
     <row r="24" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="62"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1956,13 +1960,13 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="53"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="57"/>
     </row>
     <row r="25" spans="1:18" ht="15.75">
-      <c r="A25" s="53"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="62"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1991,13 +1995,13 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="53"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="57"/>
     </row>
     <row r="26" spans="1:18" ht="15.75">
-      <c r="A26" s="53"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="62"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2026,13 +2030,13 @@
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="53"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="57"/>
     </row>
     <row r="27" spans="1:18" ht="15.75">
-      <c r="A27" s="53"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="62"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2061,13 +2065,13 @@
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="53"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="57"/>
     </row>
     <row r="28" spans="1:18" ht="15.75">
-      <c r="A28" s="53"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="62"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2096,13 +2100,13 @@
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="53"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="57"/>
     </row>
     <row r="29" spans="1:18" ht="15.75">
-      <c r="A29" s="53"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="62"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2131,13 +2135,13 @@
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="53"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="57"/>
     </row>
     <row r="30" spans="1:18" ht="15.75">
-      <c r="A30" s="53"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="62"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2166,13 +2170,13 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="53"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="57"/>
     </row>
     <row r="31" spans="1:18" ht="15.75">
-      <c r="A31" s="53"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="62"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2201,22 +2205,22 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="53"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="57"/>
     </row>
     <row r="32" spans="1:18" ht="57.75" customHeight="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54">
+      <c r="A32" s="57"/>
+      <c r="B32" s="58">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="66" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="E32" s="53" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="7" t="s">
@@ -2243,18 +2247,18 @@
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="53"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="57"/>
     </row>
     <row r="33" spans="1:18" ht="15.75">
-      <c r="A33" s="53"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="62"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E33" s="68" t="s">
+      <c r="E33" s="53" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="7" t="s">
@@ -2281,18 +2285,18 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="53"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="57"/>
     </row>
     <row r="34" spans="1:18" ht="25.5">
-      <c r="A34" s="53"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="55" t="s">
         <v>45</v>
       </c>
       <c r="F34" s="7" t="s">
@@ -2322,18 +2326,18 @@
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="53"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="57"/>
     </row>
     <row r="35" spans="1:18" ht="25.5">
-      <c r="A35" s="53"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="55" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="7" t="s">
@@ -2363,18 +2367,18 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="53"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="57"/>
     </row>
     <row r="36" spans="1:18" ht="25.5">
-      <c r="A36" s="53"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="62"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="55" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="7" t="s">
@@ -2404,18 +2408,18 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="53"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="57"/>
     </row>
     <row r="37" spans="1:18" ht="38.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="62"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="55" t="s">
         <v>48</v>
       </c>
       <c r="F37" s="7" t="s">
@@ -2445,13 +2449,13 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="53"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" ht="15.75">
-      <c r="A38" s="53"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="62"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2480,13 +2484,13 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="53"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="57"/>
     </row>
     <row r="39" spans="1:18" ht="15.75">
-      <c r="A39" s="53"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="62"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2515,13 +2519,13 @@
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="53"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="57"/>
     </row>
     <row r="40" spans="1:18" ht="15.75">
-      <c r="A40" s="53"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="62"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2550,13 +2554,13 @@
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="53"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="57"/>
     </row>
     <row r="41" spans="1:18" ht="15.75">
-      <c r="A41" s="53"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="62"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2585,13 +2589,13 @@
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="53"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="57"/>
     </row>
     <row r="42" spans="1:18" ht="15.75">
-      <c r="A42" s="53"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2620,13 +2624,13 @@
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="53"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="57"/>
     </row>
     <row r="43" spans="1:18" ht="15.75">
-      <c r="A43" s="53"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="62"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2655,22 +2659,22 @@
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="53"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="57"/>
     </row>
     <row r="44" spans="1:18" ht="67.5" customHeight="1">
-      <c r="A44" s="53"/>
-      <c r="B44" s="54">
+      <c r="A44" s="57"/>
+      <c r="B44" s="58">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="66" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E44" s="68" t="s">
+      <c r="E44" s="53" t="s">
         <v>44</v>
       </c>
       <c r="F44" s="7" t="s">
@@ -2697,18 +2701,18 @@
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="53"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="57"/>
     </row>
     <row r="45" spans="1:18" ht="25.5">
-      <c r="A45" s="53"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="62"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E45" s="68" t="s">
+      <c r="E45" s="53" t="s">
         <v>44</v>
       </c>
       <c r="F45" s="7" t="s">
@@ -2735,13 +2739,13 @@
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
-      <c r="Q45" s="55"/>
-      <c r="R45" s="53"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="57"/>
     </row>
     <row r="46" spans="1:18" ht="15.75">
-      <c r="A46" s="53"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="62"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2767,13 +2771,13 @@
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="53"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="57"/>
     </row>
     <row r="47" spans="1:18" ht="15.75">
-      <c r="A47" s="53"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="62"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2802,13 +2806,13 @@
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="53"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="57"/>
     </row>
     <row r="48" spans="1:18" ht="15.75">
-      <c r="A48" s="53"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="62"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2837,13 +2841,13 @@
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="53"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="57"/>
     </row>
     <row r="49" spans="1:18" ht="15.75">
-      <c r="A49" s="53"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="62"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2872,13 +2876,13 @@
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="53"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="57"/>
     </row>
     <row r="50" spans="1:18" ht="15.75">
-      <c r="A50" s="53"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="62"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2907,13 +2911,13 @@
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="53"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="57"/>
     </row>
     <row r="51" spans="1:18" ht="15.75">
-      <c r="A51" s="53"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="62"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2942,13 +2946,13 @@
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="53"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="57"/>
     </row>
     <row r="52" spans="1:18" ht="15.75">
-      <c r="A52" s="53"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="62"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2977,13 +2981,13 @@
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="53"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="57"/>
     </row>
     <row r="53" spans="1:18" ht="15.75">
-      <c r="A53" s="53"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="62"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="66"/>
       <c r="D53" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3012,13 +3016,13 @@
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="53"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="57"/>
     </row>
     <row r="54" spans="1:18" ht="15.75">
-      <c r="A54" s="53"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="62"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3047,13 +3051,13 @@
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="53"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="57"/>
     </row>
     <row r="55" spans="1:18" ht="15.75">
-      <c r="A55" s="53"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="62"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3082,13 +3086,13 @@
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="53"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="57"/>
     </row>
     <row r="56" spans="1:18" ht="15.75">
-      <c r="A56" s="53"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="62"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3117,13 +3121,13 @@
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="53"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="57"/>
     </row>
     <row r="57" spans="1:18" ht="15.75">
-      <c r="A57" s="53"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="62"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3152,13 +3156,13 @@
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="53"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="57"/>
     </row>
     <row r="58" spans="1:18" ht="15.75">
-      <c r="A58" s="53"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="62"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="66"/>
       <c r="D58" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3187,22 +3191,22 @@
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
-      <c r="Q58" s="56"/>
-      <c r="R58" s="53"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="57"/>
     </row>
     <row r="59" spans="1:18" ht="66.75" customHeight="1">
-      <c r="A59" s="53"/>
-      <c r="B59" s="54">
+      <c r="A59" s="57"/>
+      <c r="B59" s="58">
         <v>2.4</v>
       </c>
-      <c r="C59" s="61" t="s">
+      <c r="C59" s="64" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E59" s="68" t="s">
+      <c r="E59" s="53" t="s">
         <v>44</v>
       </c>
       <c r="F59" s="7" t="s">
@@ -3229,19 +3233,23 @@
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="53"/>
-    </row>
-    <row r="60" spans="1:18" ht="15.75">
-      <c r="A60" s="53"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="61"/>
+      <c r="Q59" s="58"/>
+      <c r="R59" s="57"/>
+    </row>
+    <row r="60" spans="1:18" ht="38.25">
+      <c r="A60" s="57"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="7"/>
+        <v>OK</v>
+      </c>
+      <c r="E60" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="G60" s="9" t="s">
         <v>17</v>
       </c>
@@ -3250,26 +3258,26 @@
       <c r="J60" s="11"/>
       <c r="K60" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L60" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M60" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="53"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="57"/>
     </row>
     <row r="61" spans="1:18" ht="15.75">
-      <c r="A61" s="53"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="61"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3295,13 +3303,13 @@
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="53"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="57"/>
     </row>
     <row r="62" spans="1:18" ht="15.75">
-      <c r="A62" s="53"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="61"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3330,13 +3338,13 @@
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="53"/>
+      <c r="Q62" s="59"/>
+      <c r="R62" s="57"/>
     </row>
     <row r="63" spans="1:18" ht="15.75">
-      <c r="A63" s="53"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="61"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="64"/>
       <c r="D63" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3365,13 +3373,13 @@
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="53"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="57"/>
     </row>
     <row r="64" spans="1:18" ht="15.75">
-      <c r="A64" s="53"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="61"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="64"/>
       <c r="D64" s="5" t="str">
         <f t="shared" ref="D64:D127" si="4">IF(LEN(E64)&gt;5,IF(LEN(K64&amp;L64&amp;M64)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -3400,13 +3408,13 @@
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="53"/>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="57"/>
     </row>
     <row r="65" spans="1:18" ht="15.75">
-      <c r="A65" s="53"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="61"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="64"/>
       <c r="D65" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3435,13 +3443,13 @@
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="53"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="57"/>
     </row>
     <row r="66" spans="1:18" ht="15.75">
-      <c r="A66" s="53"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="61"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3470,13 +3478,13 @@
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
-      <c r="Q66" s="55"/>
-      <c r="R66" s="53"/>
+      <c r="Q66" s="59"/>
+      <c r="R66" s="57"/>
     </row>
     <row r="67" spans="1:18" ht="15.75">
-      <c r="A67" s="53"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="61"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="64"/>
       <c r="D67" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3505,13 +3513,13 @@
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
-      <c r="Q67" s="55"/>
-      <c r="R67" s="53"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="57"/>
     </row>
     <row r="68" spans="1:18" ht="15.75">
-      <c r="A68" s="53"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="61"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="64"/>
       <c r="D68" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3540,13 +3548,13 @@
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="53"/>
+      <c r="Q68" s="59"/>
+      <c r="R68" s="57"/>
     </row>
     <row r="69" spans="1:18" ht="15.75">
-      <c r="A69" s="53"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="61"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3575,13 +3583,13 @@
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
-      <c r="Q69" s="55"/>
-      <c r="R69" s="53"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="57"/>
     </row>
     <row r="70" spans="1:18" ht="15.75">
-      <c r="A70" s="53"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="61"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="64"/>
       <c r="D70" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3610,13 +3618,13 @@
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
-      <c r="Q70" s="55"/>
-      <c r="R70" s="53"/>
+      <c r="Q70" s="59"/>
+      <c r="R70" s="57"/>
     </row>
     <row r="71" spans="1:18" ht="15.75">
-      <c r="A71" s="53"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="61"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="64"/>
       <c r="D71" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3645,13 +3653,13 @@
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
-      <c r="Q71" s="55"/>
-      <c r="R71" s="53"/>
+      <c r="Q71" s="59"/>
+      <c r="R71" s="57"/>
     </row>
     <row r="72" spans="1:18" ht="15.75">
-      <c r="A72" s="53"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="61"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="64"/>
       <c r="D72" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3680,13 +3688,13 @@
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
-      <c r="Q72" s="55"/>
-      <c r="R72" s="53"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="57"/>
     </row>
     <row r="73" spans="1:18" ht="15.75">
-      <c r="A73" s="53"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="61"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="64"/>
       <c r="D73" s="12" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3715,15 +3723,15 @@
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
-      <c r="Q73" s="56"/>
-      <c r="R73" s="53"/>
+      <c r="Q73" s="60"/>
+      <c r="R73" s="57"/>
     </row>
     <row r="74" spans="1:18" ht="38.25">
-      <c r="A74" s="53"/>
-      <c r="B74" s="54">
+      <c r="A74" s="57"/>
+      <c r="B74" s="58">
         <v>2.5</v>
       </c>
-      <c r="C74" s="62" t="s">
+      <c r="C74" s="66" t="s">
         <v>28</v>
       </c>
       <c r="D74" s="5" t="str">
@@ -3757,18 +3765,18 @@
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="53"/>
+      <c r="Q74" s="58"/>
+      <c r="R74" s="57"/>
     </row>
     <row r="75" spans="1:18" ht="25.5">
-      <c r="A75" s="53"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="62"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E75" s="71" t="s">
+      <c r="E75" s="56" t="s">
         <v>29</v>
       </c>
       <c r="F75" s="7" t="s">
@@ -3795,18 +3803,18 @@
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
-      <c r="Q75" s="55"/>
-      <c r="R75" s="53"/>
+      <c r="Q75" s="59"/>
+      <c r="R75" s="57"/>
     </row>
     <row r="76" spans="1:18" ht="25.5">
-      <c r="A76" s="53"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="62"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
-      <c r="E76" s="71" t="s">
+      <c r="E76" s="56" t="s">
         <v>31</v>
       </c>
       <c r="F76" s="7" t="s">
@@ -3833,13 +3841,13 @@
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
-      <c r="Q76" s="55"/>
-      <c r="R76" s="53"/>
+      <c r="Q76" s="59"/>
+      <c r="R76" s="57"/>
     </row>
     <row r="77" spans="1:18" ht="15.75">
-      <c r="A77" s="53"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="62"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="66"/>
       <c r="D77" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3865,13 +3873,13 @@
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
-      <c r="Q77" s="55"/>
-      <c r="R77" s="53"/>
+      <c r="Q77" s="59"/>
+      <c r="R77" s="57"/>
     </row>
     <row r="78" spans="1:18" ht="15.75">
-      <c r="A78" s="53"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="62"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="66"/>
       <c r="D78" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3900,13 +3908,13 @@
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
-      <c r="Q78" s="55"/>
-      <c r="R78" s="53"/>
+      <c r="Q78" s="59"/>
+      <c r="R78" s="57"/>
     </row>
     <row r="79" spans="1:18" ht="15.75">
-      <c r="A79" s="53"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="62"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3935,13 +3943,13 @@
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
-      <c r="Q79" s="55"/>
-      <c r="R79" s="53"/>
+      <c r="Q79" s="59"/>
+      <c r="R79" s="57"/>
     </row>
     <row r="80" spans="1:18" ht="15.75">
-      <c r="A80" s="53"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="62"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="66"/>
       <c r="D80" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3970,13 +3978,13 @@
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
-      <c r="Q80" s="55"/>
-      <c r="R80" s="53"/>
+      <c r="Q80" s="59"/>
+      <c r="R80" s="57"/>
     </row>
     <row r="81" spans="1:18" ht="15.75">
-      <c r="A81" s="53"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="62"/>
+      <c r="A81" s="57"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4005,13 +4013,13 @@
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
-      <c r="Q81" s="55"/>
-      <c r="R81" s="53"/>
+      <c r="Q81" s="59"/>
+      <c r="R81" s="57"/>
     </row>
     <row r="82" spans="1:18" ht="15.75">
-      <c r="A82" s="53"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="62"/>
+      <c r="A82" s="57"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="66"/>
       <c r="D82" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4040,13 +4048,13 @@
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
-      <c r="Q82" s="55"/>
-      <c r="R82" s="53"/>
+      <c r="Q82" s="59"/>
+      <c r="R82" s="57"/>
     </row>
     <row r="83" spans="1:18" ht="15.75">
-      <c r="A83" s="53"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="62"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="66"/>
       <c r="D83" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4075,13 +4083,13 @@
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
-      <c r="Q83" s="55"/>
-      <c r="R83" s="53"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="57"/>
     </row>
     <row r="84" spans="1:18" ht="15.75">
-      <c r="A84" s="53"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="62"/>
+      <c r="A84" s="57"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="66"/>
       <c r="D84" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4110,13 +4118,13 @@
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
-      <c r="Q84" s="55"/>
-      <c r="R84" s="53"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="57"/>
     </row>
     <row r="85" spans="1:18" ht="15.75">
-      <c r="A85" s="53"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="62"/>
+      <c r="A85" s="57"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4145,13 +4153,13 @@
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
-      <c r="Q85" s="55"/>
-      <c r="R85" s="53"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="57"/>
     </row>
     <row r="86" spans="1:18" ht="15.75">
-      <c r="A86" s="53"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="62"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4180,13 +4188,13 @@
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
       <c r="P86" s="9"/>
-      <c r="Q86" s="55"/>
-      <c r="R86" s="53"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="57"/>
     </row>
     <row r="87" spans="1:18" ht="15.75">
-      <c r="A87" s="53"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="62"/>
+      <c r="A87" s="57"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="66"/>
       <c r="D87" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4215,13 +4223,13 @@
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
       <c r="P87" s="9"/>
-      <c r="Q87" s="55"/>
-      <c r="R87" s="53"/>
+      <c r="Q87" s="59"/>
+      <c r="R87" s="57"/>
     </row>
     <row r="88" spans="1:18" ht="15.75">
-      <c r="A88" s="53"/>
-      <c r="B88" s="56"/>
-      <c r="C88" s="62"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="66"/>
       <c r="D88" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4250,15 +4258,15 @@
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
       <c r="P88" s="9"/>
-      <c r="Q88" s="56"/>
-      <c r="R88" s="53"/>
+      <c r="Q88" s="60"/>
+      <c r="R88" s="57"/>
     </row>
     <row r="89" spans="1:18" ht="51">
-      <c r="A89" s="53"/>
-      <c r="B89" s="57">
+      <c r="A89" s="57"/>
+      <c r="B89" s="61">
         <v>2.6</v>
       </c>
-      <c r="C89" s="62" t="s">
+      <c r="C89" s="66" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="5" t="str">
@@ -4292,13 +4300,13 @@
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
       <c r="P89" s="9"/>
-      <c r="Q89" s="57"/>
-      <c r="R89" s="63"/>
+      <c r="Q89" s="61"/>
+      <c r="R89" s="67"/>
     </row>
     <row r="90" spans="1:18" ht="25.5">
-      <c r="A90" s="53"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="62"/>
+      <c r="A90" s="57"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="66"/>
       <c r="D90" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -4330,13 +4338,13 @@
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
       <c r="P90" s="9"/>
-      <c r="Q90" s="58"/>
-      <c r="R90" s="63"/>
+      <c r="Q90" s="62"/>
+      <c r="R90" s="67"/>
     </row>
     <row r="91" spans="1:18" ht="57.75" customHeight="1">
-      <c r="A91" s="53"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="62"/>
+      <c r="A91" s="57"/>
+      <c r="B91" s="62"/>
+      <c r="C91" s="66"/>
       <c r="D91" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4362,13 +4370,13 @@
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
       <c r="P91" s="9"/>
-      <c r="Q91" s="58"/>
-      <c r="R91" s="63"/>
+      <c r="Q91" s="62"/>
+      <c r="R91" s="67"/>
     </row>
     <row r="92" spans="1:18" ht="15.75">
-      <c r="A92" s="53"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="62"/>
+      <c r="A92" s="57"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="66"/>
       <c r="D92" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4394,13 +4402,13 @@
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
-      <c r="Q92" s="58"/>
-      <c r="R92" s="63"/>
+      <c r="Q92" s="62"/>
+      <c r="R92" s="67"/>
     </row>
     <row r="93" spans="1:18" ht="15.75">
-      <c r="A93" s="53"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="62"/>
+      <c r="A93" s="57"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="66"/>
       <c r="D93" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4429,13 +4437,13 @@
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
-      <c r="Q93" s="58"/>
-      <c r="R93" s="63"/>
+      <c r="Q93" s="62"/>
+      <c r="R93" s="67"/>
     </row>
     <row r="94" spans="1:18" ht="15.75">
-      <c r="A94" s="53"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="62"/>
+      <c r="A94" s="57"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="66"/>
       <c r="D94" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4464,13 +4472,13 @@
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
       <c r="P94" s="9"/>
-      <c r="Q94" s="58"/>
-      <c r="R94" s="63"/>
+      <c r="Q94" s="62"/>
+      <c r="R94" s="67"/>
     </row>
     <row r="95" spans="1:18" ht="15.75">
-      <c r="A95" s="53"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="62"/>
+      <c r="A95" s="57"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="66"/>
       <c r="D95" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4499,13 +4507,13 @@
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
       <c r="P95" s="9"/>
-      <c r="Q95" s="58"/>
-      <c r="R95" s="63"/>
+      <c r="Q95" s="62"/>
+      <c r="R95" s="67"/>
     </row>
     <row r="96" spans="1:18" ht="15.75">
-      <c r="A96" s="53"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="62"/>
+      <c r="A96" s="57"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="66"/>
       <c r="D96" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4534,13 +4542,13 @@
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
       <c r="P96" s="9"/>
-      <c r="Q96" s="58"/>
-      <c r="R96" s="63"/>
+      <c r="Q96" s="62"/>
+      <c r="R96" s="67"/>
     </row>
     <row r="97" spans="1:18" ht="15.75">
-      <c r="A97" s="53"/>
-      <c r="B97" s="58"/>
-      <c r="C97" s="62"/>
+      <c r="A97" s="57"/>
+      <c r="B97" s="62"/>
+      <c r="C97" s="66"/>
       <c r="D97" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4569,13 +4577,13 @@
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
       <c r="P97" s="9"/>
-      <c r="Q97" s="58"/>
-      <c r="R97" s="63"/>
+      <c r="Q97" s="62"/>
+      <c r="R97" s="67"/>
     </row>
     <row r="98" spans="1:18" ht="15.75">
-      <c r="A98" s="53"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="62"/>
+      <c r="A98" s="57"/>
+      <c r="B98" s="62"/>
+      <c r="C98" s="66"/>
       <c r="D98" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4604,13 +4612,13 @@
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
       <c r="P98" s="9"/>
-      <c r="Q98" s="58"/>
-      <c r="R98" s="63"/>
+      <c r="Q98" s="62"/>
+      <c r="R98" s="67"/>
     </row>
     <row r="99" spans="1:18" ht="15.75">
-      <c r="A99" s="53"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="62"/>
+      <c r="A99" s="57"/>
+      <c r="B99" s="62"/>
+      <c r="C99" s="66"/>
       <c r="D99" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4639,13 +4647,13 @@
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
       <c r="P99" s="9"/>
-      <c r="Q99" s="58"/>
-      <c r="R99" s="63"/>
+      <c r="Q99" s="62"/>
+      <c r="R99" s="67"/>
     </row>
     <row r="100" spans="1:18" ht="15.75">
-      <c r="A100" s="53"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="62"/>
+      <c r="A100" s="57"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="66"/>
       <c r="D100" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4674,13 +4682,13 @@
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
       <c r="P100" s="9"/>
-      <c r="Q100" s="58"/>
-      <c r="R100" s="63"/>
+      <c r="Q100" s="62"/>
+      <c r="R100" s="67"/>
     </row>
     <row r="101" spans="1:18" ht="15.75">
-      <c r="A101" s="53"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="62"/>
+      <c r="A101" s="57"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="66"/>
       <c r="D101" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4709,13 +4717,13 @@
       <c r="N101" s="9"/>
       <c r="O101" s="9"/>
       <c r="P101" s="9"/>
-      <c r="Q101" s="58"/>
-      <c r="R101" s="63"/>
+      <c r="Q101" s="62"/>
+      <c r="R101" s="67"/>
     </row>
     <row r="102" spans="1:18" ht="15.75">
-      <c r="A102" s="53"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="62"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="66"/>
       <c r="D102" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4744,13 +4752,13 @@
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
       <c r="P102" s="9"/>
-      <c r="Q102" s="58"/>
-      <c r="R102" s="63"/>
+      <c r="Q102" s="62"/>
+      <c r="R102" s="67"/>
     </row>
     <row r="103" spans="1:18" ht="15.75">
-      <c r="A103" s="53"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="62"/>
+      <c r="A103" s="57"/>
+      <c r="B103" s="63"/>
+      <c r="C103" s="66"/>
       <c r="D103" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4779,13 +4787,13 @@
       <c r="N103" s="9"/>
       <c r="O103" s="9"/>
       <c r="P103" s="9"/>
-      <c r="Q103" s="59"/>
-      <c r="R103" s="63"/>
+      <c r="Q103" s="63"/>
+      <c r="R103" s="67"/>
     </row>
     <row r="104" spans="1:18" ht="15.75">
       <c r="A104" s="15"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="62"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="66"/>
       <c r="D104" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4814,13 +4822,13 @@
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
       <c r="P104" s="9"/>
-      <c r="Q104" s="57"/>
-      <c r="R104" s="63"/>
+      <c r="Q104" s="61"/>
+      <c r="R104" s="67"/>
     </row>
     <row r="105" spans="1:18" ht="15.75">
       <c r="A105" s="15"/>
-      <c r="B105" s="58"/>
-      <c r="C105" s="62"/>
+      <c r="B105" s="62"/>
+      <c r="C105" s="66"/>
       <c r="D105" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4849,13 +4857,13 @@
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
       <c r="P105" s="9"/>
-      <c r="Q105" s="58"/>
-      <c r="R105" s="63"/>
+      <c r="Q105" s="62"/>
+      <c r="R105" s="67"/>
     </row>
     <row r="106" spans="1:18" ht="15.75">
       <c r="A106" s="15"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="62"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="66"/>
       <c r="D106" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4884,13 +4892,13 @@
       <c r="N106" s="9"/>
       <c r="O106" s="9"/>
       <c r="P106" s="9"/>
-      <c r="Q106" s="58"/>
-      <c r="R106" s="63"/>
+      <c r="Q106" s="62"/>
+      <c r="R106" s="67"/>
     </row>
     <row r="107" spans="1:18" ht="15.75">
       <c r="A107" s="15"/>
-      <c r="B107" s="58"/>
-      <c r="C107" s="62"/>
+      <c r="B107" s="62"/>
+      <c r="C107" s="66"/>
       <c r="D107" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4919,13 +4927,13 @@
       <c r="N107" s="9"/>
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
-      <c r="Q107" s="58"/>
-      <c r="R107" s="63"/>
+      <c r="Q107" s="62"/>
+      <c r="R107" s="67"/>
     </row>
     <row r="108" spans="1:18" ht="15.75">
       <c r="A108" s="15"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="62"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="66"/>
       <c r="D108" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4954,13 +4962,13 @@
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
       <c r="P108" s="9"/>
-      <c r="Q108" s="58"/>
-      <c r="R108" s="63"/>
+      <c r="Q108" s="62"/>
+      <c r="R108" s="67"/>
     </row>
     <row r="109" spans="1:18" ht="15.75">
       <c r="A109" s="15"/>
-      <c r="B109" s="58"/>
-      <c r="C109" s="62"/>
+      <c r="B109" s="62"/>
+      <c r="C109" s="66"/>
       <c r="D109" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4989,13 +4997,13 @@
       <c r="N109" s="9"/>
       <c r="O109" s="9"/>
       <c r="P109" s="9"/>
-      <c r="Q109" s="58"/>
-      <c r="R109" s="63"/>
+      <c r="Q109" s="62"/>
+      <c r="R109" s="67"/>
     </row>
     <row r="110" spans="1:18" ht="15.75">
       <c r="A110" s="15"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="62"/>
+      <c r="B110" s="62"/>
+      <c r="C110" s="66"/>
       <c r="D110" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5024,13 +5032,13 @@
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
       <c r="P110" s="9"/>
-      <c r="Q110" s="58"/>
-      <c r="R110" s="63"/>
+      <c r="Q110" s="62"/>
+      <c r="R110" s="67"/>
     </row>
     <row r="111" spans="1:18" ht="15.75">
       <c r="A111" s="15"/>
-      <c r="B111" s="58"/>
-      <c r="C111" s="62"/>
+      <c r="B111" s="62"/>
+      <c r="C111" s="66"/>
       <c r="D111" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5059,13 +5067,13 @@
       <c r="N111" s="9"/>
       <c r="O111" s="9"/>
       <c r="P111" s="9"/>
-      <c r="Q111" s="58"/>
-      <c r="R111" s="63"/>
+      <c r="Q111" s="62"/>
+      <c r="R111" s="67"/>
     </row>
     <row r="112" spans="1:18" ht="15.75">
       <c r="A112" s="15"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="62"/>
+      <c r="B112" s="62"/>
+      <c r="C112" s="66"/>
       <c r="D112" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5094,13 +5102,13 @@
       <c r="N112" s="9"/>
       <c r="O112" s="9"/>
       <c r="P112" s="9"/>
-      <c r="Q112" s="58"/>
-      <c r="R112" s="63"/>
+      <c r="Q112" s="62"/>
+      <c r="R112" s="67"/>
     </row>
     <row r="113" spans="1:18" ht="15.75">
       <c r="A113" s="15"/>
-      <c r="B113" s="58"/>
-      <c r="C113" s="62"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="66"/>
       <c r="D113" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5129,13 +5137,13 @@
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
       <c r="P113" s="9"/>
-      <c r="Q113" s="58"/>
-      <c r="R113" s="63"/>
+      <c r="Q113" s="62"/>
+      <c r="R113" s="67"/>
     </row>
     <row r="114" spans="1:18" ht="15.75">
       <c r="A114" s="15"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="62"/>
+      <c r="B114" s="62"/>
+      <c r="C114" s="66"/>
       <c r="D114" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5164,13 +5172,13 @@
       <c r="N114" s="9"/>
       <c r="O114" s="9"/>
       <c r="P114" s="9"/>
-      <c r="Q114" s="58"/>
-      <c r="R114" s="63"/>
+      <c r="Q114" s="62"/>
+      <c r="R114" s="67"/>
     </row>
     <row r="115" spans="1:18" ht="15.75">
       <c r="A115" s="15"/>
-      <c r="B115" s="58"/>
-      <c r="C115" s="62"/>
+      <c r="B115" s="62"/>
+      <c r="C115" s="66"/>
       <c r="D115" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5199,13 +5207,13 @@
       <c r="N115" s="9"/>
       <c r="O115" s="9"/>
       <c r="P115" s="9"/>
-      <c r="Q115" s="58"/>
-      <c r="R115" s="63"/>
+      <c r="Q115" s="62"/>
+      <c r="R115" s="67"/>
     </row>
     <row r="116" spans="1:18" ht="15.75">
       <c r="A116" s="15"/>
-      <c r="B116" s="58"/>
-      <c r="C116" s="62"/>
+      <c r="B116" s="62"/>
+      <c r="C116" s="66"/>
       <c r="D116" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5233,13 +5241,13 @@
       <c r="N116" s="9"/>
       <c r="O116" s="9"/>
       <c r="P116" s="9"/>
-      <c r="Q116" s="58"/>
-      <c r="R116" s="63"/>
+      <c r="Q116" s="62"/>
+      <c r="R116" s="67"/>
     </row>
     <row r="117" spans="1:18" ht="15.75">
       <c r="A117" s="15"/>
-      <c r="B117" s="58"/>
-      <c r="C117" s="62"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="66"/>
       <c r="D117" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5267,13 +5275,13 @@
       <c r="N117" s="9"/>
       <c r="O117" s="9"/>
       <c r="P117" s="9"/>
-      <c r="Q117" s="58"/>
-      <c r="R117" s="63"/>
+      <c r="Q117" s="62"/>
+      <c r="R117" s="67"/>
     </row>
     <row r="118" spans="1:18" ht="15.75">
       <c r="A118" s="15"/>
-      <c r="B118" s="59"/>
-      <c r="C118" s="62"/>
+      <c r="B118" s="63"/>
+      <c r="C118" s="66"/>
       <c r="D118" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5301,13 +5309,13 @@
       <c r="N118" s="9"/>
       <c r="O118" s="9"/>
       <c r="P118" s="9"/>
-      <c r="Q118" s="59"/>
-      <c r="R118" s="63"/>
+      <c r="Q118" s="63"/>
+      <c r="R118" s="67"/>
     </row>
     <row r="119" spans="1:18" ht="25.5" customHeight="1">
       <c r="A119" s="15"/>
-      <c r="B119" s="57"/>
-      <c r="C119" s="61"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="64"/>
       <c r="D119" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5336,13 +5344,13 @@
       <c r="N119" s="9"/>
       <c r="O119" s="9"/>
       <c r="P119" s="9"/>
-      <c r="Q119" s="57"/>
-      <c r="R119" s="63"/>
+      <c r="Q119" s="61"/>
+      <c r="R119" s="67"/>
     </row>
     <row r="120" spans="1:18" ht="15.75">
       <c r="A120" s="15"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="61"/>
+      <c r="B120" s="62"/>
+      <c r="C120" s="64"/>
       <c r="D120" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5371,13 +5379,13 @@
       <c r="N120" s="9"/>
       <c r="O120" s="9"/>
       <c r="P120" s="9"/>
-      <c r="Q120" s="58"/>
-      <c r="R120" s="63"/>
+      <c r="Q120" s="62"/>
+      <c r="R120" s="67"/>
     </row>
     <row r="121" spans="1:18" ht="15.75">
       <c r="A121" s="15"/>
-      <c r="B121" s="58"/>
-      <c r="C121" s="61"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="64"/>
       <c r="D121" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5406,13 +5414,13 @@
       <c r="N121" s="9"/>
       <c r="O121" s="9"/>
       <c r="P121" s="9"/>
-      <c r="Q121" s="58"/>
-      <c r="R121" s="63"/>
+      <c r="Q121" s="62"/>
+      <c r="R121" s="67"/>
     </row>
     <row r="122" spans="1:18" ht="15.75">
       <c r="A122" s="15"/>
-      <c r="B122" s="58"/>
-      <c r="C122" s="61"/>
+      <c r="B122" s="62"/>
+      <c r="C122" s="64"/>
       <c r="D122" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5441,13 +5449,13 @@
       <c r="N122" s="9"/>
       <c r="O122" s="9"/>
       <c r="P122" s="9"/>
-      <c r="Q122" s="58"/>
-      <c r="R122" s="63"/>
+      <c r="Q122" s="62"/>
+      <c r="R122" s="67"/>
     </row>
     <row r="123" spans="1:18" ht="15.75">
       <c r="A123" s="15"/>
-      <c r="B123" s="58"/>
-      <c r="C123" s="61"/>
+      <c r="B123" s="62"/>
+      <c r="C123" s="64"/>
       <c r="D123" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5476,13 +5484,13 @@
       <c r="N123" s="9"/>
       <c r="O123" s="9"/>
       <c r="P123" s="9"/>
-      <c r="Q123" s="58"/>
-      <c r="R123" s="63"/>
+      <c r="Q123" s="62"/>
+      <c r="R123" s="67"/>
     </row>
     <row r="124" spans="1:18" ht="15.75">
       <c r="A124" s="15"/>
-      <c r="B124" s="58"/>
-      <c r="C124" s="61"/>
+      <c r="B124" s="62"/>
+      <c r="C124" s="64"/>
       <c r="D124" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5511,13 +5519,13 @@
       <c r="N124" s="9"/>
       <c r="O124" s="9"/>
       <c r="P124" s="9"/>
-      <c r="Q124" s="58"/>
-      <c r="R124" s="63"/>
+      <c r="Q124" s="62"/>
+      <c r="R124" s="67"/>
     </row>
     <row r="125" spans="1:18" ht="15.75">
       <c r="A125" s="15"/>
-      <c r="B125" s="58"/>
-      <c r="C125" s="61"/>
+      <c r="B125" s="62"/>
+      <c r="C125" s="64"/>
       <c r="D125" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5546,13 +5554,13 @@
       <c r="N125" s="9"/>
       <c r="O125" s="9"/>
       <c r="P125" s="9"/>
-      <c r="Q125" s="58"/>
-      <c r="R125" s="63"/>
+      <c r="Q125" s="62"/>
+      <c r="R125" s="67"/>
     </row>
     <row r="126" spans="1:18" ht="15.75">
       <c r="A126" s="15"/>
-      <c r="B126" s="58"/>
-      <c r="C126" s="61"/>
+      <c r="B126" s="62"/>
+      <c r="C126" s="64"/>
       <c r="D126" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5580,13 +5588,13 @@
       <c r="N126" s="9"/>
       <c r="O126" s="9"/>
       <c r="P126" s="9"/>
-      <c r="Q126" s="58"/>
-      <c r="R126" s="63"/>
+      <c r="Q126" s="62"/>
+      <c r="R126" s="67"/>
     </row>
     <row r="127" spans="1:18" ht="15.75">
       <c r="A127" s="15"/>
-      <c r="B127" s="58"/>
-      <c r="C127" s="61"/>
+      <c r="B127" s="62"/>
+      <c r="C127" s="64"/>
       <c r="D127" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5615,13 +5623,13 @@
       <c r="N127" s="9"/>
       <c r="O127" s="9"/>
       <c r="P127" s="9"/>
-      <c r="Q127" s="58"/>
-      <c r="R127" s="63"/>
+      <c r="Q127" s="62"/>
+      <c r="R127" s="67"/>
     </row>
     <row r="128" spans="1:18" ht="15.75">
       <c r="A128" s="15"/>
-      <c r="B128" s="58"/>
-      <c r="C128" s="61"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="64"/>
       <c r="D128" s="5" t="str">
         <f t="shared" ref="D128:D191" si="7">IF(LEN(E128)&gt;5,IF(LEN(K128&amp;L128&amp;M128)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -5649,13 +5657,13 @@
       <c r="N128" s="9"/>
       <c r="O128" s="9"/>
       <c r="P128" s="9"/>
-      <c r="Q128" s="58"/>
-      <c r="R128" s="63"/>
+      <c r="Q128" s="62"/>
+      <c r="R128" s="67"/>
     </row>
     <row r="129" spans="1:18" ht="15.75">
       <c r="A129" s="15"/>
-      <c r="B129" s="58"/>
-      <c r="C129" s="61"/>
+      <c r="B129" s="62"/>
+      <c r="C129" s="64"/>
       <c r="D129" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5684,13 +5692,13 @@
       <c r="N129" s="9"/>
       <c r="O129" s="9"/>
       <c r="P129" s="9"/>
-      <c r="Q129" s="58"/>
-      <c r="R129" s="63"/>
+      <c r="Q129" s="62"/>
+      <c r="R129" s="67"/>
     </row>
     <row r="130" spans="1:18" ht="15.75">
       <c r="A130" s="15"/>
-      <c r="B130" s="58"/>
-      <c r="C130" s="61"/>
+      <c r="B130" s="62"/>
+      <c r="C130" s="64"/>
       <c r="D130" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5719,13 +5727,13 @@
       <c r="N130" s="9"/>
       <c r="O130" s="9"/>
       <c r="P130" s="9"/>
-      <c r="Q130" s="58"/>
-      <c r="R130" s="63"/>
+      <c r="Q130" s="62"/>
+      <c r="R130" s="67"/>
     </row>
     <row r="131" spans="1:18" ht="15.75">
       <c r="A131" s="15"/>
-      <c r="B131" s="58"/>
-      <c r="C131" s="61"/>
+      <c r="B131" s="62"/>
+      <c r="C131" s="64"/>
       <c r="D131" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5754,13 +5762,13 @@
       <c r="N131" s="9"/>
       <c r="O131" s="9"/>
       <c r="P131" s="9"/>
-      <c r="Q131" s="58"/>
-      <c r="R131" s="63"/>
+      <c r="Q131" s="62"/>
+      <c r="R131" s="67"/>
     </row>
     <row r="132" spans="1:18" ht="15.75">
       <c r="A132" s="15"/>
-      <c r="B132" s="58"/>
-      <c r="C132" s="61"/>
+      <c r="B132" s="62"/>
+      <c r="C132" s="64"/>
       <c r="D132" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5789,13 +5797,13 @@
       <c r="N132" s="9"/>
       <c r="O132" s="9"/>
       <c r="P132" s="9"/>
-      <c r="Q132" s="58"/>
-      <c r="R132" s="63"/>
+      <c r="Q132" s="62"/>
+      <c r="R132" s="67"/>
     </row>
     <row r="133" spans="1:18" ht="15.75">
       <c r="A133" s="15"/>
-      <c r="B133" s="59"/>
-      <c r="C133" s="61"/>
+      <c r="B133" s="63"/>
+      <c r="C133" s="64"/>
       <c r="D133" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5824,13 +5832,13 @@
       <c r="N133" s="9"/>
       <c r="O133" s="9"/>
       <c r="P133" s="9"/>
-      <c r="Q133" s="59"/>
-      <c r="R133" s="63"/>
+      <c r="Q133" s="63"/>
+      <c r="R133" s="67"/>
     </row>
     <row r="134" spans="1:18" ht="12.75" customHeight="1">
       <c r="A134" s="15"/>
-      <c r="B134" s="57"/>
-      <c r="C134" s="61"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="64"/>
       <c r="D134" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5858,13 +5866,13 @@
       <c r="N134" s="9"/>
       <c r="O134" s="9"/>
       <c r="P134" s="9"/>
-      <c r="Q134" s="57"/>
-      <c r="R134" s="63"/>
+      <c r="Q134" s="61"/>
+      <c r="R134" s="67"/>
     </row>
     <row r="135" spans="1:18" ht="15.75">
       <c r="A135" s="15"/>
-      <c r="B135" s="58"/>
-      <c r="C135" s="61"/>
+      <c r="B135" s="62"/>
+      <c r="C135" s="64"/>
       <c r="D135" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5893,13 +5901,13 @@
       <c r="N135" s="9"/>
       <c r="O135" s="9"/>
       <c r="P135" s="9"/>
-      <c r="Q135" s="58"/>
-      <c r="R135" s="63"/>
+      <c r="Q135" s="62"/>
+      <c r="R135" s="67"/>
     </row>
     <row r="136" spans="1:18" ht="15.75">
       <c r="A136" s="15"/>
-      <c r="B136" s="58"/>
-      <c r="C136" s="61"/>
+      <c r="B136" s="62"/>
+      <c r="C136" s="64"/>
       <c r="D136" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5928,13 +5936,13 @@
       <c r="N136" s="9"/>
       <c r="O136" s="9"/>
       <c r="P136" s="9"/>
-      <c r="Q136" s="58"/>
-      <c r="R136" s="63"/>
+      <c r="Q136" s="62"/>
+      <c r="R136" s="67"/>
     </row>
     <row r="137" spans="1:18" ht="15.75">
       <c r="A137" s="15"/>
-      <c r="B137" s="58"/>
-      <c r="C137" s="61"/>
+      <c r="B137" s="62"/>
+      <c r="C137" s="64"/>
       <c r="D137" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5963,13 +5971,13 @@
       <c r="N137" s="9"/>
       <c r="O137" s="9"/>
       <c r="P137" s="9"/>
-      <c r="Q137" s="58"/>
-      <c r="R137" s="63"/>
+      <c r="Q137" s="62"/>
+      <c r="R137" s="67"/>
     </row>
     <row r="138" spans="1:18" ht="15.75">
       <c r="A138" s="15"/>
-      <c r="B138" s="58"/>
-      <c r="C138" s="61"/>
+      <c r="B138" s="62"/>
+      <c r="C138" s="64"/>
       <c r="D138" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5998,13 +6006,13 @@
       <c r="N138" s="9"/>
       <c r="O138" s="9"/>
       <c r="P138" s="9"/>
-      <c r="Q138" s="58"/>
-      <c r="R138" s="63"/>
+      <c r="Q138" s="62"/>
+      <c r="R138" s="67"/>
     </row>
     <row r="139" spans="1:18" ht="15.75">
       <c r="A139" s="15"/>
-      <c r="B139" s="58"/>
-      <c r="C139" s="61"/>
+      <c r="B139" s="62"/>
+      <c r="C139" s="64"/>
       <c r="D139" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6033,13 +6041,13 @@
       <c r="N139" s="9"/>
       <c r="O139" s="9"/>
       <c r="P139" s="9"/>
-      <c r="Q139" s="58"/>
-      <c r="R139" s="63"/>
+      <c r="Q139" s="62"/>
+      <c r="R139" s="67"/>
     </row>
     <row r="140" spans="1:18" ht="15.75">
       <c r="A140" s="15"/>
-      <c r="B140" s="58"/>
-      <c r="C140" s="61"/>
+      <c r="B140" s="62"/>
+      <c r="C140" s="64"/>
       <c r="D140" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6068,13 +6076,13 @@
       <c r="N140" s="9"/>
       <c r="O140" s="9"/>
       <c r="P140" s="9"/>
-      <c r="Q140" s="58"/>
-      <c r="R140" s="63"/>
+      <c r="Q140" s="62"/>
+      <c r="R140" s="67"/>
     </row>
     <row r="141" spans="1:18" ht="15.75">
       <c r="A141" s="15"/>
-      <c r="B141" s="58"/>
-      <c r="C141" s="61"/>
+      <c r="B141" s="62"/>
+      <c r="C141" s="64"/>
       <c r="D141" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6103,13 +6111,13 @@
       <c r="N141" s="9"/>
       <c r="O141" s="9"/>
       <c r="P141" s="9"/>
-      <c r="Q141" s="58"/>
-      <c r="R141" s="63"/>
+      <c r="Q141" s="62"/>
+      <c r="R141" s="67"/>
     </row>
     <row r="142" spans="1:18" ht="15.75">
       <c r="A142" s="15"/>
-      <c r="B142" s="58"/>
-      <c r="C142" s="61"/>
+      <c r="B142" s="62"/>
+      <c r="C142" s="64"/>
       <c r="D142" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6138,13 +6146,13 @@
       <c r="N142" s="9"/>
       <c r="O142" s="9"/>
       <c r="P142" s="9"/>
-      <c r="Q142" s="58"/>
-      <c r="R142" s="63"/>
+      <c r="Q142" s="62"/>
+      <c r="R142" s="67"/>
     </row>
     <row r="143" spans="1:18" ht="15.75">
       <c r="A143" s="15"/>
-      <c r="B143" s="58"/>
-      <c r="C143" s="61"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="64"/>
       <c r="D143" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6173,13 +6181,13 @@
       <c r="N143" s="9"/>
       <c r="O143" s="9"/>
       <c r="P143" s="9"/>
-      <c r="Q143" s="58"/>
-      <c r="R143" s="63"/>
+      <c r="Q143" s="62"/>
+      <c r="R143" s="67"/>
     </row>
     <row r="144" spans="1:18" ht="15.75">
       <c r="A144" s="15"/>
-      <c r="B144" s="58"/>
-      <c r="C144" s="61"/>
+      <c r="B144" s="62"/>
+      <c r="C144" s="64"/>
       <c r="D144" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6208,13 +6216,13 @@
       <c r="N144" s="9"/>
       <c r="O144" s="9"/>
       <c r="P144" s="9"/>
-      <c r="Q144" s="58"/>
-      <c r="R144" s="63"/>
+      <c r="Q144" s="62"/>
+      <c r="R144" s="67"/>
     </row>
     <row r="145" spans="1:18" ht="15.75">
       <c r="A145" s="15"/>
-      <c r="B145" s="58"/>
-      <c r="C145" s="61"/>
+      <c r="B145" s="62"/>
+      <c r="C145" s="64"/>
       <c r="D145" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6243,13 +6251,13 @@
       <c r="N145" s="9"/>
       <c r="O145" s="9"/>
       <c r="P145" s="9"/>
-      <c r="Q145" s="58"/>
-      <c r="R145" s="63"/>
+      <c r="Q145" s="62"/>
+      <c r="R145" s="67"/>
     </row>
     <row r="146" spans="1:18" ht="15.75">
       <c r="A146" s="15"/>
-      <c r="B146" s="58"/>
-      <c r="C146" s="61"/>
+      <c r="B146" s="62"/>
+      <c r="C146" s="64"/>
       <c r="D146" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6278,13 +6286,13 @@
       <c r="N146" s="9"/>
       <c r="O146" s="9"/>
       <c r="P146" s="9"/>
-      <c r="Q146" s="58"/>
-      <c r="R146" s="63"/>
+      <c r="Q146" s="62"/>
+      <c r="R146" s="67"/>
     </row>
     <row r="147" spans="1:18" ht="15.75">
       <c r="A147" s="15"/>
-      <c r="B147" s="58"/>
-      <c r="C147" s="61"/>
+      <c r="B147" s="62"/>
+      <c r="C147" s="64"/>
       <c r="D147" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6313,13 +6321,13 @@
       <c r="N147" s="9"/>
       <c r="O147" s="9"/>
       <c r="P147" s="9"/>
-      <c r="Q147" s="58"/>
-      <c r="R147" s="63"/>
+      <c r="Q147" s="62"/>
+      <c r="R147" s="67"/>
     </row>
     <row r="148" spans="1:18" ht="15.75">
       <c r="A148" s="15"/>
-      <c r="B148" s="59"/>
-      <c r="C148" s="61"/>
+      <c r="B148" s="63"/>
+      <c r="C148" s="64"/>
       <c r="D148" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6348,13 +6356,13 @@
       <c r="N148" s="9"/>
       <c r="O148" s="9"/>
       <c r="P148" s="9"/>
-      <c r="Q148" s="59"/>
-      <c r="R148" s="63"/>
+      <c r="Q148" s="63"/>
+      <c r="R148" s="67"/>
     </row>
     <row r="149" spans="1:18" ht="102" customHeight="1">
       <c r="A149" s="15"/>
-      <c r="B149" s="57"/>
-      <c r="C149" s="61"/>
+      <c r="B149" s="61"/>
+      <c r="C149" s="64"/>
       <c r="D149" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6383,13 +6391,13 @@
       <c r="N149" s="9"/>
       <c r="O149" s="9"/>
       <c r="P149" s="9"/>
-      <c r="Q149" s="57"/>
-      <c r="R149" s="63"/>
+      <c r="Q149" s="61"/>
+      <c r="R149" s="67"/>
     </row>
     <row r="150" spans="1:18" ht="15.75">
       <c r="A150" s="15"/>
-      <c r="B150" s="58"/>
-      <c r="C150" s="61"/>
+      <c r="B150" s="62"/>
+      <c r="C150" s="64"/>
       <c r="D150" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6418,13 +6426,13 @@
       <c r="N150" s="9"/>
       <c r="O150" s="9"/>
       <c r="P150" s="9"/>
-      <c r="Q150" s="58"/>
-      <c r="R150" s="63"/>
+      <c r="Q150" s="62"/>
+      <c r="R150" s="67"/>
     </row>
     <row r="151" spans="1:18" ht="15.75">
       <c r="A151" s="15"/>
-      <c r="B151" s="58"/>
-      <c r="C151" s="61"/>
+      <c r="B151" s="62"/>
+      <c r="C151" s="64"/>
       <c r="D151" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6453,13 +6461,13 @@
       <c r="N151" s="9"/>
       <c r="O151" s="9"/>
       <c r="P151" s="9"/>
-      <c r="Q151" s="58"/>
-      <c r="R151" s="63"/>
+      <c r="Q151" s="62"/>
+      <c r="R151" s="67"/>
     </row>
     <row r="152" spans="1:18" ht="15.75">
       <c r="A152" s="15"/>
-      <c r="B152" s="58"/>
-      <c r="C152" s="61"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="64"/>
       <c r="D152" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6488,13 +6496,13 @@
       <c r="N152" s="9"/>
       <c r="O152" s="9"/>
       <c r="P152" s="9"/>
-      <c r="Q152" s="58"/>
-      <c r="R152" s="63"/>
+      <c r="Q152" s="62"/>
+      <c r="R152" s="67"/>
     </row>
     <row r="153" spans="1:18" ht="15.75">
       <c r="A153" s="15"/>
-      <c r="B153" s="58"/>
-      <c r="C153" s="61"/>
+      <c r="B153" s="62"/>
+      <c r="C153" s="64"/>
       <c r="D153" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6523,13 +6531,13 @@
       <c r="N153" s="9"/>
       <c r="O153" s="9"/>
       <c r="P153" s="9"/>
-      <c r="Q153" s="58"/>
-      <c r="R153" s="63"/>
+      <c r="Q153" s="62"/>
+      <c r="R153" s="67"/>
     </row>
     <row r="154" spans="1:18" ht="15.75">
       <c r="A154" s="15"/>
-      <c r="B154" s="58"/>
-      <c r="C154" s="61"/>
+      <c r="B154" s="62"/>
+      <c r="C154" s="64"/>
       <c r="D154" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6558,13 +6566,13 @@
       <c r="N154" s="9"/>
       <c r="O154" s="9"/>
       <c r="P154" s="9"/>
-      <c r="Q154" s="58"/>
-      <c r="R154" s="63"/>
+      <c r="Q154" s="62"/>
+      <c r="R154" s="67"/>
     </row>
     <row r="155" spans="1:18" ht="15.75">
       <c r="A155" s="15"/>
-      <c r="B155" s="58"/>
-      <c r="C155" s="61"/>
+      <c r="B155" s="62"/>
+      <c r="C155" s="64"/>
       <c r="D155" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6593,13 +6601,13 @@
       <c r="N155" s="9"/>
       <c r="O155" s="9"/>
       <c r="P155" s="9"/>
-      <c r="Q155" s="58"/>
-      <c r="R155" s="63"/>
+      <c r="Q155" s="62"/>
+      <c r="R155" s="67"/>
     </row>
     <row r="156" spans="1:18" ht="15.75">
       <c r="A156" s="15"/>
-      <c r="B156" s="58"/>
-      <c r="C156" s="61"/>
+      <c r="B156" s="62"/>
+      <c r="C156" s="64"/>
       <c r="D156" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6628,13 +6636,13 @@
       <c r="N156" s="9"/>
       <c r="O156" s="9"/>
       <c r="P156" s="9"/>
-      <c r="Q156" s="58"/>
-      <c r="R156" s="63"/>
+      <c r="Q156" s="62"/>
+      <c r="R156" s="67"/>
     </row>
     <row r="157" spans="1:18" ht="15.75">
       <c r="A157" s="15"/>
-      <c r="B157" s="58"/>
-      <c r="C157" s="61"/>
+      <c r="B157" s="62"/>
+      <c r="C157" s="64"/>
       <c r="D157" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6663,13 +6671,13 @@
       <c r="N157" s="9"/>
       <c r="O157" s="9"/>
       <c r="P157" s="9"/>
-      <c r="Q157" s="58"/>
-      <c r="R157" s="63"/>
+      <c r="Q157" s="62"/>
+      <c r="R157" s="67"/>
     </row>
     <row r="158" spans="1:18" ht="15.75">
       <c r="A158" s="15"/>
-      <c r="B158" s="58"/>
-      <c r="C158" s="61"/>
+      <c r="B158" s="62"/>
+      <c r="C158" s="64"/>
       <c r="D158" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6698,13 +6706,13 @@
       <c r="N158" s="9"/>
       <c r="O158" s="9"/>
       <c r="P158" s="9"/>
-      <c r="Q158" s="58"/>
-      <c r="R158" s="63"/>
+      <c r="Q158" s="62"/>
+      <c r="R158" s="67"/>
     </row>
     <row r="159" spans="1:18" ht="15.75">
       <c r="A159" s="15"/>
-      <c r="B159" s="58"/>
-      <c r="C159" s="61"/>
+      <c r="B159" s="62"/>
+      <c r="C159" s="64"/>
       <c r="D159" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6733,13 +6741,13 @@
       <c r="N159" s="9"/>
       <c r="O159" s="9"/>
       <c r="P159" s="9"/>
-      <c r="Q159" s="58"/>
-      <c r="R159" s="63"/>
+      <c r="Q159" s="62"/>
+      <c r="R159" s="67"/>
     </row>
     <row r="160" spans="1:18" ht="15.75">
       <c r="A160" s="15"/>
-      <c r="B160" s="58"/>
-      <c r="C160" s="61"/>
+      <c r="B160" s="62"/>
+      <c r="C160" s="64"/>
       <c r="D160" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6768,13 +6776,13 @@
       <c r="N160" s="9"/>
       <c r="O160" s="9"/>
       <c r="P160" s="9"/>
-      <c r="Q160" s="58"/>
-      <c r="R160" s="63"/>
+      <c r="Q160" s="62"/>
+      <c r="R160" s="67"/>
     </row>
     <row r="161" spans="1:18" ht="15.75">
       <c r="A161" s="15"/>
-      <c r="B161" s="58"/>
-      <c r="C161" s="61"/>
+      <c r="B161" s="62"/>
+      <c r="C161" s="64"/>
       <c r="D161" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6803,13 +6811,13 @@
       <c r="N161" s="9"/>
       <c r="O161" s="9"/>
       <c r="P161" s="9"/>
-      <c r="Q161" s="58"/>
-      <c r="R161" s="63"/>
+      <c r="Q161" s="62"/>
+      <c r="R161" s="67"/>
     </row>
     <row r="162" spans="1:18" ht="15.75">
       <c r="A162" s="15"/>
-      <c r="B162" s="58"/>
-      <c r="C162" s="61"/>
+      <c r="B162" s="62"/>
+      <c r="C162" s="64"/>
       <c r="D162" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6838,13 +6846,13 @@
       <c r="N162" s="9"/>
       <c r="O162" s="9"/>
       <c r="P162" s="9"/>
-      <c r="Q162" s="58"/>
-      <c r="R162" s="63"/>
+      <c r="Q162" s="62"/>
+      <c r="R162" s="67"/>
     </row>
     <row r="163" spans="1:18" ht="15.75">
       <c r="A163" s="15"/>
-      <c r="B163" s="59"/>
-      <c r="C163" s="61"/>
+      <c r="B163" s="63"/>
+      <c r="C163" s="64"/>
       <c r="D163" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6873,13 +6881,13 @@
       <c r="N163" s="9"/>
       <c r="O163" s="9"/>
       <c r="P163" s="9"/>
-      <c r="Q163" s="59"/>
-      <c r="R163" s="63"/>
+      <c r="Q163" s="63"/>
+      <c r="R163" s="67"/>
     </row>
     <row r="164" spans="1:18" ht="15.75">
       <c r="A164" s="15"/>
-      <c r="B164" s="57"/>
-      <c r="C164" s="61"/>
+      <c r="B164" s="61"/>
+      <c r="C164" s="64"/>
       <c r="D164" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6908,13 +6916,13 @@
       <c r="N164" s="9"/>
       <c r="O164" s="9"/>
       <c r="P164" s="9"/>
-      <c r="Q164" s="57"/>
-      <c r="R164" s="63"/>
+      <c r="Q164" s="61"/>
+      <c r="R164" s="67"/>
     </row>
     <row r="165" spans="1:18" ht="15.75">
       <c r="A165" s="15"/>
-      <c r="B165" s="58"/>
-      <c r="C165" s="61"/>
+      <c r="B165" s="62"/>
+      <c r="C165" s="64"/>
       <c r="D165" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6943,13 +6951,13 @@
       <c r="N165" s="9"/>
       <c r="O165" s="9"/>
       <c r="P165" s="9"/>
-      <c r="Q165" s="58"/>
-      <c r="R165" s="63"/>
+      <c r="Q165" s="62"/>
+      <c r="R165" s="67"/>
     </row>
     <row r="166" spans="1:18" ht="15.75">
       <c r="A166" s="15"/>
-      <c r="B166" s="58"/>
-      <c r="C166" s="61"/>
+      <c r="B166" s="62"/>
+      <c r="C166" s="64"/>
       <c r="D166" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6978,13 +6986,13 @@
       <c r="N166" s="9"/>
       <c r="O166" s="9"/>
       <c r="P166" s="9"/>
-      <c r="Q166" s="58"/>
-      <c r="R166" s="63"/>
+      <c r="Q166" s="62"/>
+      <c r="R166" s="67"/>
     </row>
     <row r="167" spans="1:18" ht="15.75">
       <c r="A167" s="15"/>
-      <c r="B167" s="58"/>
-      <c r="C167" s="61"/>
+      <c r="B167" s="62"/>
+      <c r="C167" s="64"/>
       <c r="D167" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7013,13 +7021,13 @@
       <c r="N167" s="9"/>
       <c r="O167" s="9"/>
       <c r="P167" s="9"/>
-      <c r="Q167" s="58"/>
-      <c r="R167" s="63"/>
+      <c r="Q167" s="62"/>
+      <c r="R167" s="67"/>
     </row>
     <row r="168" spans="1:18" ht="15.75">
       <c r="A168" s="15"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="61"/>
+      <c r="B168" s="62"/>
+      <c r="C168" s="64"/>
       <c r="D168" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7048,13 +7056,13 @@
       <c r="N168" s="9"/>
       <c r="O168" s="9"/>
       <c r="P168" s="9"/>
-      <c r="Q168" s="58"/>
-      <c r="R168" s="63"/>
+      <c r="Q168" s="62"/>
+      <c r="R168" s="67"/>
     </row>
     <row r="169" spans="1:18" ht="28.5" customHeight="1">
       <c r="A169" s="15"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="61"/>
+      <c r="B169" s="62"/>
+      <c r="C169" s="64"/>
       <c r="D169" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7083,13 +7091,13 @@
       <c r="N169" s="9"/>
       <c r="O169" s="9"/>
       <c r="P169" s="9"/>
-      <c r="Q169" s="58"/>
-      <c r="R169" s="63"/>
+      <c r="Q169" s="62"/>
+      <c r="R169" s="67"/>
     </row>
     <row r="170" spans="1:18" ht="33.75" customHeight="1">
       <c r="A170" s="15"/>
-      <c r="B170" s="58"/>
-      <c r="C170" s="61"/>
+      <c r="B170" s="62"/>
+      <c r="C170" s="64"/>
       <c r="D170" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7118,13 +7126,13 @@
       <c r="N170" s="9"/>
       <c r="O170" s="9"/>
       <c r="P170" s="9"/>
-      <c r="Q170" s="58"/>
-      <c r="R170" s="63"/>
+      <c r="Q170" s="62"/>
+      <c r="R170" s="67"/>
     </row>
     <row r="171" spans="1:18" ht="15.75">
       <c r="A171" s="15"/>
-      <c r="B171" s="58"/>
-      <c r="C171" s="61"/>
+      <c r="B171" s="62"/>
+      <c r="C171" s="64"/>
       <c r="D171" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7153,13 +7161,13 @@
       <c r="N171" s="9"/>
       <c r="O171" s="9"/>
       <c r="P171" s="9"/>
-      <c r="Q171" s="58"/>
-      <c r="R171" s="63"/>
+      <c r="Q171" s="62"/>
+      <c r="R171" s="67"/>
     </row>
     <row r="172" spans="1:18" ht="15.75">
       <c r="A172" s="15"/>
-      <c r="B172" s="58"/>
-      <c r="C172" s="61"/>
+      <c r="B172" s="62"/>
+      <c r="C172" s="64"/>
       <c r="D172" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7188,13 +7196,13 @@
       <c r="N172" s="9"/>
       <c r="O172" s="9"/>
       <c r="P172" s="9"/>
-      <c r="Q172" s="58"/>
-      <c r="R172" s="63"/>
+      <c r="Q172" s="62"/>
+      <c r="R172" s="67"/>
     </row>
     <row r="173" spans="1:18" ht="15.75">
       <c r="A173" s="15"/>
-      <c r="B173" s="58"/>
-      <c r="C173" s="61"/>
+      <c r="B173" s="62"/>
+      <c r="C173" s="64"/>
       <c r="D173" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7223,13 +7231,13 @@
       <c r="N173" s="9"/>
       <c r="O173" s="9"/>
       <c r="P173" s="9"/>
-      <c r="Q173" s="58"/>
-      <c r="R173" s="63"/>
+      <c r="Q173" s="62"/>
+      <c r="R173" s="67"/>
     </row>
     <row r="174" spans="1:18" ht="15.75">
       <c r="A174" s="15"/>
-      <c r="B174" s="58"/>
-      <c r="C174" s="61"/>
+      <c r="B174" s="62"/>
+      <c r="C174" s="64"/>
       <c r="D174" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7258,13 +7266,13 @@
       <c r="N174" s="9"/>
       <c r="O174" s="9"/>
       <c r="P174" s="9"/>
-      <c r="Q174" s="58"/>
-      <c r="R174" s="63"/>
+      <c r="Q174" s="62"/>
+      <c r="R174" s="67"/>
     </row>
     <row r="175" spans="1:18" ht="15.75">
       <c r="A175" s="15"/>
-      <c r="B175" s="58"/>
-      <c r="C175" s="61"/>
+      <c r="B175" s="62"/>
+      <c r="C175" s="64"/>
       <c r="D175" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7293,13 +7301,13 @@
       <c r="N175" s="9"/>
       <c r="O175" s="9"/>
       <c r="P175" s="9"/>
-      <c r="Q175" s="58"/>
-      <c r="R175" s="63"/>
+      <c r="Q175" s="62"/>
+      <c r="R175" s="67"/>
     </row>
     <row r="176" spans="1:18" ht="15.75">
       <c r="A176" s="15"/>
-      <c r="B176" s="58"/>
-      <c r="C176" s="61"/>
+      <c r="B176" s="62"/>
+      <c r="C176" s="64"/>
       <c r="D176" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7328,13 +7336,13 @@
       <c r="N176" s="9"/>
       <c r="O176" s="9"/>
       <c r="P176" s="9"/>
-      <c r="Q176" s="58"/>
-      <c r="R176" s="63"/>
+      <c r="Q176" s="62"/>
+      <c r="R176" s="67"/>
     </row>
     <row r="177" spans="1:18" ht="15.75">
       <c r="A177" s="15"/>
-      <c r="B177" s="58"/>
-      <c r="C177" s="61"/>
+      <c r="B177" s="62"/>
+      <c r="C177" s="64"/>
       <c r="D177" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7363,13 +7371,13 @@
       <c r="N177" s="9"/>
       <c r="O177" s="9"/>
       <c r="P177" s="9"/>
-      <c r="Q177" s="58"/>
-      <c r="R177" s="63"/>
+      <c r="Q177" s="62"/>
+      <c r="R177" s="67"/>
     </row>
     <row r="178" spans="1:18" ht="15.75">
       <c r="A178" s="15"/>
-      <c r="B178" s="59"/>
-      <c r="C178" s="61"/>
+      <c r="B178" s="63"/>
+      <c r="C178" s="64"/>
       <c r="D178" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7398,13 +7406,13 @@
       <c r="N178" s="9"/>
       <c r="O178" s="9"/>
       <c r="P178" s="9"/>
-      <c r="Q178" s="59"/>
-      <c r="R178" s="63"/>
+      <c r="Q178" s="63"/>
+      <c r="R178" s="67"/>
     </row>
     <row r="179" spans="1:18" ht="38.25" customHeight="1">
       <c r="A179" s="15"/>
-      <c r="B179" s="57"/>
-      <c r="C179" s="61"/>
+      <c r="B179" s="61"/>
+      <c r="C179" s="64"/>
       <c r="D179" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7433,13 +7441,13 @@
       <c r="N179" s="9"/>
       <c r="O179" s="9"/>
       <c r="P179" s="9"/>
-      <c r="Q179" s="57"/>
-      <c r="R179" s="63"/>
+      <c r="Q179" s="61"/>
+      <c r="R179" s="67"/>
     </row>
     <row r="180" spans="1:18" ht="15.75">
       <c r="A180" s="15"/>
-      <c r="B180" s="58"/>
-      <c r="C180" s="61"/>
+      <c r="B180" s="62"/>
+      <c r="C180" s="64"/>
       <c r="D180" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7468,13 +7476,13 @@
       <c r="N180" s="9"/>
       <c r="O180" s="9"/>
       <c r="P180" s="9"/>
-      <c r="Q180" s="58"/>
-      <c r="R180" s="63"/>
+      <c r="Q180" s="62"/>
+      <c r="R180" s="67"/>
     </row>
     <row r="181" spans="1:18" ht="15.75">
       <c r="A181" s="15"/>
-      <c r="B181" s="58"/>
-      <c r="C181" s="61"/>
+      <c r="B181" s="62"/>
+      <c r="C181" s="64"/>
       <c r="D181" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7503,13 +7511,13 @@
       <c r="N181" s="9"/>
       <c r="O181" s="9"/>
       <c r="P181" s="9"/>
-      <c r="Q181" s="58"/>
-      <c r="R181" s="63"/>
+      <c r="Q181" s="62"/>
+      <c r="R181" s="67"/>
     </row>
     <row r="182" spans="1:18" ht="15.75">
       <c r="A182" s="15"/>
-      <c r="B182" s="58"/>
-      <c r="C182" s="61"/>
+      <c r="B182" s="62"/>
+      <c r="C182" s="64"/>
       <c r="D182" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7538,13 +7546,13 @@
       <c r="N182" s="9"/>
       <c r="O182" s="9"/>
       <c r="P182" s="9"/>
-      <c r="Q182" s="58"/>
-      <c r="R182" s="63"/>
+      <c r="Q182" s="62"/>
+      <c r="R182" s="67"/>
     </row>
     <row r="183" spans="1:18" ht="15.75">
       <c r="A183" s="15"/>
-      <c r="B183" s="58"/>
-      <c r="C183" s="61"/>
+      <c r="B183" s="62"/>
+      <c r="C183" s="64"/>
       <c r="D183" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7573,13 +7581,13 @@
       <c r="N183" s="9"/>
       <c r="O183" s="9"/>
       <c r="P183" s="9"/>
-      <c r="Q183" s="58"/>
-      <c r="R183" s="63"/>
+      <c r="Q183" s="62"/>
+      <c r="R183" s="67"/>
     </row>
     <row r="184" spans="1:18" ht="15.75">
       <c r="A184" s="15"/>
-      <c r="B184" s="58"/>
-      <c r="C184" s="61"/>
+      <c r="B184" s="62"/>
+      <c r="C184" s="64"/>
       <c r="D184" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7608,13 +7616,13 @@
       <c r="N184" s="9"/>
       <c r="O184" s="9"/>
       <c r="P184" s="9"/>
-      <c r="Q184" s="58"/>
-      <c r="R184" s="63"/>
+      <c r="Q184" s="62"/>
+      <c r="R184" s="67"/>
     </row>
     <row r="185" spans="1:18" ht="15.75">
       <c r="A185" s="15"/>
-      <c r="B185" s="58"/>
-      <c r="C185" s="61"/>
+      <c r="B185" s="62"/>
+      <c r="C185" s="64"/>
       <c r="D185" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7643,13 +7651,13 @@
       <c r="N185" s="9"/>
       <c r="O185" s="9"/>
       <c r="P185" s="9"/>
-      <c r="Q185" s="58"/>
-      <c r="R185" s="63"/>
+      <c r="Q185" s="62"/>
+      <c r="R185" s="67"/>
     </row>
     <row r="186" spans="1:18" ht="27.75" customHeight="1">
       <c r="A186" s="15"/>
-      <c r="B186" s="58"/>
-      <c r="C186" s="61"/>
+      <c r="B186" s="62"/>
+      <c r="C186" s="64"/>
       <c r="D186" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7678,13 +7686,13 @@
       <c r="N186" s="9"/>
       <c r="O186" s="9"/>
       <c r="P186" s="9"/>
-      <c r="Q186" s="58"/>
-      <c r="R186" s="63"/>
+      <c r="Q186" s="62"/>
+      <c r="R186" s="67"/>
     </row>
     <row r="187" spans="1:18" ht="15.75">
       <c r="A187" s="15"/>
-      <c r="B187" s="58"/>
-      <c r="C187" s="61"/>
+      <c r="B187" s="62"/>
+      <c r="C187" s="64"/>
       <c r="D187" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7713,13 +7721,13 @@
       <c r="N187" s="9"/>
       <c r="O187" s="9"/>
       <c r="P187" s="9"/>
-      <c r="Q187" s="58"/>
-      <c r="R187" s="63"/>
+      <c r="Q187" s="62"/>
+      <c r="R187" s="67"/>
     </row>
     <row r="188" spans="1:18" ht="15.75">
       <c r="A188" s="15"/>
-      <c r="B188" s="58"/>
-      <c r="C188" s="61"/>
+      <c r="B188" s="62"/>
+      <c r="C188" s="64"/>
       <c r="D188" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7747,13 +7755,13 @@
       <c r="N188" s="9"/>
       <c r="O188" s="9"/>
       <c r="P188" s="9"/>
-      <c r="Q188" s="58"/>
-      <c r="R188" s="63"/>
+      <c r="Q188" s="62"/>
+      <c r="R188" s="67"/>
     </row>
     <row r="189" spans="1:18" ht="15.75">
       <c r="A189" s="15"/>
-      <c r="B189" s="58"/>
-      <c r="C189" s="61"/>
+      <c r="B189" s="62"/>
+      <c r="C189" s="64"/>
       <c r="D189" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7782,13 +7790,13 @@
       <c r="N189" s="9"/>
       <c r="O189" s="9"/>
       <c r="P189" s="9"/>
-      <c r="Q189" s="58"/>
-      <c r="R189" s="63"/>
+      <c r="Q189" s="62"/>
+      <c r="R189" s="67"/>
     </row>
     <row r="190" spans="1:18" ht="15.75">
       <c r="A190" s="15"/>
-      <c r="B190" s="58"/>
-      <c r="C190" s="61"/>
+      <c r="B190" s="62"/>
+      <c r="C190" s="64"/>
       <c r="D190" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7817,13 +7825,13 @@
       <c r="N190" s="9"/>
       <c r="O190" s="9"/>
       <c r="P190" s="9"/>
-      <c r="Q190" s="58"/>
-      <c r="R190" s="63"/>
+      <c r="Q190" s="62"/>
+      <c r="R190" s="67"/>
     </row>
     <row r="191" spans="1:18" ht="15.75">
       <c r="A191" s="15"/>
-      <c r="B191" s="58"/>
-      <c r="C191" s="61"/>
+      <c r="B191" s="62"/>
+      <c r="C191" s="64"/>
       <c r="D191" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7852,13 +7860,13 @@
       <c r="N191" s="9"/>
       <c r="O191" s="9"/>
       <c r="P191" s="9"/>
-      <c r="Q191" s="58"/>
-      <c r="R191" s="63"/>
+      <c r="Q191" s="62"/>
+      <c r="R191" s="67"/>
     </row>
     <row r="192" spans="1:18" ht="15.75">
       <c r="A192" s="15"/>
-      <c r="B192" s="58"/>
-      <c r="C192" s="61"/>
+      <c r="B192" s="62"/>
+      <c r="C192" s="64"/>
       <c r="D192" s="5" t="str">
         <f t="shared" ref="D192:D255" si="11">IF(LEN(E192)&gt;5,IF(LEN(K192&amp;L192&amp;M192)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -7887,13 +7895,13 @@
       <c r="N192" s="9"/>
       <c r="O192" s="9"/>
       <c r="P192" s="9"/>
-      <c r="Q192" s="58"/>
-      <c r="R192" s="63"/>
+      <c r="Q192" s="62"/>
+      <c r="R192" s="67"/>
     </row>
     <row r="193" spans="1:18" ht="15.75">
       <c r="A193" s="15"/>
-      <c r="B193" s="59"/>
-      <c r="C193" s="61"/>
+      <c r="B193" s="63"/>
+      <c r="C193" s="64"/>
       <c r="D193" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -7922,13 +7930,13 @@
       <c r="N193" s="9"/>
       <c r="O193" s="9"/>
       <c r="P193" s="9"/>
-      <c r="Q193" s="59"/>
-      <c r="R193" s="63"/>
+      <c r="Q193" s="63"/>
+      <c r="R193" s="67"/>
     </row>
     <row r="194" spans="1:18" ht="25.5" customHeight="1">
       <c r="A194" s="15"/>
-      <c r="B194" s="57"/>
-      <c r="C194" s="61"/>
+      <c r="B194" s="61"/>
+      <c r="C194" s="64"/>
       <c r="D194" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -7957,13 +7965,13 @@
       <c r="N194" s="9"/>
       <c r="O194" s="9"/>
       <c r="P194" s="9"/>
-      <c r="Q194" s="57"/>
-      <c r="R194" s="63"/>
+      <c r="Q194" s="61"/>
+      <c r="R194" s="67"/>
     </row>
     <row r="195" spans="1:18" ht="15.75">
       <c r="A195" s="15"/>
-      <c r="B195" s="58"/>
-      <c r="C195" s="61"/>
+      <c r="B195" s="62"/>
+      <c r="C195" s="64"/>
       <c r="D195" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -7992,13 +8000,13 @@
       <c r="N195" s="9"/>
       <c r="O195" s="9"/>
       <c r="P195" s="9"/>
-      <c r="Q195" s="58"/>
-      <c r="R195" s="63"/>
+      <c r="Q195" s="62"/>
+      <c r="R195" s="67"/>
     </row>
     <row r="196" spans="1:18" ht="15.75">
       <c r="A196" s="15"/>
-      <c r="B196" s="58"/>
-      <c r="C196" s="61"/>
+      <c r="B196" s="62"/>
+      <c r="C196" s="64"/>
       <c r="D196" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8027,13 +8035,13 @@
       <c r="N196" s="9"/>
       <c r="O196" s="9"/>
       <c r="P196" s="9"/>
-      <c r="Q196" s="58"/>
-      <c r="R196" s="63"/>
+      <c r="Q196" s="62"/>
+      <c r="R196" s="67"/>
     </row>
     <row r="197" spans="1:18" ht="15.75">
       <c r="A197" s="15"/>
-      <c r="B197" s="58"/>
-      <c r="C197" s="61"/>
+      <c r="B197" s="62"/>
+      <c r="C197" s="64"/>
       <c r="D197" s="30" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8062,13 +8070,13 @@
       <c r="N197" s="9"/>
       <c r="O197" s="9"/>
       <c r="P197" s="9"/>
-      <c r="Q197" s="58"/>
-      <c r="R197" s="63"/>
+      <c r="Q197" s="62"/>
+      <c r="R197" s="67"/>
     </row>
     <row r="198" spans="1:18" ht="15.75">
       <c r="A198" s="15"/>
-      <c r="B198" s="58"/>
-      <c r="C198" s="61"/>
+      <c r="B198" s="62"/>
+      <c r="C198" s="64"/>
       <c r="D198" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8097,13 +8105,13 @@
       <c r="N198" s="9"/>
       <c r="O198" s="9"/>
       <c r="P198" s="9"/>
-      <c r="Q198" s="58"/>
-      <c r="R198" s="63"/>
+      <c r="Q198" s="62"/>
+      <c r="R198" s="67"/>
     </row>
     <row r="199" spans="1:18" ht="15.75">
       <c r="A199" s="15"/>
-      <c r="B199" s="58"/>
-      <c r="C199" s="61"/>
+      <c r="B199" s="62"/>
+      <c r="C199" s="64"/>
       <c r="D199" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8132,13 +8140,13 @@
       <c r="N199" s="9"/>
       <c r="O199" s="9"/>
       <c r="P199" s="9"/>
-      <c r="Q199" s="58"/>
-      <c r="R199" s="63"/>
+      <c r="Q199" s="62"/>
+      <c r="R199" s="67"/>
     </row>
     <row r="200" spans="1:18" ht="15.75">
       <c r="A200" s="15"/>
-      <c r="B200" s="58"/>
-      <c r="C200" s="61"/>
+      <c r="B200" s="62"/>
+      <c r="C200" s="64"/>
       <c r="D200" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8167,13 +8175,13 @@
       <c r="N200" s="9"/>
       <c r="O200" s="9"/>
       <c r="P200" s="9"/>
-      <c r="Q200" s="58"/>
-      <c r="R200" s="63"/>
+      <c r="Q200" s="62"/>
+      <c r="R200" s="67"/>
     </row>
     <row r="201" spans="1:18" ht="15.75">
       <c r="A201" s="15"/>
-      <c r="B201" s="58"/>
-      <c r="C201" s="61"/>
+      <c r="B201" s="62"/>
+      <c r="C201" s="64"/>
       <c r="D201" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8202,13 +8210,13 @@
       <c r="N201" s="9"/>
       <c r="O201" s="9"/>
       <c r="P201" s="9"/>
-      <c r="Q201" s="58"/>
-      <c r="R201" s="63"/>
+      <c r="Q201" s="62"/>
+      <c r="R201" s="67"/>
     </row>
     <row r="202" spans="1:18" ht="15.75">
       <c r="A202" s="15"/>
-      <c r="B202" s="58"/>
-      <c r="C202" s="61"/>
+      <c r="B202" s="62"/>
+      <c r="C202" s="64"/>
       <c r="D202" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8237,13 +8245,13 @@
       <c r="N202" s="9"/>
       <c r="O202" s="9"/>
       <c r="P202" s="9"/>
-      <c r="Q202" s="58"/>
-      <c r="R202" s="63"/>
+      <c r="Q202" s="62"/>
+      <c r="R202" s="67"/>
     </row>
     <row r="203" spans="1:18" ht="15.75">
       <c r="A203" s="15"/>
-      <c r="B203" s="58"/>
-      <c r="C203" s="61"/>
+      <c r="B203" s="62"/>
+      <c r="C203" s="64"/>
       <c r="D203" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8272,13 +8280,13 @@
       <c r="N203" s="9"/>
       <c r="O203" s="9"/>
       <c r="P203" s="9"/>
-      <c r="Q203" s="58"/>
-      <c r="R203" s="63"/>
+      <c r="Q203" s="62"/>
+      <c r="R203" s="67"/>
     </row>
     <row r="204" spans="1:18" ht="15.75">
       <c r="A204" s="15"/>
-      <c r="B204" s="58"/>
-      <c r="C204" s="61"/>
+      <c r="B204" s="62"/>
+      <c r="C204" s="64"/>
       <c r="D204" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8307,13 +8315,13 @@
       <c r="N204" s="9"/>
       <c r="O204" s="9"/>
       <c r="P204" s="9"/>
-      <c r="Q204" s="58"/>
-      <c r="R204" s="63"/>
+      <c r="Q204" s="62"/>
+      <c r="R204" s="67"/>
     </row>
     <row r="205" spans="1:18" ht="15.75">
       <c r="A205" s="15"/>
-      <c r="B205" s="58"/>
-      <c r="C205" s="61"/>
+      <c r="B205" s="62"/>
+      <c r="C205" s="64"/>
       <c r="D205" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8342,13 +8350,13 @@
       <c r="N205" s="9"/>
       <c r="O205" s="9"/>
       <c r="P205" s="9"/>
-      <c r="Q205" s="58"/>
-      <c r="R205" s="63"/>
+      <c r="Q205" s="62"/>
+      <c r="R205" s="67"/>
     </row>
     <row r="206" spans="1:18" ht="15.75">
       <c r="A206" s="15"/>
-      <c r="B206" s="58"/>
-      <c r="C206" s="61"/>
+      <c r="B206" s="62"/>
+      <c r="C206" s="64"/>
       <c r="D206" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8377,13 +8385,13 @@
       <c r="N206" s="9"/>
       <c r="O206" s="9"/>
       <c r="P206" s="9"/>
-      <c r="Q206" s="58"/>
-      <c r="R206" s="63"/>
+      <c r="Q206" s="62"/>
+      <c r="R206" s="67"/>
     </row>
     <row r="207" spans="1:18" ht="15.75">
       <c r="A207" s="15"/>
-      <c r="B207" s="58"/>
-      <c r="C207" s="61"/>
+      <c r="B207" s="62"/>
+      <c r="C207" s="64"/>
       <c r="D207" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8412,13 +8420,13 @@
       <c r="N207" s="9"/>
       <c r="O207" s="9"/>
       <c r="P207" s="9"/>
-      <c r="Q207" s="58"/>
-      <c r="R207" s="63"/>
+      <c r="Q207" s="62"/>
+      <c r="R207" s="67"/>
     </row>
     <row r="208" spans="1:18" ht="15.75">
       <c r="A208" s="15"/>
-      <c r="B208" s="59"/>
-      <c r="C208" s="61"/>
+      <c r="B208" s="63"/>
+      <c r="C208" s="64"/>
       <c r="D208" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8447,13 +8455,13 @@
       <c r="N208" s="9"/>
       <c r="O208" s="9"/>
       <c r="P208" s="9"/>
-      <c r="Q208" s="59"/>
-      <c r="R208" s="63"/>
+      <c r="Q208" s="63"/>
+      <c r="R208" s="67"/>
     </row>
     <row r="209" spans="1:18" ht="12.75" customHeight="1">
       <c r="A209" s="15"/>
-      <c r="B209" s="57"/>
-      <c r="C209" s="61"/>
+      <c r="B209" s="61"/>
+      <c r="C209" s="64"/>
       <c r="D209" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8482,13 +8490,13 @@
       <c r="N209" s="9"/>
       <c r="O209" s="9"/>
       <c r="P209" s="9"/>
-      <c r="Q209" s="57"/>
-      <c r="R209" s="63"/>
+      <c r="Q209" s="61"/>
+      <c r="R209" s="67"/>
     </row>
     <row r="210" spans="1:18" ht="15.75">
       <c r="A210" s="15"/>
-      <c r="B210" s="58"/>
-      <c r="C210" s="61"/>
+      <c r="B210" s="62"/>
+      <c r="C210" s="64"/>
       <c r="D210" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8517,13 +8525,13 @@
       <c r="N210" s="9"/>
       <c r="O210" s="9"/>
       <c r="P210" s="9"/>
-      <c r="Q210" s="58"/>
-      <c r="R210" s="63"/>
+      <c r="Q210" s="62"/>
+      <c r="R210" s="67"/>
     </row>
     <row r="211" spans="1:18" ht="15.75">
       <c r="A211" s="15"/>
-      <c r="B211" s="58"/>
-      <c r="C211" s="61"/>
+      <c r="B211" s="62"/>
+      <c r="C211" s="64"/>
       <c r="D211" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8552,13 +8560,13 @@
       <c r="N211" s="9"/>
       <c r="O211" s="9"/>
       <c r="P211" s="9"/>
-      <c r="Q211" s="58"/>
-      <c r="R211" s="63"/>
+      <c r="Q211" s="62"/>
+      <c r="R211" s="67"/>
     </row>
     <row r="212" spans="1:18" ht="15.75">
       <c r="A212" s="15"/>
-      <c r="B212" s="58"/>
-      <c r="C212" s="61"/>
+      <c r="B212" s="62"/>
+      <c r="C212" s="64"/>
       <c r="D212" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8587,13 +8595,13 @@
       <c r="N212" s="9"/>
       <c r="O212" s="9"/>
       <c r="P212" s="9"/>
-      <c r="Q212" s="58"/>
-      <c r="R212" s="63"/>
+      <c r="Q212" s="62"/>
+      <c r="R212" s="67"/>
     </row>
     <row r="213" spans="1:18" ht="15.75">
       <c r="A213" s="15"/>
-      <c r="B213" s="58"/>
-      <c r="C213" s="61"/>
+      <c r="B213" s="62"/>
+      <c r="C213" s="64"/>
       <c r="D213" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8622,13 +8630,13 @@
       <c r="N213" s="9"/>
       <c r="O213" s="9"/>
       <c r="P213" s="9"/>
-      <c r="Q213" s="58"/>
-      <c r="R213" s="63"/>
+      <c r="Q213" s="62"/>
+      <c r="R213" s="67"/>
     </row>
     <row r="214" spans="1:18" ht="15.75">
       <c r="A214" s="15"/>
-      <c r="B214" s="58"/>
-      <c r="C214" s="61"/>
+      <c r="B214" s="62"/>
+      <c r="C214" s="64"/>
       <c r="D214" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8657,13 +8665,13 @@
       <c r="N214" s="9"/>
       <c r="O214" s="9"/>
       <c r="P214" s="9"/>
-      <c r="Q214" s="58"/>
-      <c r="R214" s="63"/>
+      <c r="Q214" s="62"/>
+      <c r="R214" s="67"/>
     </row>
     <row r="215" spans="1:18" ht="15.75">
       <c r="A215" s="15"/>
-      <c r="B215" s="58"/>
-      <c r="C215" s="61"/>
+      <c r="B215" s="62"/>
+      <c r="C215" s="64"/>
       <c r="D215" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8692,13 +8700,13 @@
       <c r="N215" s="9"/>
       <c r="O215" s="9"/>
       <c r="P215" s="9"/>
-      <c r="Q215" s="58"/>
-      <c r="R215" s="63"/>
+      <c r="Q215" s="62"/>
+      <c r="R215" s="67"/>
     </row>
     <row r="216" spans="1:18" ht="15.75">
       <c r="A216" s="15"/>
-      <c r="B216" s="58"/>
-      <c r="C216" s="61"/>
+      <c r="B216" s="62"/>
+      <c r="C216" s="64"/>
       <c r="D216" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8727,13 +8735,13 @@
       <c r="N216" s="9"/>
       <c r="O216" s="9"/>
       <c r="P216" s="9"/>
-      <c r="Q216" s="58"/>
-      <c r="R216" s="63"/>
+      <c r="Q216" s="62"/>
+      <c r="R216" s="67"/>
     </row>
     <row r="217" spans="1:18" ht="15.75">
       <c r="A217" s="15"/>
-      <c r="B217" s="58"/>
-      <c r="C217" s="61"/>
+      <c r="B217" s="62"/>
+      <c r="C217" s="64"/>
       <c r="D217" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8762,13 +8770,13 @@
       <c r="N217" s="9"/>
       <c r="O217" s="9"/>
       <c r="P217" s="9"/>
-      <c r="Q217" s="58"/>
-      <c r="R217" s="63"/>
+      <c r="Q217" s="62"/>
+      <c r="R217" s="67"/>
     </row>
     <row r="218" spans="1:18" ht="15.75">
       <c r="A218" s="15"/>
-      <c r="B218" s="58"/>
-      <c r="C218" s="61"/>
+      <c r="B218" s="62"/>
+      <c r="C218" s="64"/>
       <c r="D218" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8797,13 +8805,13 @@
       <c r="N218" s="9"/>
       <c r="O218" s="9"/>
       <c r="P218" s="9"/>
-      <c r="Q218" s="58"/>
-      <c r="R218" s="63"/>
+      <c r="Q218" s="62"/>
+      <c r="R218" s="67"/>
     </row>
     <row r="219" spans="1:18" ht="15.75">
       <c r="A219" s="15"/>
-      <c r="B219" s="58"/>
-      <c r="C219" s="61"/>
+      <c r="B219" s="62"/>
+      <c r="C219" s="64"/>
       <c r="D219" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8832,13 +8840,13 @@
       <c r="N219" s="9"/>
       <c r="O219" s="9"/>
       <c r="P219" s="9"/>
-      <c r="Q219" s="58"/>
-      <c r="R219" s="63"/>
+      <c r="Q219" s="62"/>
+      <c r="R219" s="67"/>
     </row>
     <row r="220" spans="1:18" ht="15.75">
       <c r="A220" s="15"/>
-      <c r="B220" s="58"/>
-      <c r="C220" s="61"/>
+      <c r="B220" s="62"/>
+      <c r="C220" s="64"/>
       <c r="D220" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8867,13 +8875,13 @@
       <c r="N220" s="9"/>
       <c r="O220" s="9"/>
       <c r="P220" s="9"/>
-      <c r="Q220" s="58"/>
-      <c r="R220" s="63"/>
+      <c r="Q220" s="62"/>
+      <c r="R220" s="67"/>
     </row>
     <row r="221" spans="1:18" ht="15.75">
       <c r="A221" s="15"/>
-      <c r="B221" s="58"/>
-      <c r="C221" s="61"/>
+      <c r="B221" s="62"/>
+      <c r="C221" s="64"/>
       <c r="D221" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8902,13 +8910,13 @@
       <c r="N221" s="9"/>
       <c r="O221" s="9"/>
       <c r="P221" s="9"/>
-      <c r="Q221" s="58"/>
-      <c r="R221" s="63"/>
+      <c r="Q221" s="62"/>
+      <c r="R221" s="67"/>
     </row>
     <row r="222" spans="1:18" ht="15.75">
       <c r="A222" s="15"/>
-      <c r="B222" s="58"/>
-      <c r="C222" s="61"/>
+      <c r="B222" s="62"/>
+      <c r="C222" s="64"/>
       <c r="D222" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8937,13 +8945,13 @@
       <c r="N222" s="9"/>
       <c r="O222" s="9"/>
       <c r="P222" s="9"/>
-      <c r="Q222" s="58"/>
-      <c r="R222" s="63"/>
+      <c r="Q222" s="62"/>
+      <c r="R222" s="67"/>
     </row>
     <row r="223" spans="1:18" ht="15.75">
       <c r="A223" s="15"/>
-      <c r="B223" s="59"/>
-      <c r="C223" s="61"/>
+      <c r="B223" s="63"/>
+      <c r="C223" s="64"/>
       <c r="D223" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8972,13 +8980,13 @@
       <c r="N223" s="9"/>
       <c r="O223" s="9"/>
       <c r="P223" s="9"/>
-      <c r="Q223" s="59"/>
-      <c r="R223" s="63"/>
+      <c r="Q223" s="63"/>
+      <c r="R223" s="67"/>
     </row>
     <row r="224" spans="1:18" ht="25.5" customHeight="1">
       <c r="A224" s="15"/>
-      <c r="B224" s="57"/>
-      <c r="C224" s="61"/>
+      <c r="B224" s="61"/>
+      <c r="C224" s="64"/>
       <c r="D224" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9007,13 +9015,13 @@
       <c r="N224" s="9"/>
       <c r="O224" s="9"/>
       <c r="P224" s="42"/>
-      <c r="Q224" s="57"/>
-      <c r="R224" s="63"/>
+      <c r="Q224" s="61"/>
+      <c r="R224" s="67"/>
     </row>
     <row r="225" spans="1:18" ht="15.75">
       <c r="A225" s="15"/>
-      <c r="B225" s="58"/>
-      <c r="C225" s="61"/>
+      <c r="B225" s="62"/>
+      <c r="C225" s="64"/>
       <c r="D225" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9042,13 +9050,13 @@
       <c r="N225" s="9"/>
       <c r="O225" s="9"/>
       <c r="P225" s="42"/>
-      <c r="Q225" s="58"/>
-      <c r="R225" s="63"/>
+      <c r="Q225" s="62"/>
+      <c r="R225" s="67"/>
     </row>
     <row r="226" spans="1:18" ht="15.75">
       <c r="A226" s="15"/>
-      <c r="B226" s="58"/>
-      <c r="C226" s="61"/>
+      <c r="B226" s="62"/>
+      <c r="C226" s="64"/>
       <c r="D226" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9077,13 +9085,13 @@
       <c r="N226" s="9"/>
       <c r="O226" s="9"/>
       <c r="P226" s="9"/>
-      <c r="Q226" s="58"/>
-      <c r="R226" s="63"/>
+      <c r="Q226" s="62"/>
+      <c r="R226" s="67"/>
     </row>
     <row r="227" spans="1:18" ht="15.75">
       <c r="A227" s="15"/>
-      <c r="B227" s="58"/>
-      <c r="C227" s="61"/>
+      <c r="B227" s="62"/>
+      <c r="C227" s="64"/>
       <c r="D227" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9112,13 +9120,13 @@
       <c r="N227" s="9"/>
       <c r="O227" s="9"/>
       <c r="P227" s="9"/>
-      <c r="Q227" s="58"/>
-      <c r="R227" s="63"/>
+      <c r="Q227" s="62"/>
+      <c r="R227" s="67"/>
     </row>
     <row r="228" spans="1:18" ht="15.75">
       <c r="A228" s="15"/>
-      <c r="B228" s="58"/>
-      <c r="C228" s="61"/>
+      <c r="B228" s="62"/>
+      <c r="C228" s="64"/>
       <c r="D228" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9147,13 +9155,13 @@
       <c r="N228" s="9"/>
       <c r="O228" s="9"/>
       <c r="P228" s="9"/>
-      <c r="Q228" s="58"/>
-      <c r="R228" s="63"/>
+      <c r="Q228" s="62"/>
+      <c r="R228" s="67"/>
     </row>
     <row r="229" spans="1:18" ht="15.75">
       <c r="A229" s="15"/>
-      <c r="B229" s="58"/>
-      <c r="C229" s="61"/>
+      <c r="B229" s="62"/>
+      <c r="C229" s="64"/>
       <c r="D229" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9182,13 +9190,13 @@
       <c r="N229" s="9"/>
       <c r="O229" s="9"/>
       <c r="P229" s="9"/>
-      <c r="Q229" s="58"/>
-      <c r="R229" s="63"/>
+      <c r="Q229" s="62"/>
+      <c r="R229" s="67"/>
     </row>
     <row r="230" spans="1:18" ht="15.75">
       <c r="A230" s="15"/>
-      <c r="B230" s="58"/>
-      <c r="C230" s="61"/>
+      <c r="B230" s="62"/>
+      <c r="C230" s="64"/>
       <c r="D230" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9217,13 +9225,13 @@
       <c r="N230" s="9"/>
       <c r="O230" s="9"/>
       <c r="P230" s="9"/>
-      <c r="Q230" s="58"/>
-      <c r="R230" s="63"/>
+      <c r="Q230" s="62"/>
+      <c r="R230" s="67"/>
     </row>
     <row r="231" spans="1:18" ht="15.75">
       <c r="A231" s="15"/>
-      <c r="B231" s="58"/>
-      <c r="C231" s="61"/>
+      <c r="B231" s="62"/>
+      <c r="C231" s="64"/>
       <c r="D231" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9252,13 +9260,13 @@
       <c r="N231" s="9"/>
       <c r="O231" s="9"/>
       <c r="P231" s="9"/>
-      <c r="Q231" s="58"/>
-      <c r="R231" s="63"/>
+      <c r="Q231" s="62"/>
+      <c r="R231" s="67"/>
     </row>
     <row r="232" spans="1:18" ht="15.75">
       <c r="A232" s="15"/>
-      <c r="B232" s="58"/>
-      <c r="C232" s="61"/>
+      <c r="B232" s="62"/>
+      <c r="C232" s="64"/>
       <c r="D232" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9287,13 +9295,13 @@
       <c r="N232" s="9"/>
       <c r="O232" s="9"/>
       <c r="P232" s="9"/>
-      <c r="Q232" s="58"/>
-      <c r="R232" s="63"/>
+      <c r="Q232" s="62"/>
+      <c r="R232" s="67"/>
     </row>
     <row r="233" spans="1:18" ht="15.75">
       <c r="A233" s="15"/>
-      <c r="B233" s="58"/>
-      <c r="C233" s="61"/>
+      <c r="B233" s="62"/>
+      <c r="C233" s="64"/>
       <c r="D233" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9322,13 +9330,13 @@
       <c r="N233" s="9"/>
       <c r="O233" s="9"/>
       <c r="P233" s="9"/>
-      <c r="Q233" s="58"/>
-      <c r="R233" s="63"/>
+      <c r="Q233" s="62"/>
+      <c r="R233" s="67"/>
     </row>
     <row r="234" spans="1:18" ht="15.75">
       <c r="A234" s="15"/>
-      <c r="B234" s="58"/>
-      <c r="C234" s="61"/>
+      <c r="B234" s="62"/>
+      <c r="C234" s="64"/>
       <c r="D234" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9357,13 +9365,13 @@
       <c r="N234" s="9"/>
       <c r="O234" s="9"/>
       <c r="P234" s="9"/>
-      <c r="Q234" s="58"/>
-      <c r="R234" s="63"/>
+      <c r="Q234" s="62"/>
+      <c r="R234" s="67"/>
     </row>
     <row r="235" spans="1:18" ht="15.75">
       <c r="A235" s="15"/>
-      <c r="B235" s="58"/>
-      <c r="C235" s="61"/>
+      <c r="B235" s="62"/>
+      <c r="C235" s="64"/>
       <c r="D235" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9392,13 +9400,13 @@
       <c r="N235" s="9"/>
       <c r="O235" s="9"/>
       <c r="P235" s="9"/>
-      <c r="Q235" s="58"/>
-      <c r="R235" s="63"/>
+      <c r="Q235" s="62"/>
+      <c r="R235" s="67"/>
     </row>
     <row r="236" spans="1:18" ht="15.75">
       <c r="A236" s="15"/>
-      <c r="B236" s="58"/>
-      <c r="C236" s="61"/>
+      <c r="B236" s="62"/>
+      <c r="C236" s="64"/>
       <c r="D236" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9427,13 +9435,13 @@
       <c r="N236" s="9"/>
       <c r="O236" s="9"/>
       <c r="P236" s="9"/>
-      <c r="Q236" s="58"/>
-      <c r="R236" s="63"/>
+      <c r="Q236" s="62"/>
+      <c r="R236" s="67"/>
     </row>
     <row r="237" spans="1:18" ht="15.75">
       <c r="A237" s="15"/>
-      <c r="B237" s="58"/>
-      <c r="C237" s="61"/>
+      <c r="B237" s="62"/>
+      <c r="C237" s="64"/>
       <c r="D237" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9462,13 +9470,13 @@
       <c r="N237" s="9"/>
       <c r="O237" s="9"/>
       <c r="P237" s="9"/>
-      <c r="Q237" s="58"/>
-      <c r="R237" s="63"/>
+      <c r="Q237" s="62"/>
+      <c r="R237" s="67"/>
     </row>
     <row r="238" spans="1:18" ht="15.75">
       <c r="A238" s="15"/>
-      <c r="B238" s="59"/>
-      <c r="C238" s="61"/>
+      <c r="B238" s="63"/>
+      <c r="C238" s="64"/>
       <c r="D238" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9497,13 +9505,13 @@
       <c r="N238" s="9"/>
       <c r="O238" s="9"/>
       <c r="P238" s="9"/>
-      <c r="Q238" s="59"/>
-      <c r="R238" s="63"/>
+      <c r="Q238" s="63"/>
+      <c r="R238" s="67"/>
     </row>
     <row r="239" spans="1:18" ht="15.75">
       <c r="A239" s="15"/>
-      <c r="B239" s="57"/>
-      <c r="C239" s="61"/>
+      <c r="B239" s="61"/>
+      <c r="C239" s="64"/>
       <c r="D239" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9532,13 +9540,13 @@
       <c r="N239" s="9"/>
       <c r="O239" s="9"/>
       <c r="P239" s="9"/>
-      <c r="Q239" s="57"/>
-      <c r="R239" s="63"/>
+      <c r="Q239" s="61"/>
+      <c r="R239" s="67"/>
     </row>
     <row r="240" spans="1:18" ht="15.75">
       <c r="A240" s="15"/>
-      <c r="B240" s="58"/>
-      <c r="C240" s="61"/>
+      <c r="B240" s="62"/>
+      <c r="C240" s="64"/>
       <c r="D240" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9567,13 +9575,13 @@
       <c r="N240" s="9"/>
       <c r="O240" s="9"/>
       <c r="P240" s="9"/>
-      <c r="Q240" s="58"/>
-      <c r="R240" s="63"/>
+      <c r="Q240" s="62"/>
+      <c r="R240" s="67"/>
     </row>
     <row r="241" spans="1:18" ht="15.75">
       <c r="A241" s="15"/>
-      <c r="B241" s="58"/>
-      <c r="C241" s="61"/>
+      <c r="B241" s="62"/>
+      <c r="C241" s="64"/>
       <c r="D241" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9602,13 +9610,13 @@
       <c r="N241" s="9"/>
       <c r="O241" s="9"/>
       <c r="P241" s="9"/>
-      <c r="Q241" s="58"/>
-      <c r="R241" s="63"/>
+      <c r="Q241" s="62"/>
+      <c r="R241" s="67"/>
     </row>
     <row r="242" spans="1:18" ht="15.75">
       <c r="A242" s="15"/>
-      <c r="B242" s="58"/>
-      <c r="C242" s="61"/>
+      <c r="B242" s="62"/>
+      <c r="C242" s="64"/>
       <c r="D242" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9637,13 +9645,13 @@
       <c r="N242" s="9"/>
       <c r="O242" s="9"/>
       <c r="P242" s="9"/>
-      <c r="Q242" s="58"/>
-      <c r="R242" s="63"/>
+      <c r="Q242" s="62"/>
+      <c r="R242" s="67"/>
     </row>
     <row r="243" spans="1:18" ht="15.75">
       <c r="A243" s="15"/>
-      <c r="B243" s="58"/>
-      <c r="C243" s="61"/>
+      <c r="B243" s="62"/>
+      <c r="C243" s="64"/>
       <c r="D243" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9672,13 +9680,13 @@
       <c r="N243" s="9"/>
       <c r="O243" s="9"/>
       <c r="P243" s="9"/>
-      <c r="Q243" s="58"/>
-      <c r="R243" s="63"/>
+      <c r="Q243" s="62"/>
+      <c r="R243" s="67"/>
     </row>
     <row r="244" spans="1:18" ht="15.75">
       <c r="A244" s="15"/>
-      <c r="B244" s="58"/>
-      <c r="C244" s="61"/>
+      <c r="B244" s="62"/>
+      <c r="C244" s="64"/>
       <c r="D244" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9707,13 +9715,13 @@
       <c r="N244" s="9"/>
       <c r="O244" s="9"/>
       <c r="P244" s="9"/>
-      <c r="Q244" s="58"/>
-      <c r="R244" s="63"/>
+      <c r="Q244" s="62"/>
+      <c r="R244" s="67"/>
     </row>
     <row r="245" spans="1:18" ht="15.75">
       <c r="A245" s="15"/>
-      <c r="B245" s="58"/>
-      <c r="C245" s="61"/>
+      <c r="B245" s="62"/>
+      <c r="C245" s="64"/>
       <c r="D245" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9742,13 +9750,13 @@
       <c r="N245" s="9"/>
       <c r="O245" s="9"/>
       <c r="P245" s="9"/>
-      <c r="Q245" s="58"/>
-      <c r="R245" s="63"/>
+      <c r="Q245" s="62"/>
+      <c r="R245" s="67"/>
     </row>
     <row r="246" spans="1:18" ht="15.75">
       <c r="A246" s="15"/>
-      <c r="B246" s="58"/>
-      <c r="C246" s="61"/>
+      <c r="B246" s="62"/>
+      <c r="C246" s="64"/>
       <c r="D246" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9777,13 +9785,13 @@
       <c r="N246" s="9"/>
       <c r="O246" s="9"/>
       <c r="P246" s="9"/>
-      <c r="Q246" s="58"/>
-      <c r="R246" s="63"/>
+      <c r="Q246" s="62"/>
+      <c r="R246" s="67"/>
     </row>
     <row r="247" spans="1:18" ht="15.75">
       <c r="A247" s="15"/>
-      <c r="B247" s="58"/>
-      <c r="C247" s="61"/>
+      <c r="B247" s="62"/>
+      <c r="C247" s="64"/>
       <c r="D247" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9812,13 +9820,13 @@
       <c r="N247" s="9"/>
       <c r="O247" s="9"/>
       <c r="P247" s="9"/>
-      <c r="Q247" s="58"/>
-      <c r="R247" s="63"/>
+      <c r="Q247" s="62"/>
+      <c r="R247" s="67"/>
     </row>
     <row r="248" spans="1:18" ht="15.75">
       <c r="A248" s="15"/>
-      <c r="B248" s="58"/>
-      <c r="C248" s="61"/>
+      <c r="B248" s="62"/>
+      <c r="C248" s="64"/>
       <c r="D248" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9847,13 +9855,13 @@
       <c r="N248" s="9"/>
       <c r="O248" s="9"/>
       <c r="P248" s="9"/>
-      <c r="Q248" s="58"/>
-      <c r="R248" s="63"/>
+      <c r="Q248" s="62"/>
+      <c r="R248" s="67"/>
     </row>
     <row r="249" spans="1:18" ht="15.75">
       <c r="A249" s="15"/>
-      <c r="B249" s="58"/>
-      <c r="C249" s="61"/>
+      <c r="B249" s="62"/>
+      <c r="C249" s="64"/>
       <c r="D249" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9882,13 +9890,13 @@
       <c r="N249" s="9"/>
       <c r="O249" s="9"/>
       <c r="P249" s="9"/>
-      <c r="Q249" s="58"/>
-      <c r="R249" s="63"/>
+      <c r="Q249" s="62"/>
+      <c r="R249" s="67"/>
     </row>
     <row r="250" spans="1:18" ht="15.75">
       <c r="A250" s="15"/>
-      <c r="B250" s="58"/>
-      <c r="C250" s="61"/>
+      <c r="B250" s="62"/>
+      <c r="C250" s="64"/>
       <c r="D250" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9917,13 +9925,13 @@
       <c r="N250" s="9"/>
       <c r="O250" s="9"/>
       <c r="P250" s="9"/>
-      <c r="Q250" s="58"/>
-      <c r="R250" s="63"/>
+      <c r="Q250" s="62"/>
+      <c r="R250" s="67"/>
     </row>
     <row r="251" spans="1:18" ht="15.75">
       <c r="A251" s="15"/>
-      <c r="B251" s="58"/>
-      <c r="C251" s="61"/>
+      <c r="B251" s="62"/>
+      <c r="C251" s="64"/>
       <c r="D251" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9952,13 +9960,13 @@
       <c r="N251" s="9"/>
       <c r="O251" s="9"/>
       <c r="P251" s="9"/>
-      <c r="Q251" s="58"/>
-      <c r="R251" s="63"/>
+      <c r="Q251" s="62"/>
+      <c r="R251" s="67"/>
     </row>
     <row r="252" spans="1:18" ht="15.75">
       <c r="A252" s="15"/>
-      <c r="B252" s="58"/>
-      <c r="C252" s="61"/>
+      <c r="B252" s="62"/>
+      <c r="C252" s="64"/>
       <c r="D252" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9987,13 +9995,13 @@
       <c r="N252" s="9"/>
       <c r="O252" s="9"/>
       <c r="P252" s="9"/>
-      <c r="Q252" s="58"/>
-      <c r="R252" s="63"/>
+      <c r="Q252" s="62"/>
+      <c r="R252" s="67"/>
     </row>
     <row r="253" spans="1:18" ht="15.75">
       <c r="A253" s="15"/>
-      <c r="B253" s="59"/>
-      <c r="C253" s="61"/>
+      <c r="B253" s="63"/>
+      <c r="C253" s="64"/>
       <c r="D253" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10022,13 +10030,13 @@
       <c r="N253" s="43"/>
       <c r="O253" s="43"/>
       <c r="P253" s="43"/>
-      <c r="Q253" s="59"/>
-      <c r="R253" s="63"/>
+      <c r="Q253" s="63"/>
+      <c r="R253" s="67"/>
     </row>
     <row r="254" spans="1:18" ht="12.75" customHeight="1">
       <c r="A254" s="15"/>
-      <c r="B254" s="57"/>
-      <c r="C254" s="61"/>
+      <c r="B254" s="61"/>
+      <c r="C254" s="64"/>
       <c r="D254" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10057,13 +10065,13 @@
       <c r="N254" s="43"/>
       <c r="O254" s="43"/>
       <c r="P254" s="43"/>
-      <c r="Q254" s="57"/>
-      <c r="R254" s="63"/>
+      <c r="Q254" s="61"/>
+      <c r="R254" s="67"/>
     </row>
     <row r="255" spans="1:18" ht="15.75">
       <c r="A255" s="15"/>
-      <c r="B255" s="58"/>
-      <c r="C255" s="61"/>
+      <c r="B255" s="62"/>
+      <c r="C255" s="64"/>
       <c r="D255" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10092,13 +10100,13 @@
       <c r="N255" s="43"/>
       <c r="O255" s="43"/>
       <c r="P255" s="43"/>
-      <c r="Q255" s="58"/>
-      <c r="R255" s="63"/>
+      <c r="Q255" s="62"/>
+      <c r="R255" s="67"/>
     </row>
     <row r="256" spans="1:18" ht="15.75">
       <c r="A256" s="15"/>
-      <c r="B256" s="58"/>
-      <c r="C256" s="61"/>
+      <c r="B256" s="62"/>
+      <c r="C256" s="64"/>
       <c r="D256" s="5" t="str">
         <f t="shared" ref="D256:D268" si="15">IF(LEN(E256)&gt;5,IF(LEN(K256&amp;L256&amp;M256)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -10127,13 +10135,13 @@
       <c r="N256" s="43"/>
       <c r="O256" s="43"/>
       <c r="P256" s="43"/>
-      <c r="Q256" s="58"/>
-      <c r="R256" s="63"/>
+      <c r="Q256" s="62"/>
+      <c r="R256" s="67"/>
     </row>
     <row r="257" spans="1:18" ht="15.75">
       <c r="A257" s="15"/>
-      <c r="B257" s="58"/>
-      <c r="C257" s="61"/>
+      <c r="B257" s="62"/>
+      <c r="C257" s="64"/>
       <c r="D257" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10162,13 +10170,13 @@
       <c r="N257" s="43"/>
       <c r="O257" s="43"/>
       <c r="P257" s="43"/>
-      <c r="Q257" s="58"/>
-      <c r="R257" s="63"/>
+      <c r="Q257" s="62"/>
+      <c r="R257" s="67"/>
     </row>
     <row r="258" spans="1:18" ht="15.75">
       <c r="A258" s="15"/>
-      <c r="B258" s="58"/>
-      <c r="C258" s="61"/>
+      <c r="B258" s="62"/>
+      <c r="C258" s="64"/>
       <c r="D258" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10197,13 +10205,13 @@
       <c r="N258" s="43"/>
       <c r="O258" s="43"/>
       <c r="P258" s="43"/>
-      <c r="Q258" s="58"/>
-      <c r="R258" s="63"/>
+      <c r="Q258" s="62"/>
+      <c r="R258" s="67"/>
     </row>
     <row r="259" spans="1:18" ht="15.75">
       <c r="A259" s="15"/>
-      <c r="B259" s="58"/>
-      <c r="C259" s="61"/>
+      <c r="B259" s="62"/>
+      <c r="C259" s="64"/>
       <c r="D259" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10232,13 +10240,13 @@
       <c r="N259" s="43"/>
       <c r="O259" s="43"/>
       <c r="P259" s="43"/>
-      <c r="Q259" s="58"/>
-      <c r="R259" s="63"/>
+      <c r="Q259" s="62"/>
+      <c r="R259" s="67"/>
     </row>
     <row r="260" spans="1:18" ht="15.75">
       <c r="A260" s="15"/>
-      <c r="B260" s="58"/>
-      <c r="C260" s="61"/>
+      <c r="B260" s="62"/>
+      <c r="C260" s="64"/>
       <c r="D260" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10267,13 +10275,13 @@
       <c r="N260" s="43"/>
       <c r="O260" s="43"/>
       <c r="P260" s="43"/>
-      <c r="Q260" s="58"/>
-      <c r="R260" s="63"/>
+      <c r="Q260" s="62"/>
+      <c r="R260" s="67"/>
     </row>
     <row r="261" spans="1:18" ht="15.75">
       <c r="A261" s="15"/>
-      <c r="B261" s="58"/>
-      <c r="C261" s="61"/>
+      <c r="B261" s="62"/>
+      <c r="C261" s="64"/>
       <c r="D261" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10301,13 +10309,13 @@
       </c>
       <c r="N261" s="43"/>
       <c r="P261" s="43"/>
-      <c r="Q261" s="58"/>
-      <c r="R261" s="63"/>
+      <c r="Q261" s="62"/>
+      <c r="R261" s="67"/>
     </row>
     <row r="262" spans="1:18" ht="15.75">
       <c r="A262" s="15"/>
-      <c r="B262" s="58"/>
-      <c r="C262" s="61"/>
+      <c r="B262" s="62"/>
+      <c r="C262" s="64"/>
       <c r="D262" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10336,13 +10344,13 @@
       <c r="N262" s="43"/>
       <c r="O262" s="43"/>
       <c r="P262" s="43"/>
-      <c r="Q262" s="58"/>
-      <c r="R262" s="63"/>
+      <c r="Q262" s="62"/>
+      <c r="R262" s="67"/>
     </row>
     <row r="263" spans="1:18" ht="15.75">
       <c r="A263" s="15"/>
-      <c r="B263" s="58"/>
-      <c r="C263" s="61"/>
+      <c r="B263" s="62"/>
+      <c r="C263" s="64"/>
       <c r="D263" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10371,13 +10379,13 @@
       <c r="N263" s="43"/>
       <c r="O263" s="43"/>
       <c r="P263" s="43"/>
-      <c r="Q263" s="58"/>
-      <c r="R263" s="63"/>
+      <c r="Q263" s="62"/>
+      <c r="R263" s="67"/>
     </row>
     <row r="264" spans="1:18" ht="15.75">
       <c r="A264" s="15"/>
-      <c r="B264" s="58"/>
-      <c r="C264" s="61"/>
+      <c r="B264" s="62"/>
+      <c r="C264" s="64"/>
       <c r="D264" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10406,13 +10414,13 @@
       <c r="N264" s="43"/>
       <c r="O264" s="43"/>
       <c r="P264" s="43"/>
-      <c r="Q264" s="58"/>
-      <c r="R264" s="63"/>
+      <c r="Q264" s="62"/>
+      <c r="R264" s="67"/>
     </row>
     <row r="265" spans="1:18" ht="15.75">
       <c r="A265" s="15"/>
-      <c r="B265" s="58"/>
-      <c r="C265" s="61"/>
+      <c r="B265" s="62"/>
+      <c r="C265" s="64"/>
       <c r="D265" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10441,13 +10449,13 @@
       <c r="N265" s="43"/>
       <c r="O265" s="43"/>
       <c r="P265" s="43"/>
-      <c r="Q265" s="58"/>
-      <c r="R265" s="63"/>
+      <c r="Q265" s="62"/>
+      <c r="R265" s="67"/>
     </row>
     <row r="266" spans="1:18" ht="15.75">
       <c r="A266" s="15"/>
-      <c r="B266" s="58"/>
-      <c r="C266" s="61"/>
+      <c r="B266" s="62"/>
+      <c r="C266" s="64"/>
       <c r="D266" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10476,13 +10484,13 @@
       <c r="N266" s="43"/>
       <c r="O266" s="43"/>
       <c r="P266" s="43"/>
-      <c r="Q266" s="58"/>
-      <c r="R266" s="63"/>
+      <c r="Q266" s="62"/>
+      <c r="R266" s="67"/>
     </row>
     <row r="267" spans="1:18" ht="15.75">
       <c r="A267" s="15"/>
-      <c r="B267" s="58"/>
-      <c r="C267" s="61"/>
+      <c r="B267" s="62"/>
+      <c r="C267" s="64"/>
       <c r="D267" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10511,13 +10519,13 @@
       <c r="N267" s="43"/>
       <c r="O267" s="43"/>
       <c r="P267" s="43"/>
-      <c r="Q267" s="58"/>
-      <c r="R267" s="63"/>
+      <c r="Q267" s="62"/>
+      <c r="R267" s="67"/>
     </row>
     <row r="268" spans="1:18" ht="15.75">
       <c r="A268" s="24"/>
-      <c r="B268" s="59"/>
-      <c r="C268" s="61"/>
+      <c r="B268" s="63"/>
+      <c r="C268" s="64"/>
       <c r="D268" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10546,8 +10554,8 @@
       <c r="N268" s="43"/>
       <c r="O268" s="43"/>
       <c r="P268" s="43"/>
-      <c r="Q268" s="59"/>
-      <c r="R268" s="63"/>
+      <c r="Q268" s="63"/>
+      <c r="R268" s="67"/>
     </row>
     <row r="269" spans="1:18" ht="15.75">
       <c r="G269" s="48"/>
@@ -10770,6 +10778,7 @@
     <hyperlink ref="E44:E45" r:id="rId19" display="http://10.141.1.9:8080/svn/HKVA_inv/GNE114/Planning/"/>
     <hyperlink ref="E59" r:id="rId20" display="http://10.141.1.9:8080/svn/HKVA_inv/GNE114/Planning/"/>
     <hyperlink ref="E74" r:id="rId21"/>
+    <hyperlink ref="E60" r:id="rId22" tooltip="http://10.141.1.9:8080/svn/FW_17801/" display="http://10.141.1.9:8080/svn/FW_17801/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/PIID/CM.xlsx
+++ b/PIID/CM.xlsx
@@ -447,7 +447,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -622,33 +622,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -664,8 +637,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1073,7 +1070,7 @@
   </sheetPr>
   <dimension ref="A1:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1092,25 +1089,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="42.75">
       <c r="A3" s="3" t="s">
@@ -1164,10 +1161,10 @@
       <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="67">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="70" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="5" t="str">
@@ -1204,13 +1201,13 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="58"/>
+      <c r="Q4" s="67"/>
       <c r="R4" s="57"/>
     </row>
     <row r="5" spans="1:18" ht="25.5">
       <c r="A5" s="57"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="64"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="5" t="str">
         <f t="shared" ref="D5:D63" si="2">IF(LEN(E5)&gt;5,IF(LEN(K5&amp;L5&amp;M5)&gt;=1,"OK","Check"),"-")</f>
         <v>OK</v>
@@ -1245,13 +1242,13 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="59"/>
+      <c r="Q5" s="68"/>
       <c r="R5" s="57"/>
     </row>
     <row r="6" spans="1:18" ht="25.5">
       <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="64"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -1286,13 +1283,13 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="59"/>
+      <c r="Q6" s="68"/>
       <c r="R6" s="57"/>
     </row>
     <row r="7" spans="1:18" ht="25.5">
       <c r="A7" s="57"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="64"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -1327,13 +1324,13 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="59"/>
+      <c r="Q7" s="68"/>
       <c r="R7" s="57"/>
     </row>
     <row r="8" spans="1:18" ht="38.25">
       <c r="A8" s="57"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -1368,13 +1365,13 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="59"/>
+      <c r="Q8" s="68"/>
       <c r="R8" s="57"/>
     </row>
     <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="57"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1403,13 +1400,13 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="59"/>
+      <c r="Q9" s="68"/>
       <c r="R9" s="57"/>
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1">
       <c r="A10" s="57"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1438,13 +1435,13 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="59"/>
+      <c r="Q10" s="68"/>
       <c r="R10" s="57"/>
     </row>
     <row r="11" spans="1:18" ht="15.75">
       <c r="A11" s="57"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1473,13 +1470,13 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="59"/>
+      <c r="Q11" s="68"/>
       <c r="R11" s="57"/>
     </row>
     <row r="12" spans="1:18" ht="15.75">
       <c r="A12" s="57"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1508,13 +1505,13 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="59"/>
+      <c r="Q12" s="68"/>
       <c r="R12" s="57"/>
     </row>
     <row r="13" spans="1:18" ht="15.75">
       <c r="A13" s="57"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1542,13 +1539,13 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="59"/>
+      <c r="Q13" s="68"/>
       <c r="R13" s="57"/>
     </row>
     <row r="14" spans="1:18" ht="15.75">
       <c r="A14" s="57"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1577,13 +1574,13 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="59"/>
+      <c r="Q14" s="68"/>
       <c r="R14" s="57"/>
     </row>
     <row r="15" spans="1:18" ht="15.75">
       <c r="A15" s="57"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1612,13 +1609,13 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="59"/>
+      <c r="Q15" s="68"/>
       <c r="R15" s="57"/>
     </row>
     <row r="16" spans="1:18" ht="15.75">
       <c r="A16" s="57"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="64"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1647,13 +1644,13 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="59"/>
+      <c r="Q16" s="68"/>
       <c r="R16" s="57"/>
     </row>
     <row r="17" spans="1:18" ht="15.75">
       <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="64"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1682,17 +1679,17 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="60"/>
+      <c r="Q17" s="69"/>
       <c r="R17" s="57"/>
     </row>
     <row r="18" spans="1:18" ht="38.25">
       <c r="A18" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="67">
         <v>2.1</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="71" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="5" t="str">
@@ -1726,13 +1723,13 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="58"/>
+      <c r="Q18" s="67"/>
       <c r="R18" s="57"/>
     </row>
     <row r="19" spans="1:18" ht="25.5">
       <c r="A19" s="57"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="66"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -1767,13 +1764,13 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="59"/>
+      <c r="Q19" s="68"/>
       <c r="R19" s="57"/>
     </row>
     <row r="20" spans="1:18" ht="25.5">
       <c r="A20" s="57"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="66"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -1808,13 +1805,13 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="59"/>
+      <c r="Q20" s="68"/>
       <c r="R20" s="57"/>
     </row>
     <row r="21" spans="1:18" ht="25.5">
       <c r="A21" s="57"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="66"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -1849,13 +1846,13 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="59"/>
+      <c r="Q21" s="68"/>
       <c r="R21" s="57"/>
     </row>
     <row r="22" spans="1:18" ht="38.25">
       <c r="A22" s="57"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="66"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -1890,13 +1887,13 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="59"/>
+      <c r="Q22" s="68"/>
       <c r="R22" s="57"/>
     </row>
     <row r="23" spans="1:18" ht="15.75">
       <c r="A23" s="57"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1925,13 +1922,13 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="59"/>
+      <c r="Q23" s="68"/>
       <c r="R23" s="57"/>
     </row>
     <row r="24" spans="1:18" ht="26.25" customHeight="1">
       <c r="A24" s="57"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="66"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1960,13 +1957,13 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="59"/>
+      <c r="Q24" s="68"/>
       <c r="R24" s="57"/>
     </row>
     <row r="25" spans="1:18" ht="15.75">
       <c r="A25" s="57"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="66"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1995,13 +1992,13 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="59"/>
+      <c r="Q25" s="68"/>
       <c r="R25" s="57"/>
     </row>
     <row r="26" spans="1:18" ht="15.75">
       <c r="A26" s="57"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="66"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2030,13 +2027,13 @@
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="59"/>
+      <c r="Q26" s="68"/>
       <c r="R26" s="57"/>
     </row>
     <row r="27" spans="1:18" ht="15.75">
       <c r="A27" s="57"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="66"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2065,13 +2062,13 @@
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
-      <c r="Q27" s="59"/>
+      <c r="Q27" s="68"/>
       <c r="R27" s="57"/>
     </row>
     <row r="28" spans="1:18" ht="15.75">
       <c r="A28" s="57"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="66"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2100,13 +2097,13 @@
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="59"/>
+      <c r="Q28" s="68"/>
       <c r="R28" s="57"/>
     </row>
     <row r="29" spans="1:18" ht="15.75">
       <c r="A29" s="57"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="66"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2135,13 +2132,13 @@
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
-      <c r="Q29" s="59"/>
+      <c r="Q29" s="68"/>
       <c r="R29" s="57"/>
     </row>
     <row r="30" spans="1:18" ht="15.75">
       <c r="A30" s="57"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="66"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2170,13 +2167,13 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="59"/>
+      <c r="Q30" s="68"/>
       <c r="R30" s="57"/>
     </row>
     <row r="31" spans="1:18" ht="15.75">
       <c r="A31" s="57"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="66"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2205,15 +2202,15 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
-      <c r="Q31" s="60"/>
+      <c r="Q31" s="69"/>
       <c r="R31" s="57"/>
     </row>
     <row r="32" spans="1:18" ht="57.75" customHeight="1">
       <c r="A32" s="57"/>
-      <c r="B32" s="58">
+      <c r="B32" s="67">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="5" t="str">
@@ -2247,13 +2244,13 @@
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
-      <c r="Q32" s="58"/>
+      <c r="Q32" s="67"/>
       <c r="R32" s="57"/>
     </row>
     <row r="33" spans="1:18" ht="15.75">
       <c r="A33" s="57"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="66"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -2285,13 +2282,13 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
-      <c r="Q33" s="59"/>
+      <c r="Q33" s="68"/>
       <c r="R33" s="57"/>
     </row>
     <row r="34" spans="1:18" ht="25.5">
       <c r="A34" s="57"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="66"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -2326,13 +2323,13 @@
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
-      <c r="Q34" s="59"/>
+      <c r="Q34" s="68"/>
       <c r="R34" s="57"/>
     </row>
     <row r="35" spans="1:18" ht="25.5">
       <c r="A35" s="57"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="66"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -2367,13 +2364,13 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
-      <c r="Q35" s="59"/>
+      <c r="Q35" s="68"/>
       <c r="R35" s="57"/>
     </row>
     <row r="36" spans="1:18" ht="25.5">
       <c r="A36" s="57"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="66"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -2408,13 +2405,13 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="59"/>
+      <c r="Q36" s="68"/>
       <c r="R36" s="57"/>
     </row>
     <row r="37" spans="1:18" ht="38.25">
       <c r="A37" s="57"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="66"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -2449,13 +2446,13 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="59"/>
+      <c r="Q37" s="68"/>
       <c r="R37" s="57"/>
     </row>
     <row r="38" spans="1:18" ht="15.75">
       <c r="A38" s="57"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="66"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2484,13 +2481,13 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="59"/>
+      <c r="Q38" s="68"/>
       <c r="R38" s="57"/>
     </row>
     <row r="39" spans="1:18" ht="15.75">
       <c r="A39" s="57"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="66"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2519,13 +2516,13 @@
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
-      <c r="Q39" s="59"/>
+      <c r="Q39" s="68"/>
       <c r="R39" s="57"/>
     </row>
     <row r="40" spans="1:18" ht="15.75">
       <c r="A40" s="57"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="66"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2554,13 +2551,13 @@
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
-      <c r="Q40" s="59"/>
+      <c r="Q40" s="68"/>
       <c r="R40" s="57"/>
     </row>
     <row r="41" spans="1:18" ht="15.75">
       <c r="A41" s="57"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="66"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="71"/>
       <c r="D41" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2589,13 +2586,13 @@
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
-      <c r="Q41" s="59"/>
+      <c r="Q41" s="68"/>
       <c r="R41" s="57"/>
     </row>
     <row r="42" spans="1:18" ht="15.75">
       <c r="A42" s="57"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="66"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="71"/>
       <c r="D42" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2624,13 +2621,13 @@
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
-      <c r="Q42" s="59"/>
+      <c r="Q42" s="68"/>
       <c r="R42" s="57"/>
     </row>
     <row r="43" spans="1:18" ht="15.75">
       <c r="A43" s="57"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="66"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2659,15 +2656,15 @@
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
-      <c r="Q43" s="60"/>
+      <c r="Q43" s="69"/>
       <c r="R43" s="57"/>
     </row>
     <row r="44" spans="1:18" ht="67.5" customHeight="1">
       <c r="A44" s="57"/>
-      <c r="B44" s="58">
+      <c r="B44" s="67">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="71" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="5" t="str">
@@ -2701,13 +2698,13 @@
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
-      <c r="Q44" s="58"/>
+      <c r="Q44" s="67"/>
       <c r="R44" s="57"/>
     </row>
     <row r="45" spans="1:18" ht="25.5">
       <c r="A45" s="57"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="66"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="71"/>
       <c r="D45" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
@@ -2739,13 +2736,13 @@
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
-      <c r="Q45" s="59"/>
+      <c r="Q45" s="68"/>
       <c r="R45" s="57"/>
     </row>
     <row r="46" spans="1:18" ht="15.75">
       <c r="A46" s="57"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="66"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2771,13 +2768,13 @@
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
-      <c r="Q46" s="59"/>
+      <c r="Q46" s="68"/>
       <c r="R46" s="57"/>
     </row>
     <row r="47" spans="1:18" ht="15.75">
       <c r="A47" s="57"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="66"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="71"/>
       <c r="D47" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2806,13 +2803,13 @@
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
-      <c r="Q47" s="59"/>
+      <c r="Q47" s="68"/>
       <c r="R47" s="57"/>
     </row>
     <row r="48" spans="1:18" ht="15.75">
       <c r="A48" s="57"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="66"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="71"/>
       <c r="D48" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2841,13 +2838,13 @@
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
-      <c r="Q48" s="59"/>
+      <c r="Q48" s="68"/>
       <c r="R48" s="57"/>
     </row>
     <row r="49" spans="1:18" ht="15.75">
       <c r="A49" s="57"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="66"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="71"/>
       <c r="D49" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2876,13 +2873,13 @@
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
-      <c r="Q49" s="59"/>
+      <c r="Q49" s="68"/>
       <c r="R49" s="57"/>
     </row>
     <row r="50" spans="1:18" ht="15.75">
       <c r="A50" s="57"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="66"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="71"/>
       <c r="D50" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2911,13 +2908,13 @@
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
-      <c r="Q50" s="59"/>
+      <c r="Q50" s="68"/>
       <c r="R50" s="57"/>
     </row>
     <row r="51" spans="1:18" ht="15.75">
       <c r="A51" s="57"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="66"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="71"/>
       <c r="D51" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2946,13 +2943,13 @@
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
-      <c r="Q51" s="59"/>
+      <c r="Q51" s="68"/>
       <c r="R51" s="57"/>
     </row>
     <row r="52" spans="1:18" ht="15.75">
       <c r="A52" s="57"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="66"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="71"/>
       <c r="D52" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -2981,13 +2978,13 @@
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
-      <c r="Q52" s="59"/>
+      <c r="Q52" s="68"/>
       <c r="R52" s="57"/>
     </row>
     <row r="53" spans="1:18" ht="15.75">
       <c r="A53" s="57"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="66"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="71"/>
       <c r="D53" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3016,13 +3013,13 @@
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
-      <c r="Q53" s="59"/>
+      <c r="Q53" s="68"/>
       <c r="R53" s="57"/>
     </row>
     <row r="54" spans="1:18" ht="15.75">
       <c r="A54" s="57"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="66"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="71"/>
       <c r="D54" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3051,13 +3048,13 @@
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
-      <c r="Q54" s="59"/>
+      <c r="Q54" s="68"/>
       <c r="R54" s="57"/>
     </row>
     <row r="55" spans="1:18" ht="15.75">
       <c r="A55" s="57"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="66"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="71"/>
       <c r="D55" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3086,13 +3083,13 @@
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
-      <c r="Q55" s="59"/>
+      <c r="Q55" s="68"/>
       <c r="R55" s="57"/>
     </row>
     <row r="56" spans="1:18" ht="15.75">
       <c r="A56" s="57"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="66"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="71"/>
       <c r="D56" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3121,13 +3118,13 @@
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
-      <c r="Q56" s="59"/>
+      <c r="Q56" s="68"/>
       <c r="R56" s="57"/>
     </row>
     <row r="57" spans="1:18" ht="15.75">
       <c r="A57" s="57"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="66"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="71"/>
       <c r="D57" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3156,13 +3153,13 @@
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
-      <c r="Q57" s="59"/>
+      <c r="Q57" s="68"/>
       <c r="R57" s="57"/>
     </row>
     <row r="58" spans="1:18" ht="15.75">
       <c r="A58" s="57"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="66"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3191,15 +3188,15 @@
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
-      <c r="Q58" s="60"/>
+      <c r="Q58" s="69"/>
       <c r="R58" s="57"/>
     </row>
     <row r="59" spans="1:18" ht="66.75" customHeight="1">
       <c r="A59" s="57"/>
-      <c r="B59" s="58">
+      <c r="B59" s="67">
         <v>2.4</v>
       </c>
-      <c r="C59" s="64" t="s">
+      <c r="C59" s="66" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="5" t="str">
@@ -3233,18 +3230,18 @@
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
-      <c r="Q59" s="58"/>
+      <c r="Q59" s="67"/>
       <c r="R59" s="57"/>
     </row>
     <row r="60" spans="1:18" ht="38.25">
       <c r="A60" s="57"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="64"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="5" t="str">
         <f t="shared" si="2"/>
         <v>OK</v>
       </c>
-      <c r="E60" s="72" t="s">
+      <c r="E60" s="47" t="s">
         <v>45</v>
       </c>
       <c r="F60" s="7" t="s">
@@ -3271,13 +3268,13 @@
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
-      <c r="Q60" s="59"/>
+      <c r="Q60" s="68"/>
       <c r="R60" s="57"/>
     </row>
     <row r="61" spans="1:18" ht="15.75">
       <c r="A61" s="57"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="64"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3303,13 +3300,13 @@
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
-      <c r="Q61" s="59"/>
+      <c r="Q61" s="68"/>
       <c r="R61" s="57"/>
     </row>
     <row r="62" spans="1:18" ht="15.75">
       <c r="A62" s="57"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="64"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3338,13 +3335,13 @@
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
-      <c r="Q62" s="59"/>
+      <c r="Q62" s="68"/>
       <c r="R62" s="57"/>
     </row>
     <row r="63" spans="1:18" ht="15.75">
       <c r="A63" s="57"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="64"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -3373,13 +3370,13 @@
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
-      <c r="Q63" s="59"/>
+      <c r="Q63" s="68"/>
       <c r="R63" s="57"/>
     </row>
     <row r="64" spans="1:18" ht="15.75">
       <c r="A64" s="57"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="64"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="66"/>
       <c r="D64" s="5" t="str">
         <f t="shared" ref="D64:D127" si="4">IF(LEN(E64)&gt;5,IF(LEN(K64&amp;L64&amp;M64)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -3408,13 +3405,13 @@
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
-      <c r="Q64" s="59"/>
+      <c r="Q64" s="68"/>
       <c r="R64" s="57"/>
     </row>
     <row r="65" spans="1:18" ht="15.75">
       <c r="A65" s="57"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="64"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3443,13 +3440,13 @@
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
-      <c r="Q65" s="59"/>
+      <c r="Q65" s="68"/>
       <c r="R65" s="57"/>
     </row>
     <row r="66" spans="1:18" ht="15.75">
       <c r="A66" s="57"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="64"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3478,13 +3475,13 @@
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
-      <c r="Q66" s="59"/>
+      <c r="Q66" s="68"/>
       <c r="R66" s="57"/>
     </row>
     <row r="67" spans="1:18" ht="15.75">
       <c r="A67" s="57"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="64"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="66"/>
       <c r="D67" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3513,13 +3510,13 @@
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
-      <c r="Q67" s="59"/>
+      <c r="Q67" s="68"/>
       <c r="R67" s="57"/>
     </row>
     <row r="68" spans="1:18" ht="15.75">
       <c r="A68" s="57"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="64"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3548,13 +3545,13 @@
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
-      <c r="Q68" s="59"/>
+      <c r="Q68" s="68"/>
       <c r="R68" s="57"/>
     </row>
     <row r="69" spans="1:18" ht="15.75">
       <c r="A69" s="57"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="64"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="66"/>
       <c r="D69" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3583,13 +3580,13 @@
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
-      <c r="Q69" s="59"/>
+      <c r="Q69" s="68"/>
       <c r="R69" s="57"/>
     </row>
     <row r="70" spans="1:18" ht="15.75">
       <c r="A70" s="57"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="64"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3618,13 +3615,13 @@
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
-      <c r="Q70" s="59"/>
+      <c r="Q70" s="68"/>
       <c r="R70" s="57"/>
     </row>
     <row r="71" spans="1:18" ht="15.75">
       <c r="A71" s="57"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="64"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3653,13 +3650,13 @@
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
-      <c r="Q71" s="59"/>
+      <c r="Q71" s="68"/>
       <c r="R71" s="57"/>
     </row>
     <row r="72" spans="1:18" ht="15.75">
       <c r="A72" s="57"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="64"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="66"/>
       <c r="D72" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3688,13 +3685,13 @@
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
-      <c r="Q72" s="59"/>
+      <c r="Q72" s="68"/>
       <c r="R72" s="57"/>
     </row>
     <row r="73" spans="1:18" ht="15.75">
       <c r="A73" s="57"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="64"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="66"/>
       <c r="D73" s="12" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3723,15 +3720,15 @@
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
-      <c r="Q73" s="60"/>
+      <c r="Q73" s="69"/>
       <c r="R73" s="57"/>
     </row>
     <row r="74" spans="1:18" ht="38.25">
       <c r="A74" s="57"/>
-      <c r="B74" s="58">
+      <c r="B74" s="67">
         <v>2.5</v>
       </c>
-      <c r="C74" s="66" t="s">
+      <c r="C74" s="71" t="s">
         <v>28</v>
       </c>
       <c r="D74" s="5" t="str">
@@ -3765,13 +3762,13 @@
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
-      <c r="Q74" s="58"/>
+      <c r="Q74" s="67"/>
       <c r="R74" s="57"/>
     </row>
     <row r="75" spans="1:18" ht="25.5">
       <c r="A75" s="57"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="66"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="71"/>
       <c r="D75" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -3803,13 +3800,13 @@
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
-      <c r="Q75" s="59"/>
+      <c r="Q75" s="68"/>
       <c r="R75" s="57"/>
     </row>
     <row r="76" spans="1:18" ht="25.5">
       <c r="A76" s="57"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="66"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="71"/>
       <c r="D76" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -3841,13 +3838,13 @@
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
-      <c r="Q76" s="59"/>
+      <c r="Q76" s="68"/>
       <c r="R76" s="57"/>
     </row>
     <row r="77" spans="1:18" ht="15.75">
       <c r="A77" s="57"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="66"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="71"/>
       <c r="D77" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3873,13 +3870,13 @@
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
-      <c r="Q77" s="59"/>
+      <c r="Q77" s="68"/>
       <c r="R77" s="57"/>
     </row>
     <row r="78" spans="1:18" ht="15.75">
       <c r="A78" s="57"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="66"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="71"/>
       <c r="D78" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3908,13 +3905,13 @@
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
-      <c r="Q78" s="59"/>
+      <c r="Q78" s="68"/>
       <c r="R78" s="57"/>
     </row>
     <row r="79" spans="1:18" ht="15.75">
       <c r="A79" s="57"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="66"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="71"/>
       <c r="D79" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3943,13 +3940,13 @@
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
-      <c r="Q79" s="59"/>
+      <c r="Q79" s="68"/>
       <c r="R79" s="57"/>
     </row>
     <row r="80" spans="1:18" ht="15.75">
       <c r="A80" s="57"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="66"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="71"/>
       <c r="D80" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -3978,13 +3975,13 @@
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
-      <c r="Q80" s="59"/>
+      <c r="Q80" s="68"/>
       <c r="R80" s="57"/>
     </row>
     <row r="81" spans="1:18" ht="15.75">
       <c r="A81" s="57"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="66"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="71"/>
       <c r="D81" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4013,13 +4010,13 @@
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
-      <c r="Q81" s="59"/>
+      <c r="Q81" s="68"/>
       <c r="R81" s="57"/>
     </row>
     <row r="82" spans="1:18" ht="15.75">
       <c r="A82" s="57"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="66"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="71"/>
       <c r="D82" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4048,13 +4045,13 @@
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
-      <c r="Q82" s="59"/>
+      <c r="Q82" s="68"/>
       <c r="R82" s="57"/>
     </row>
     <row r="83" spans="1:18" ht="15.75">
       <c r="A83" s="57"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="66"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="71"/>
       <c r="D83" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4083,13 +4080,13 @@
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
-      <c r="Q83" s="59"/>
+      <c r="Q83" s="68"/>
       <c r="R83" s="57"/>
     </row>
     <row r="84" spans="1:18" ht="15.75">
       <c r="A84" s="57"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="66"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="71"/>
       <c r="D84" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4118,13 +4115,13 @@
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
-      <c r="Q84" s="59"/>
+      <c r="Q84" s="68"/>
       <c r="R84" s="57"/>
     </row>
     <row r="85" spans="1:18" ht="15.75">
       <c r="A85" s="57"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="66"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="71"/>
       <c r="D85" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4153,13 +4150,13 @@
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
-      <c r="Q85" s="59"/>
+      <c r="Q85" s="68"/>
       <c r="R85" s="57"/>
     </row>
     <row r="86" spans="1:18" ht="15.75">
       <c r="A86" s="57"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="66"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="71"/>
       <c r="D86" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4188,13 +4185,13 @@
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
       <c r="P86" s="9"/>
-      <c r="Q86" s="59"/>
+      <c r="Q86" s="68"/>
       <c r="R86" s="57"/>
     </row>
     <row r="87" spans="1:18" ht="15.75">
       <c r="A87" s="57"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="66"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="71"/>
       <c r="D87" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4223,13 +4220,13 @@
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
       <c r="P87" s="9"/>
-      <c r="Q87" s="59"/>
+      <c r="Q87" s="68"/>
       <c r="R87" s="57"/>
     </row>
     <row r="88" spans="1:18" ht="15.75">
       <c r="A88" s="57"/>
-      <c r="B88" s="60"/>
-      <c r="C88" s="66"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="71"/>
       <c r="D88" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4258,15 +4255,15 @@
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
       <c r="P88" s="9"/>
-      <c r="Q88" s="60"/>
+      <c r="Q88" s="69"/>
       <c r="R88" s="57"/>
     </row>
     <row r="89" spans="1:18" ht="51">
       <c r="A89" s="57"/>
-      <c r="B89" s="61">
+      <c r="B89" s="63">
         <v>2.6</v>
       </c>
-      <c r="C89" s="66" t="s">
+      <c r="C89" s="71" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="5" t="str">
@@ -4300,13 +4297,13 @@
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
       <c r="P89" s="9"/>
-      <c r="Q89" s="61"/>
-      <c r="R89" s="67"/>
+      <c r="Q89" s="63"/>
+      <c r="R89" s="58"/>
     </row>
     <row r="90" spans="1:18" ht="25.5">
       <c r="A90" s="57"/>
-      <c r="B90" s="62"/>
-      <c r="C90" s="66"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="71"/>
       <c r="D90" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
@@ -4338,13 +4335,13 @@
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
       <c r="P90" s="9"/>
-      <c r="Q90" s="62"/>
-      <c r="R90" s="67"/>
+      <c r="Q90" s="64"/>
+      <c r="R90" s="58"/>
     </row>
     <row r="91" spans="1:18" ht="57.75" customHeight="1">
       <c r="A91" s="57"/>
-      <c r="B91" s="62"/>
-      <c r="C91" s="66"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="71"/>
       <c r="D91" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4370,13 +4367,13 @@
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
       <c r="P91" s="9"/>
-      <c r="Q91" s="62"/>
-      <c r="R91" s="67"/>
+      <c r="Q91" s="64"/>
+      <c r="R91" s="58"/>
     </row>
     <row r="92" spans="1:18" ht="15.75">
       <c r="A92" s="57"/>
-      <c r="B92" s="62"/>
-      <c r="C92" s="66"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="71"/>
       <c r="D92" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4402,13 +4399,13 @@
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
-      <c r="Q92" s="62"/>
-      <c r="R92" s="67"/>
+      <c r="Q92" s="64"/>
+      <c r="R92" s="58"/>
     </row>
     <row r="93" spans="1:18" ht="15.75">
       <c r="A93" s="57"/>
-      <c r="B93" s="62"/>
-      <c r="C93" s="66"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="71"/>
       <c r="D93" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4437,13 +4434,13 @@
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
       <c r="P93" s="9"/>
-      <c r="Q93" s="62"/>
-      <c r="R93" s="67"/>
+      <c r="Q93" s="64"/>
+      <c r="R93" s="58"/>
     </row>
     <row r="94" spans="1:18" ht="15.75">
       <c r="A94" s="57"/>
-      <c r="B94" s="62"/>
-      <c r="C94" s="66"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="71"/>
       <c r="D94" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4472,13 +4469,13 @@
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
       <c r="P94" s="9"/>
-      <c r="Q94" s="62"/>
-      <c r="R94" s="67"/>
+      <c r="Q94" s="64"/>
+      <c r="R94" s="58"/>
     </row>
     <row r="95" spans="1:18" ht="15.75">
       <c r="A95" s="57"/>
-      <c r="B95" s="62"/>
-      <c r="C95" s="66"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="71"/>
       <c r="D95" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4507,13 +4504,13 @@
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
       <c r="P95" s="9"/>
-      <c r="Q95" s="62"/>
-      <c r="R95" s="67"/>
+      <c r="Q95" s="64"/>
+      <c r="R95" s="58"/>
     </row>
     <row r="96" spans="1:18" ht="15.75">
       <c r="A96" s="57"/>
-      <c r="B96" s="62"/>
-      <c r="C96" s="66"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="71"/>
       <c r="D96" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4542,13 +4539,13 @@
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
       <c r="P96" s="9"/>
-      <c r="Q96" s="62"/>
-      <c r="R96" s="67"/>
+      <c r="Q96" s="64"/>
+      <c r="R96" s="58"/>
     </row>
     <row r="97" spans="1:18" ht="15.75">
       <c r="A97" s="57"/>
-      <c r="B97" s="62"/>
-      <c r="C97" s="66"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="71"/>
       <c r="D97" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4577,13 +4574,13 @@
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
       <c r="P97" s="9"/>
-      <c r="Q97" s="62"/>
-      <c r="R97" s="67"/>
+      <c r="Q97" s="64"/>
+      <c r="R97" s="58"/>
     </row>
     <row r="98" spans="1:18" ht="15.75">
       <c r="A98" s="57"/>
-      <c r="B98" s="62"/>
-      <c r="C98" s="66"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="71"/>
       <c r="D98" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4612,13 +4609,13 @@
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
       <c r="P98" s="9"/>
-      <c r="Q98" s="62"/>
-      <c r="R98" s="67"/>
+      <c r="Q98" s="64"/>
+      <c r="R98" s="58"/>
     </row>
     <row r="99" spans="1:18" ht="15.75">
       <c r="A99" s="57"/>
-      <c r="B99" s="62"/>
-      <c r="C99" s="66"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="71"/>
       <c r="D99" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4647,13 +4644,13 @@
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
       <c r="P99" s="9"/>
-      <c r="Q99" s="62"/>
-      <c r="R99" s="67"/>
+      <c r="Q99" s="64"/>
+      <c r="R99" s="58"/>
     </row>
     <row r="100" spans="1:18" ht="15.75">
       <c r="A100" s="57"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="66"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="71"/>
       <c r="D100" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4682,13 +4679,13 @@
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
       <c r="P100" s="9"/>
-      <c r="Q100" s="62"/>
-      <c r="R100" s="67"/>
+      <c r="Q100" s="64"/>
+      <c r="R100" s="58"/>
     </row>
     <row r="101" spans="1:18" ht="15.75">
       <c r="A101" s="57"/>
-      <c r="B101" s="62"/>
-      <c r="C101" s="66"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="71"/>
       <c r="D101" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4717,13 +4714,13 @@
       <c r="N101" s="9"/>
       <c r="O101" s="9"/>
       <c r="P101" s="9"/>
-      <c r="Q101" s="62"/>
-      <c r="R101" s="67"/>
+      <c r="Q101" s="64"/>
+      <c r="R101" s="58"/>
     </row>
     <row r="102" spans="1:18" ht="15.75">
       <c r="A102" s="57"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="66"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="71"/>
       <c r="D102" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4752,13 +4749,13 @@
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
       <c r="P102" s="9"/>
-      <c r="Q102" s="62"/>
-      <c r="R102" s="67"/>
+      <c r="Q102" s="64"/>
+      <c r="R102" s="58"/>
     </row>
     <row r="103" spans="1:18" ht="15.75">
       <c r="A103" s="57"/>
-      <c r="B103" s="63"/>
-      <c r="C103" s="66"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="71"/>
       <c r="D103" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4787,13 +4784,13 @@
       <c r="N103" s="9"/>
       <c r="O103" s="9"/>
       <c r="P103" s="9"/>
-      <c r="Q103" s="63"/>
-      <c r="R103" s="67"/>
+      <c r="Q103" s="65"/>
+      <c r="R103" s="58"/>
     </row>
     <row r="104" spans="1:18" ht="15.75">
       <c r="A104" s="15"/>
-      <c r="B104" s="61"/>
-      <c r="C104" s="66"/>
+      <c r="B104" s="63"/>
+      <c r="C104" s="71"/>
       <c r="D104" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4822,13 +4819,13 @@
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
       <c r="P104" s="9"/>
-      <c r="Q104" s="61"/>
-      <c r="R104" s="67"/>
+      <c r="Q104" s="63"/>
+      <c r="R104" s="58"/>
     </row>
     <row r="105" spans="1:18" ht="15.75">
       <c r="A105" s="15"/>
-      <c r="B105" s="62"/>
-      <c r="C105" s="66"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="71"/>
       <c r="D105" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4857,13 +4854,13 @@
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
       <c r="P105" s="9"/>
-      <c r="Q105" s="62"/>
-      <c r="R105" s="67"/>
+      <c r="Q105" s="64"/>
+      <c r="R105" s="58"/>
     </row>
     <row r="106" spans="1:18" ht="15.75">
       <c r="A106" s="15"/>
-      <c r="B106" s="62"/>
-      <c r="C106" s="66"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="71"/>
       <c r="D106" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4892,13 +4889,13 @@
       <c r="N106" s="9"/>
       <c r="O106" s="9"/>
       <c r="P106" s="9"/>
-      <c r="Q106" s="62"/>
-      <c r="R106" s="67"/>
+      <c r="Q106" s="64"/>
+      <c r="R106" s="58"/>
     </row>
     <row r="107" spans="1:18" ht="15.75">
       <c r="A107" s="15"/>
-      <c r="B107" s="62"/>
-      <c r="C107" s="66"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="71"/>
       <c r="D107" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4927,13 +4924,13 @@
       <c r="N107" s="9"/>
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
-      <c r="Q107" s="62"/>
-      <c r="R107" s="67"/>
+      <c r="Q107" s="64"/>
+      <c r="R107" s="58"/>
     </row>
     <row r="108" spans="1:18" ht="15.75">
       <c r="A108" s="15"/>
-      <c r="B108" s="62"/>
-      <c r="C108" s="66"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="71"/>
       <c r="D108" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4962,13 +4959,13 @@
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
       <c r="P108" s="9"/>
-      <c r="Q108" s="62"/>
-      <c r="R108" s="67"/>
+      <c r="Q108" s="64"/>
+      <c r="R108" s="58"/>
     </row>
     <row r="109" spans="1:18" ht="15.75">
       <c r="A109" s="15"/>
-      <c r="B109" s="62"/>
-      <c r="C109" s="66"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="71"/>
       <c r="D109" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -4997,13 +4994,13 @@
       <c r="N109" s="9"/>
       <c r="O109" s="9"/>
       <c r="P109" s="9"/>
-      <c r="Q109" s="62"/>
-      <c r="R109" s="67"/>
+      <c r="Q109" s="64"/>
+      <c r="R109" s="58"/>
     </row>
     <row r="110" spans="1:18" ht="15.75">
       <c r="A110" s="15"/>
-      <c r="B110" s="62"/>
-      <c r="C110" s="66"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="71"/>
       <c r="D110" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5032,13 +5029,13 @@
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
       <c r="P110" s="9"/>
-      <c r="Q110" s="62"/>
-      <c r="R110" s="67"/>
+      <c r="Q110" s="64"/>
+      <c r="R110" s="58"/>
     </row>
     <row r="111" spans="1:18" ht="15.75">
       <c r="A111" s="15"/>
-      <c r="B111" s="62"/>
-      <c r="C111" s="66"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="71"/>
       <c r="D111" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5067,13 +5064,13 @@
       <c r="N111" s="9"/>
       <c r="O111" s="9"/>
       <c r="P111" s="9"/>
-      <c r="Q111" s="62"/>
-      <c r="R111" s="67"/>
+      <c r="Q111" s="64"/>
+      <c r="R111" s="58"/>
     </row>
     <row r="112" spans="1:18" ht="15.75">
       <c r="A112" s="15"/>
-      <c r="B112" s="62"/>
-      <c r="C112" s="66"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="71"/>
       <c r="D112" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5102,13 +5099,13 @@
       <c r="N112" s="9"/>
       <c r="O112" s="9"/>
       <c r="P112" s="9"/>
-      <c r="Q112" s="62"/>
-      <c r="R112" s="67"/>
+      <c r="Q112" s="64"/>
+      <c r="R112" s="58"/>
     </row>
     <row r="113" spans="1:18" ht="15.75">
       <c r="A113" s="15"/>
-      <c r="B113" s="62"/>
-      <c r="C113" s="66"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="71"/>
       <c r="D113" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5137,13 +5134,13 @@
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
       <c r="P113" s="9"/>
-      <c r="Q113" s="62"/>
-      <c r="R113" s="67"/>
+      <c r="Q113" s="64"/>
+      <c r="R113" s="58"/>
     </row>
     <row r="114" spans="1:18" ht="15.75">
       <c r="A114" s="15"/>
-      <c r="B114" s="62"/>
-      <c r="C114" s="66"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="71"/>
       <c r="D114" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5172,13 +5169,13 @@
       <c r="N114" s="9"/>
       <c r="O114" s="9"/>
       <c r="P114" s="9"/>
-      <c r="Q114" s="62"/>
-      <c r="R114" s="67"/>
+      <c r="Q114" s="64"/>
+      <c r="R114" s="58"/>
     </row>
     <row r="115" spans="1:18" ht="15.75">
       <c r="A115" s="15"/>
-      <c r="B115" s="62"/>
-      <c r="C115" s="66"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="71"/>
       <c r="D115" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5207,13 +5204,13 @@
       <c r="N115" s="9"/>
       <c r="O115" s="9"/>
       <c r="P115" s="9"/>
-      <c r="Q115" s="62"/>
-      <c r="R115" s="67"/>
+      <c r="Q115" s="64"/>
+      <c r="R115" s="58"/>
     </row>
     <row r="116" spans="1:18" ht="15.75">
       <c r="A116" s="15"/>
-      <c r="B116" s="62"/>
-      <c r="C116" s="66"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="71"/>
       <c r="D116" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5241,13 +5238,13 @@
       <c r="N116" s="9"/>
       <c r="O116" s="9"/>
       <c r="P116" s="9"/>
-      <c r="Q116" s="62"/>
-      <c r="R116" s="67"/>
+      <c r="Q116" s="64"/>
+      <c r="R116" s="58"/>
     </row>
     <row r="117" spans="1:18" ht="15.75">
       <c r="A117" s="15"/>
-      <c r="B117" s="62"/>
-      <c r="C117" s="66"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="71"/>
       <c r="D117" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5275,13 +5272,13 @@
       <c r="N117" s="9"/>
       <c r="O117" s="9"/>
       <c r="P117" s="9"/>
-      <c r="Q117" s="62"/>
-      <c r="R117" s="67"/>
+      <c r="Q117" s="64"/>
+      <c r="R117" s="58"/>
     </row>
     <row r="118" spans="1:18" ht="15.75">
       <c r="A118" s="15"/>
-      <c r="B118" s="63"/>
-      <c r="C118" s="66"/>
+      <c r="B118" s="65"/>
+      <c r="C118" s="71"/>
       <c r="D118" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5309,13 +5306,13 @@
       <c r="N118" s="9"/>
       <c r="O118" s="9"/>
       <c r="P118" s="9"/>
-      <c r="Q118" s="63"/>
-      <c r="R118" s="67"/>
+      <c r="Q118" s="65"/>
+      <c r="R118" s="58"/>
     </row>
     <row r="119" spans="1:18" ht="25.5" customHeight="1">
       <c r="A119" s="15"/>
-      <c r="B119" s="61"/>
-      <c r="C119" s="64"/>
+      <c r="B119" s="63"/>
+      <c r="C119" s="66"/>
       <c r="D119" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5344,13 +5341,13 @@
       <c r="N119" s="9"/>
       <c r="O119" s="9"/>
       <c r="P119" s="9"/>
-      <c r="Q119" s="61"/>
-      <c r="R119" s="67"/>
+      <c r="Q119" s="63"/>
+      <c r="R119" s="58"/>
     </row>
     <row r="120" spans="1:18" ht="15.75">
       <c r="A120" s="15"/>
-      <c r="B120" s="62"/>
-      <c r="C120" s="64"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="66"/>
       <c r="D120" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5379,13 +5376,13 @@
       <c r="N120" s="9"/>
       <c r="O120" s="9"/>
       <c r="P120" s="9"/>
-      <c r="Q120" s="62"/>
-      <c r="R120" s="67"/>
+      <c r="Q120" s="64"/>
+      <c r="R120" s="58"/>
     </row>
     <row r="121" spans="1:18" ht="15.75">
       <c r="A121" s="15"/>
-      <c r="B121" s="62"/>
-      <c r="C121" s="64"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="66"/>
       <c r="D121" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5414,13 +5411,13 @@
       <c r="N121" s="9"/>
       <c r="O121" s="9"/>
       <c r="P121" s="9"/>
-      <c r="Q121" s="62"/>
-      <c r="R121" s="67"/>
+      <c r="Q121" s="64"/>
+      <c r="R121" s="58"/>
     </row>
     <row r="122" spans="1:18" ht="15.75">
       <c r="A122" s="15"/>
-      <c r="B122" s="62"/>
-      <c r="C122" s="64"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="66"/>
       <c r="D122" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5449,13 +5446,13 @@
       <c r="N122" s="9"/>
       <c r="O122" s="9"/>
       <c r="P122" s="9"/>
-      <c r="Q122" s="62"/>
-      <c r="R122" s="67"/>
+      <c r="Q122" s="64"/>
+      <c r="R122" s="58"/>
     </row>
     <row r="123" spans="1:18" ht="15.75">
       <c r="A123" s="15"/>
-      <c r="B123" s="62"/>
-      <c r="C123" s="64"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="66"/>
       <c r="D123" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5484,13 +5481,13 @@
       <c r="N123" s="9"/>
       <c r="O123" s="9"/>
       <c r="P123" s="9"/>
-      <c r="Q123" s="62"/>
-      <c r="R123" s="67"/>
+      <c r="Q123" s="64"/>
+      <c r="R123" s="58"/>
     </row>
     <row r="124" spans="1:18" ht="15.75">
       <c r="A124" s="15"/>
-      <c r="B124" s="62"/>
-      <c r="C124" s="64"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="66"/>
       <c r="D124" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5519,13 +5516,13 @@
       <c r="N124" s="9"/>
       <c r="O124" s="9"/>
       <c r="P124" s="9"/>
-      <c r="Q124" s="62"/>
-      <c r="R124" s="67"/>
+      <c r="Q124" s="64"/>
+      <c r="R124" s="58"/>
     </row>
     <row r="125" spans="1:18" ht="15.75">
       <c r="A125" s="15"/>
-      <c r="B125" s="62"/>
-      <c r="C125" s="64"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="66"/>
       <c r="D125" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5554,13 +5551,13 @@
       <c r="N125" s="9"/>
       <c r="O125" s="9"/>
       <c r="P125" s="9"/>
-      <c r="Q125" s="62"/>
-      <c r="R125" s="67"/>
+      <c r="Q125" s="64"/>
+      <c r="R125" s="58"/>
     </row>
     <row r="126" spans="1:18" ht="15.75">
       <c r="A126" s="15"/>
-      <c r="B126" s="62"/>
-      <c r="C126" s="64"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="66"/>
       <c r="D126" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5588,13 +5585,13 @@
       <c r="N126" s="9"/>
       <c r="O126" s="9"/>
       <c r="P126" s="9"/>
-      <c r="Q126" s="62"/>
-      <c r="R126" s="67"/>
+      <c r="Q126" s="64"/>
+      <c r="R126" s="58"/>
     </row>
     <row r="127" spans="1:18" ht="15.75">
       <c r="A127" s="15"/>
-      <c r="B127" s="62"/>
-      <c r="C127" s="64"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="66"/>
       <c r="D127" s="5" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
@@ -5623,13 +5620,13 @@
       <c r="N127" s="9"/>
       <c r="O127" s="9"/>
       <c r="P127" s="9"/>
-      <c r="Q127" s="62"/>
-      <c r="R127" s="67"/>
+      <c r="Q127" s="64"/>
+      <c r="R127" s="58"/>
     </row>
     <row r="128" spans="1:18" ht="15.75">
       <c r="A128" s="15"/>
-      <c r="B128" s="62"/>
-      <c r="C128" s="64"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="66"/>
       <c r="D128" s="5" t="str">
         <f t="shared" ref="D128:D191" si="7">IF(LEN(E128)&gt;5,IF(LEN(K128&amp;L128&amp;M128)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -5657,13 +5654,13 @@
       <c r="N128" s="9"/>
       <c r="O128" s="9"/>
       <c r="P128" s="9"/>
-      <c r="Q128" s="62"/>
-      <c r="R128" s="67"/>
+      <c r="Q128" s="64"/>
+      <c r="R128" s="58"/>
     </row>
     <row r="129" spans="1:18" ht="15.75">
       <c r="A129" s="15"/>
-      <c r="B129" s="62"/>
-      <c r="C129" s="64"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="66"/>
       <c r="D129" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5692,13 +5689,13 @@
       <c r="N129" s="9"/>
       <c r="O129" s="9"/>
       <c r="P129" s="9"/>
-      <c r="Q129" s="62"/>
-      <c r="R129" s="67"/>
+      <c r="Q129" s="64"/>
+      <c r="R129" s="58"/>
     </row>
     <row r="130" spans="1:18" ht="15.75">
       <c r="A130" s="15"/>
-      <c r="B130" s="62"/>
-      <c r="C130" s="64"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="66"/>
       <c r="D130" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5727,13 +5724,13 @@
       <c r="N130" s="9"/>
       <c r="O130" s="9"/>
       <c r="P130" s="9"/>
-      <c r="Q130" s="62"/>
-      <c r="R130" s="67"/>
+      <c r="Q130" s="64"/>
+      <c r="R130" s="58"/>
     </row>
     <row r="131" spans="1:18" ht="15.75">
       <c r="A131" s="15"/>
-      <c r="B131" s="62"/>
-      <c r="C131" s="64"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="66"/>
       <c r="D131" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5762,13 +5759,13 @@
       <c r="N131" s="9"/>
       <c r="O131" s="9"/>
       <c r="P131" s="9"/>
-      <c r="Q131" s="62"/>
-      <c r="R131" s="67"/>
+      <c r="Q131" s="64"/>
+      <c r="R131" s="58"/>
     </row>
     <row r="132" spans="1:18" ht="15.75">
       <c r="A132" s="15"/>
-      <c r="B132" s="62"/>
-      <c r="C132" s="64"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="66"/>
       <c r="D132" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5797,13 +5794,13 @@
       <c r="N132" s="9"/>
       <c r="O132" s="9"/>
       <c r="P132" s="9"/>
-      <c r="Q132" s="62"/>
-      <c r="R132" s="67"/>
+      <c r="Q132" s="64"/>
+      <c r="R132" s="58"/>
     </row>
     <row r="133" spans="1:18" ht="15.75">
       <c r="A133" s="15"/>
-      <c r="B133" s="63"/>
-      <c r="C133" s="64"/>
+      <c r="B133" s="65"/>
+      <c r="C133" s="66"/>
       <c r="D133" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5832,13 +5829,13 @@
       <c r="N133" s="9"/>
       <c r="O133" s="9"/>
       <c r="P133" s="9"/>
-      <c r="Q133" s="63"/>
-      <c r="R133" s="67"/>
+      <c r="Q133" s="65"/>
+      <c r="R133" s="58"/>
     </row>
     <row r="134" spans="1:18" ht="12.75" customHeight="1">
       <c r="A134" s="15"/>
-      <c r="B134" s="61"/>
-      <c r="C134" s="64"/>
+      <c r="B134" s="63"/>
+      <c r="C134" s="66"/>
       <c r="D134" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5866,13 +5863,13 @@
       <c r="N134" s="9"/>
       <c r="O134" s="9"/>
       <c r="P134" s="9"/>
-      <c r="Q134" s="61"/>
-      <c r="R134" s="67"/>
+      <c r="Q134" s="63"/>
+      <c r="R134" s="58"/>
     </row>
     <row r="135" spans="1:18" ht="15.75">
       <c r="A135" s="15"/>
-      <c r="B135" s="62"/>
-      <c r="C135" s="64"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="66"/>
       <c r="D135" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5901,13 +5898,13 @@
       <c r="N135" s="9"/>
       <c r="O135" s="9"/>
       <c r="P135" s="9"/>
-      <c r="Q135" s="62"/>
-      <c r="R135" s="67"/>
+      <c r="Q135" s="64"/>
+      <c r="R135" s="58"/>
     </row>
     <row r="136" spans="1:18" ht="15.75">
       <c r="A136" s="15"/>
-      <c r="B136" s="62"/>
-      <c r="C136" s="64"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="66"/>
       <c r="D136" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5936,13 +5933,13 @@
       <c r="N136" s="9"/>
       <c r="O136" s="9"/>
       <c r="P136" s="9"/>
-      <c r="Q136" s="62"/>
-      <c r="R136" s="67"/>
+      <c r="Q136" s="64"/>
+      <c r="R136" s="58"/>
     </row>
     <row r="137" spans="1:18" ht="15.75">
       <c r="A137" s="15"/>
-      <c r="B137" s="62"/>
-      <c r="C137" s="64"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="66"/>
       <c r="D137" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -5971,13 +5968,13 @@
       <c r="N137" s="9"/>
       <c r="O137" s="9"/>
       <c r="P137" s="9"/>
-      <c r="Q137" s="62"/>
-      <c r="R137" s="67"/>
+      <c r="Q137" s="64"/>
+      <c r="R137" s="58"/>
     </row>
     <row r="138" spans="1:18" ht="15.75">
       <c r="A138" s="15"/>
-      <c r="B138" s="62"/>
-      <c r="C138" s="64"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="66"/>
       <c r="D138" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6006,13 +6003,13 @@
       <c r="N138" s="9"/>
       <c r="O138" s="9"/>
       <c r="P138" s="9"/>
-      <c r="Q138" s="62"/>
-      <c r="R138" s="67"/>
+      <c r="Q138" s="64"/>
+      <c r="R138" s="58"/>
     </row>
     <row r="139" spans="1:18" ht="15.75">
       <c r="A139" s="15"/>
-      <c r="B139" s="62"/>
-      <c r="C139" s="64"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="66"/>
       <c r="D139" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6041,13 +6038,13 @@
       <c r="N139" s="9"/>
       <c r="O139" s="9"/>
       <c r="P139" s="9"/>
-      <c r="Q139" s="62"/>
-      <c r="R139" s="67"/>
+      <c r="Q139" s="64"/>
+      <c r="R139" s="58"/>
     </row>
     <row r="140" spans="1:18" ht="15.75">
       <c r="A140" s="15"/>
-      <c r="B140" s="62"/>
-      <c r="C140" s="64"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="66"/>
       <c r="D140" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6076,13 +6073,13 @@
       <c r="N140" s="9"/>
       <c r="O140" s="9"/>
       <c r="P140" s="9"/>
-      <c r="Q140" s="62"/>
-      <c r="R140" s="67"/>
+      <c r="Q140" s="64"/>
+      <c r="R140" s="58"/>
     </row>
     <row r="141" spans="1:18" ht="15.75">
       <c r="A141" s="15"/>
-      <c r="B141" s="62"/>
-      <c r="C141" s="64"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="66"/>
       <c r="D141" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6111,13 +6108,13 @@
       <c r="N141" s="9"/>
       <c r="O141" s="9"/>
       <c r="P141" s="9"/>
-      <c r="Q141" s="62"/>
-      <c r="R141" s="67"/>
+      <c r="Q141" s="64"/>
+      <c r="R141" s="58"/>
     </row>
     <row r="142" spans="1:18" ht="15.75">
       <c r="A142" s="15"/>
-      <c r="B142" s="62"/>
-      <c r="C142" s="64"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="66"/>
       <c r="D142" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6146,13 +6143,13 @@
       <c r="N142" s="9"/>
       <c r="O142" s="9"/>
       <c r="P142" s="9"/>
-      <c r="Q142" s="62"/>
-      <c r="R142" s="67"/>
+      <c r="Q142" s="64"/>
+      <c r="R142" s="58"/>
     </row>
     <row r="143" spans="1:18" ht="15.75">
       <c r="A143" s="15"/>
-      <c r="B143" s="62"/>
-      <c r="C143" s="64"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="66"/>
       <c r="D143" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6181,13 +6178,13 @@
       <c r="N143" s="9"/>
       <c r="O143" s="9"/>
       <c r="P143" s="9"/>
-      <c r="Q143" s="62"/>
-      <c r="R143" s="67"/>
+      <c r="Q143" s="64"/>
+      <c r="R143" s="58"/>
     </row>
     <row r="144" spans="1:18" ht="15.75">
       <c r="A144" s="15"/>
-      <c r="B144" s="62"/>
-      <c r="C144" s="64"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="66"/>
       <c r="D144" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6216,13 +6213,13 @@
       <c r="N144" s="9"/>
       <c r="O144" s="9"/>
       <c r="P144" s="9"/>
-      <c r="Q144" s="62"/>
-      <c r="R144" s="67"/>
+      <c r="Q144" s="64"/>
+      <c r="R144" s="58"/>
     </row>
     <row r="145" spans="1:18" ht="15.75">
       <c r="A145" s="15"/>
-      <c r="B145" s="62"/>
-      <c r="C145" s="64"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="66"/>
       <c r="D145" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6251,13 +6248,13 @@
       <c r="N145" s="9"/>
       <c r="O145" s="9"/>
       <c r="P145" s="9"/>
-      <c r="Q145" s="62"/>
-      <c r="R145" s="67"/>
+      <c r="Q145" s="64"/>
+      <c r="R145" s="58"/>
     </row>
     <row r="146" spans="1:18" ht="15.75">
       <c r="A146" s="15"/>
-      <c r="B146" s="62"/>
-      <c r="C146" s="64"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="66"/>
       <c r="D146" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6286,13 +6283,13 @@
       <c r="N146" s="9"/>
       <c r="O146" s="9"/>
       <c r="P146" s="9"/>
-      <c r="Q146" s="62"/>
-      <c r="R146" s="67"/>
+      <c r="Q146" s="64"/>
+      <c r="R146" s="58"/>
     </row>
     <row r="147" spans="1:18" ht="15.75">
       <c r="A147" s="15"/>
-      <c r="B147" s="62"/>
-      <c r="C147" s="64"/>
+      <c r="B147" s="64"/>
+      <c r="C147" s="66"/>
       <c r="D147" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6321,13 +6318,13 @@
       <c r="N147" s="9"/>
       <c r="O147" s="9"/>
       <c r="P147" s="9"/>
-      <c r="Q147" s="62"/>
-      <c r="R147" s="67"/>
+      <c r="Q147" s="64"/>
+      <c r="R147" s="58"/>
     </row>
     <row r="148" spans="1:18" ht="15.75">
       <c r="A148" s="15"/>
-      <c r="B148" s="63"/>
-      <c r="C148" s="64"/>
+      <c r="B148" s="65"/>
+      <c r="C148" s="66"/>
       <c r="D148" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6356,13 +6353,13 @@
       <c r="N148" s="9"/>
       <c r="O148" s="9"/>
       <c r="P148" s="9"/>
-      <c r="Q148" s="63"/>
-      <c r="R148" s="67"/>
+      <c r="Q148" s="65"/>
+      <c r="R148" s="58"/>
     </row>
     <row r="149" spans="1:18" ht="102" customHeight="1">
       <c r="A149" s="15"/>
-      <c r="B149" s="61"/>
-      <c r="C149" s="64"/>
+      <c r="B149" s="63"/>
+      <c r="C149" s="66"/>
       <c r="D149" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6391,13 +6388,13 @@
       <c r="N149" s="9"/>
       <c r="O149" s="9"/>
       <c r="P149" s="9"/>
-      <c r="Q149" s="61"/>
-      <c r="R149" s="67"/>
+      <c r="Q149" s="63"/>
+      <c r="R149" s="58"/>
     </row>
     <row r="150" spans="1:18" ht="15.75">
       <c r="A150" s="15"/>
-      <c r="B150" s="62"/>
-      <c r="C150" s="64"/>
+      <c r="B150" s="64"/>
+      <c r="C150" s="66"/>
       <c r="D150" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6426,13 +6423,13 @@
       <c r="N150" s="9"/>
       <c r="O150" s="9"/>
       <c r="P150" s="9"/>
-      <c r="Q150" s="62"/>
-      <c r="R150" s="67"/>
+      <c r="Q150" s="64"/>
+      <c r="R150" s="58"/>
     </row>
     <row r="151" spans="1:18" ht="15.75">
       <c r="A151" s="15"/>
-      <c r="B151" s="62"/>
-      <c r="C151" s="64"/>
+      <c r="B151" s="64"/>
+      <c r="C151" s="66"/>
       <c r="D151" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6461,13 +6458,13 @@
       <c r="N151" s="9"/>
       <c r="O151" s="9"/>
       <c r="P151" s="9"/>
-      <c r="Q151" s="62"/>
-      <c r="R151" s="67"/>
+      <c r="Q151" s="64"/>
+      <c r="R151" s="58"/>
     </row>
     <row r="152" spans="1:18" ht="15.75">
       <c r="A152" s="15"/>
-      <c r="B152" s="62"/>
-      <c r="C152" s="64"/>
+      <c r="B152" s="64"/>
+      <c r="C152" s="66"/>
       <c r="D152" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6496,13 +6493,13 @@
       <c r="N152" s="9"/>
       <c r="O152" s="9"/>
       <c r="P152" s="9"/>
-      <c r="Q152" s="62"/>
-      <c r="R152" s="67"/>
+      <c r="Q152" s="64"/>
+      <c r="R152" s="58"/>
     </row>
     <row r="153" spans="1:18" ht="15.75">
       <c r="A153" s="15"/>
-      <c r="B153" s="62"/>
-      <c r="C153" s="64"/>
+      <c r="B153" s="64"/>
+      <c r="C153" s="66"/>
       <c r="D153" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6531,13 +6528,13 @@
       <c r="N153" s="9"/>
       <c r="O153" s="9"/>
       <c r="P153" s="9"/>
-      <c r="Q153" s="62"/>
-      <c r="R153" s="67"/>
+      <c r="Q153" s="64"/>
+      <c r="R153" s="58"/>
     </row>
     <row r="154" spans="1:18" ht="15.75">
       <c r="A154" s="15"/>
-      <c r="B154" s="62"/>
-      <c r="C154" s="64"/>
+      <c r="B154" s="64"/>
+      <c r="C154" s="66"/>
       <c r="D154" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6566,13 +6563,13 @@
       <c r="N154" s="9"/>
       <c r="O154" s="9"/>
       <c r="P154" s="9"/>
-      <c r="Q154" s="62"/>
-      <c r="R154" s="67"/>
+      <c r="Q154" s="64"/>
+      <c r="R154" s="58"/>
     </row>
     <row r="155" spans="1:18" ht="15.75">
       <c r="A155" s="15"/>
-      <c r="B155" s="62"/>
-      <c r="C155" s="64"/>
+      <c r="B155" s="64"/>
+      <c r="C155" s="66"/>
       <c r="D155" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6601,13 +6598,13 @@
       <c r="N155" s="9"/>
       <c r="O155" s="9"/>
       <c r="P155" s="9"/>
-      <c r="Q155" s="62"/>
-      <c r="R155" s="67"/>
+      <c r="Q155" s="64"/>
+      <c r="R155" s="58"/>
     </row>
     <row r="156" spans="1:18" ht="15.75">
       <c r="A156" s="15"/>
-      <c r="B156" s="62"/>
-      <c r="C156" s="64"/>
+      <c r="B156" s="64"/>
+      <c r="C156" s="66"/>
       <c r="D156" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6636,13 +6633,13 @@
       <c r="N156" s="9"/>
       <c r="O156" s="9"/>
       <c r="P156" s="9"/>
-      <c r="Q156" s="62"/>
-      <c r="R156" s="67"/>
+      <c r="Q156" s="64"/>
+      <c r="R156" s="58"/>
     </row>
     <row r="157" spans="1:18" ht="15.75">
       <c r="A157" s="15"/>
-      <c r="B157" s="62"/>
-      <c r="C157" s="64"/>
+      <c r="B157" s="64"/>
+      <c r="C157" s="66"/>
       <c r="D157" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6671,13 +6668,13 @@
       <c r="N157" s="9"/>
       <c r="O157" s="9"/>
       <c r="P157" s="9"/>
-      <c r="Q157" s="62"/>
-      <c r="R157" s="67"/>
+      <c r="Q157" s="64"/>
+      <c r="R157" s="58"/>
     </row>
     <row r="158" spans="1:18" ht="15.75">
       <c r="A158" s="15"/>
-      <c r="B158" s="62"/>
-      <c r="C158" s="64"/>
+      <c r="B158" s="64"/>
+      <c r="C158" s="66"/>
       <c r="D158" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6706,13 +6703,13 @@
       <c r="N158" s="9"/>
       <c r="O158" s="9"/>
       <c r="P158" s="9"/>
-      <c r="Q158" s="62"/>
-      <c r="R158" s="67"/>
+      <c r="Q158" s="64"/>
+      <c r="R158" s="58"/>
     </row>
     <row r="159" spans="1:18" ht="15.75">
       <c r="A159" s="15"/>
-      <c r="B159" s="62"/>
-      <c r="C159" s="64"/>
+      <c r="B159" s="64"/>
+      <c r="C159" s="66"/>
       <c r="D159" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6741,13 +6738,13 @@
       <c r="N159" s="9"/>
       <c r="O159" s="9"/>
       <c r="P159" s="9"/>
-      <c r="Q159" s="62"/>
-      <c r="R159" s="67"/>
+      <c r="Q159" s="64"/>
+      <c r="R159" s="58"/>
     </row>
     <row r="160" spans="1:18" ht="15.75">
       <c r="A160" s="15"/>
-      <c r="B160" s="62"/>
-      <c r="C160" s="64"/>
+      <c r="B160" s="64"/>
+      <c r="C160" s="66"/>
       <c r="D160" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6776,13 +6773,13 @@
       <c r="N160" s="9"/>
       <c r="O160" s="9"/>
       <c r="P160" s="9"/>
-      <c r="Q160" s="62"/>
-      <c r="R160" s="67"/>
+      <c r="Q160" s="64"/>
+      <c r="R160" s="58"/>
     </row>
     <row r="161" spans="1:18" ht="15.75">
       <c r="A161" s="15"/>
-      <c r="B161" s="62"/>
-      <c r="C161" s="64"/>
+      <c r="B161" s="64"/>
+      <c r="C161" s="66"/>
       <c r="D161" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6811,13 +6808,13 @@
       <c r="N161" s="9"/>
       <c r="O161" s="9"/>
       <c r="P161" s="9"/>
-      <c r="Q161" s="62"/>
-      <c r="R161" s="67"/>
+      <c r="Q161" s="64"/>
+      <c r="R161" s="58"/>
     </row>
     <row r="162" spans="1:18" ht="15.75">
       <c r="A162" s="15"/>
-      <c r="B162" s="62"/>
-      <c r="C162" s="64"/>
+      <c r="B162" s="64"/>
+      <c r="C162" s="66"/>
       <c r="D162" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6846,13 +6843,13 @@
       <c r="N162" s="9"/>
       <c r="O162" s="9"/>
       <c r="P162" s="9"/>
-      <c r="Q162" s="62"/>
-      <c r="R162" s="67"/>
+      <c r="Q162" s="64"/>
+      <c r="R162" s="58"/>
     </row>
     <row r="163" spans="1:18" ht="15.75">
       <c r="A163" s="15"/>
-      <c r="B163" s="63"/>
-      <c r="C163" s="64"/>
+      <c r="B163" s="65"/>
+      <c r="C163" s="66"/>
       <c r="D163" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6881,13 +6878,13 @@
       <c r="N163" s="9"/>
       <c r="O163" s="9"/>
       <c r="P163" s="9"/>
-      <c r="Q163" s="63"/>
-      <c r="R163" s="67"/>
+      <c r="Q163" s="65"/>
+      <c r="R163" s="58"/>
     </row>
     <row r="164" spans="1:18" ht="15.75">
       <c r="A164" s="15"/>
-      <c r="B164" s="61"/>
-      <c r="C164" s="64"/>
+      <c r="B164" s="63"/>
+      <c r="C164" s="66"/>
       <c r="D164" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6916,13 +6913,13 @@
       <c r="N164" s="9"/>
       <c r="O164" s="9"/>
       <c r="P164" s="9"/>
-      <c r="Q164" s="61"/>
-      <c r="R164" s="67"/>
+      <c r="Q164" s="63"/>
+      <c r="R164" s="58"/>
     </row>
     <row r="165" spans="1:18" ht="15.75">
       <c r="A165" s="15"/>
-      <c r="B165" s="62"/>
-      <c r="C165" s="64"/>
+      <c r="B165" s="64"/>
+      <c r="C165" s="66"/>
       <c r="D165" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6951,13 +6948,13 @@
       <c r="N165" s="9"/>
       <c r="O165" s="9"/>
       <c r="P165" s="9"/>
-      <c r="Q165" s="62"/>
-      <c r="R165" s="67"/>
+      <c r="Q165" s="64"/>
+      <c r="R165" s="58"/>
     </row>
     <row r="166" spans="1:18" ht="15.75">
       <c r="A166" s="15"/>
-      <c r="B166" s="62"/>
-      <c r="C166" s="64"/>
+      <c r="B166" s="64"/>
+      <c r="C166" s="66"/>
       <c r="D166" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -6986,13 +6983,13 @@
       <c r="N166" s="9"/>
       <c r="O166" s="9"/>
       <c r="P166" s="9"/>
-      <c r="Q166" s="62"/>
-      <c r="R166" s="67"/>
+      <c r="Q166" s="64"/>
+      <c r="R166" s="58"/>
     </row>
     <row r="167" spans="1:18" ht="15.75">
       <c r="A167" s="15"/>
-      <c r="B167" s="62"/>
-      <c r="C167" s="64"/>
+      <c r="B167" s="64"/>
+      <c r="C167" s="66"/>
       <c r="D167" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7021,13 +7018,13 @@
       <c r="N167" s="9"/>
       <c r="O167" s="9"/>
       <c r="P167" s="9"/>
-      <c r="Q167" s="62"/>
-      <c r="R167" s="67"/>
+      <c r="Q167" s="64"/>
+      <c r="R167" s="58"/>
     </row>
     <row r="168" spans="1:18" ht="15.75">
       <c r="A168" s="15"/>
-      <c r="B168" s="62"/>
-      <c r="C168" s="64"/>
+      <c r="B168" s="64"/>
+      <c r="C168" s="66"/>
       <c r="D168" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7056,13 +7053,13 @@
       <c r="N168" s="9"/>
       <c r="O168" s="9"/>
       <c r="P168" s="9"/>
-      <c r="Q168" s="62"/>
-      <c r="R168" s="67"/>
+      <c r="Q168" s="64"/>
+      <c r="R168" s="58"/>
     </row>
     <row r="169" spans="1:18" ht="28.5" customHeight="1">
       <c r="A169" s="15"/>
-      <c r="B169" s="62"/>
-      <c r="C169" s="64"/>
+      <c r="B169" s="64"/>
+      <c r="C169" s="66"/>
       <c r="D169" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7091,13 +7088,13 @@
       <c r="N169" s="9"/>
       <c r="O169" s="9"/>
       <c r="P169" s="9"/>
-      <c r="Q169" s="62"/>
-      <c r="R169" s="67"/>
+      <c r="Q169" s="64"/>
+      <c r="R169" s="58"/>
     </row>
     <row r="170" spans="1:18" ht="33.75" customHeight="1">
       <c r="A170" s="15"/>
-      <c r="B170" s="62"/>
-      <c r="C170" s="64"/>
+      <c r="B170" s="64"/>
+      <c r="C170" s="66"/>
       <c r="D170" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7126,13 +7123,13 @@
       <c r="N170" s="9"/>
       <c r="O170" s="9"/>
       <c r="P170" s="9"/>
-      <c r="Q170" s="62"/>
-      <c r="R170" s="67"/>
+      <c r="Q170" s="64"/>
+      <c r="R170" s="58"/>
     </row>
     <row r="171" spans="1:18" ht="15.75">
       <c r="A171" s="15"/>
-      <c r="B171" s="62"/>
-      <c r="C171" s="64"/>
+      <c r="B171" s="64"/>
+      <c r="C171" s="66"/>
       <c r="D171" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7161,13 +7158,13 @@
       <c r="N171" s="9"/>
       <c r="O171" s="9"/>
       <c r="P171" s="9"/>
-      <c r="Q171" s="62"/>
-      <c r="R171" s="67"/>
+      <c r="Q171" s="64"/>
+      <c r="R171" s="58"/>
     </row>
     <row r="172" spans="1:18" ht="15.75">
       <c r="A172" s="15"/>
-      <c r="B172" s="62"/>
-      <c r="C172" s="64"/>
+      <c r="B172" s="64"/>
+      <c r="C172" s="66"/>
       <c r="D172" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7196,13 +7193,13 @@
       <c r="N172" s="9"/>
       <c r="O172" s="9"/>
       <c r="P172" s="9"/>
-      <c r="Q172" s="62"/>
-      <c r="R172" s="67"/>
+      <c r="Q172" s="64"/>
+      <c r="R172" s="58"/>
     </row>
     <row r="173" spans="1:18" ht="15.75">
       <c r="A173" s="15"/>
-      <c r="B173" s="62"/>
-      <c r="C173" s="64"/>
+      <c r="B173" s="64"/>
+      <c r="C173" s="66"/>
       <c r="D173" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7231,13 +7228,13 @@
       <c r="N173" s="9"/>
       <c r="O173" s="9"/>
       <c r="P173" s="9"/>
-      <c r="Q173" s="62"/>
-      <c r="R173" s="67"/>
+      <c r="Q173" s="64"/>
+      <c r="R173" s="58"/>
     </row>
     <row r="174" spans="1:18" ht="15.75">
       <c r="A174" s="15"/>
-      <c r="B174" s="62"/>
-      <c r="C174" s="64"/>
+      <c r="B174" s="64"/>
+      <c r="C174" s="66"/>
       <c r="D174" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7266,13 +7263,13 @@
       <c r="N174" s="9"/>
       <c r="O174" s="9"/>
       <c r="P174" s="9"/>
-      <c r="Q174" s="62"/>
-      <c r="R174" s="67"/>
+      <c r="Q174" s="64"/>
+      <c r="R174" s="58"/>
     </row>
     <row r="175" spans="1:18" ht="15.75">
       <c r="A175" s="15"/>
-      <c r="B175" s="62"/>
-      <c r="C175" s="64"/>
+      <c r="B175" s="64"/>
+      <c r="C175" s="66"/>
       <c r="D175" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7301,13 +7298,13 @@
       <c r="N175" s="9"/>
       <c r="O175" s="9"/>
       <c r="P175" s="9"/>
-      <c r="Q175" s="62"/>
-      <c r="R175" s="67"/>
+      <c r="Q175" s="64"/>
+      <c r="R175" s="58"/>
     </row>
     <row r="176" spans="1:18" ht="15.75">
       <c r="A176" s="15"/>
-      <c r="B176" s="62"/>
-      <c r="C176" s="64"/>
+      <c r="B176" s="64"/>
+      <c r="C176" s="66"/>
       <c r="D176" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7336,13 +7333,13 @@
       <c r="N176" s="9"/>
       <c r="O176" s="9"/>
       <c r="P176" s="9"/>
-      <c r="Q176" s="62"/>
-      <c r="R176" s="67"/>
+      <c r="Q176" s="64"/>
+      <c r="R176" s="58"/>
     </row>
     <row r="177" spans="1:18" ht="15.75">
       <c r="A177" s="15"/>
-      <c r="B177" s="62"/>
-      <c r="C177" s="64"/>
+      <c r="B177" s="64"/>
+      <c r="C177" s="66"/>
       <c r="D177" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7371,13 +7368,13 @@
       <c r="N177" s="9"/>
       <c r="O177" s="9"/>
       <c r="P177" s="9"/>
-      <c r="Q177" s="62"/>
-      <c r="R177" s="67"/>
+      <c r="Q177" s="64"/>
+      <c r="R177" s="58"/>
     </row>
     <row r="178" spans="1:18" ht="15.75">
       <c r="A178" s="15"/>
-      <c r="B178" s="63"/>
-      <c r="C178" s="64"/>
+      <c r="B178" s="65"/>
+      <c r="C178" s="66"/>
       <c r="D178" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7406,13 +7403,13 @@
       <c r="N178" s="9"/>
       <c r="O178" s="9"/>
       <c r="P178" s="9"/>
-      <c r="Q178" s="63"/>
-      <c r="R178" s="67"/>
+      <c r="Q178" s="65"/>
+      <c r="R178" s="58"/>
     </row>
     <row r="179" spans="1:18" ht="38.25" customHeight="1">
       <c r="A179" s="15"/>
-      <c r="B179" s="61"/>
-      <c r="C179" s="64"/>
+      <c r="B179" s="63"/>
+      <c r="C179" s="66"/>
       <c r="D179" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7441,13 +7438,13 @@
       <c r="N179" s="9"/>
       <c r="O179" s="9"/>
       <c r="P179" s="9"/>
-      <c r="Q179" s="61"/>
-      <c r="R179" s="67"/>
+      <c r="Q179" s="63"/>
+      <c r="R179" s="58"/>
     </row>
     <row r="180" spans="1:18" ht="15.75">
       <c r="A180" s="15"/>
-      <c r="B180" s="62"/>
-      <c r="C180" s="64"/>
+      <c r="B180" s="64"/>
+      <c r="C180" s="66"/>
       <c r="D180" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7476,13 +7473,13 @@
       <c r="N180" s="9"/>
       <c r="O180" s="9"/>
       <c r="P180" s="9"/>
-      <c r="Q180" s="62"/>
-      <c r="R180" s="67"/>
+      <c r="Q180" s="64"/>
+      <c r="R180" s="58"/>
     </row>
     <row r="181" spans="1:18" ht="15.75">
       <c r="A181" s="15"/>
-      <c r="B181" s="62"/>
-      <c r="C181" s="64"/>
+      <c r="B181" s="64"/>
+      <c r="C181" s="66"/>
       <c r="D181" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7511,13 +7508,13 @@
       <c r="N181" s="9"/>
       <c r="O181" s="9"/>
       <c r="P181" s="9"/>
-      <c r="Q181" s="62"/>
-      <c r="R181" s="67"/>
+      <c r="Q181" s="64"/>
+      <c r="R181" s="58"/>
     </row>
     <row r="182" spans="1:18" ht="15.75">
       <c r="A182" s="15"/>
-      <c r="B182" s="62"/>
-      <c r="C182" s="64"/>
+      <c r="B182" s="64"/>
+      <c r="C182" s="66"/>
       <c r="D182" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7546,13 +7543,13 @@
       <c r="N182" s="9"/>
       <c r="O182" s="9"/>
       <c r="P182" s="9"/>
-      <c r="Q182" s="62"/>
-      <c r="R182" s="67"/>
+      <c r="Q182" s="64"/>
+      <c r="R182" s="58"/>
     </row>
     <row r="183" spans="1:18" ht="15.75">
       <c r="A183" s="15"/>
-      <c r="B183" s="62"/>
-      <c r="C183" s="64"/>
+      <c r="B183" s="64"/>
+      <c r="C183" s="66"/>
       <c r="D183" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7581,13 +7578,13 @@
       <c r="N183" s="9"/>
       <c r="O183" s="9"/>
       <c r="P183" s="9"/>
-      <c r="Q183" s="62"/>
-      <c r="R183" s="67"/>
+      <c r="Q183" s="64"/>
+      <c r="R183" s="58"/>
     </row>
     <row r="184" spans="1:18" ht="15.75">
       <c r="A184" s="15"/>
-      <c r="B184" s="62"/>
-      <c r="C184" s="64"/>
+      <c r="B184" s="64"/>
+      <c r="C184" s="66"/>
       <c r="D184" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7616,13 +7613,13 @@
       <c r="N184" s="9"/>
       <c r="O184" s="9"/>
       <c r="P184" s="9"/>
-      <c r="Q184" s="62"/>
-      <c r="R184" s="67"/>
+      <c r="Q184" s="64"/>
+      <c r="R184" s="58"/>
     </row>
     <row r="185" spans="1:18" ht="15.75">
       <c r="A185" s="15"/>
-      <c r="B185" s="62"/>
-      <c r="C185" s="64"/>
+      <c r="B185" s="64"/>
+      <c r="C185" s="66"/>
       <c r="D185" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7651,13 +7648,13 @@
       <c r="N185" s="9"/>
       <c r="O185" s="9"/>
       <c r="P185" s="9"/>
-      <c r="Q185" s="62"/>
-      <c r="R185" s="67"/>
+      <c r="Q185" s="64"/>
+      <c r="R185" s="58"/>
     </row>
     <row r="186" spans="1:18" ht="27.75" customHeight="1">
       <c r="A186" s="15"/>
-      <c r="B186" s="62"/>
-      <c r="C186" s="64"/>
+      <c r="B186" s="64"/>
+      <c r="C186" s="66"/>
       <c r="D186" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7686,13 +7683,13 @@
       <c r="N186" s="9"/>
       <c r="O186" s="9"/>
       <c r="P186" s="9"/>
-      <c r="Q186" s="62"/>
-      <c r="R186" s="67"/>
+      <c r="Q186" s="64"/>
+      <c r="R186" s="58"/>
     </row>
     <row r="187" spans="1:18" ht="15.75">
       <c r="A187" s="15"/>
-      <c r="B187" s="62"/>
-      <c r="C187" s="64"/>
+      <c r="B187" s="64"/>
+      <c r="C187" s="66"/>
       <c r="D187" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7721,13 +7718,13 @@
       <c r="N187" s="9"/>
       <c r="O187" s="9"/>
       <c r="P187" s="9"/>
-      <c r="Q187" s="62"/>
-      <c r="R187" s="67"/>
+      <c r="Q187" s="64"/>
+      <c r="R187" s="58"/>
     </row>
     <row r="188" spans="1:18" ht="15.75">
       <c r="A188" s="15"/>
-      <c r="B188" s="62"/>
-      <c r="C188" s="64"/>
+      <c r="B188" s="64"/>
+      <c r="C188" s="66"/>
       <c r="D188" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7755,13 +7752,13 @@
       <c r="N188" s="9"/>
       <c r="O188" s="9"/>
       <c r="P188" s="9"/>
-      <c r="Q188" s="62"/>
-      <c r="R188" s="67"/>
+      <c r="Q188" s="64"/>
+      <c r="R188" s="58"/>
     </row>
     <row r="189" spans="1:18" ht="15.75">
       <c r="A189" s="15"/>
-      <c r="B189" s="62"/>
-      <c r="C189" s="64"/>
+      <c r="B189" s="64"/>
+      <c r="C189" s="66"/>
       <c r="D189" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7790,13 +7787,13 @@
       <c r="N189" s="9"/>
       <c r="O189" s="9"/>
       <c r="P189" s="9"/>
-      <c r="Q189" s="62"/>
-      <c r="R189" s="67"/>
+      <c r="Q189" s="64"/>
+      <c r="R189" s="58"/>
     </row>
     <row r="190" spans="1:18" ht="15.75">
       <c r="A190" s="15"/>
-      <c r="B190" s="62"/>
-      <c r="C190" s="64"/>
+      <c r="B190" s="64"/>
+      <c r="C190" s="66"/>
       <c r="D190" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7825,13 +7822,13 @@
       <c r="N190" s="9"/>
       <c r="O190" s="9"/>
       <c r="P190" s="9"/>
-      <c r="Q190" s="62"/>
-      <c r="R190" s="67"/>
+      <c r="Q190" s="64"/>
+      <c r="R190" s="58"/>
     </row>
     <row r="191" spans="1:18" ht="15.75">
       <c r="A191" s="15"/>
-      <c r="B191" s="62"/>
-      <c r="C191" s="64"/>
+      <c r="B191" s="64"/>
+      <c r="C191" s="66"/>
       <c r="D191" s="5" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
@@ -7860,13 +7857,13 @@
       <c r="N191" s="9"/>
       <c r="O191" s="9"/>
       <c r="P191" s="9"/>
-      <c r="Q191" s="62"/>
-      <c r="R191" s="67"/>
+      <c r="Q191" s="64"/>
+      <c r="R191" s="58"/>
     </row>
     <row r="192" spans="1:18" ht="15.75">
       <c r="A192" s="15"/>
-      <c r="B192" s="62"/>
-      <c r="C192" s="64"/>
+      <c r="B192" s="64"/>
+      <c r="C192" s="66"/>
       <c r="D192" s="5" t="str">
         <f t="shared" ref="D192:D255" si="11">IF(LEN(E192)&gt;5,IF(LEN(K192&amp;L192&amp;M192)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -7895,13 +7892,13 @@
       <c r="N192" s="9"/>
       <c r="O192" s="9"/>
       <c r="P192" s="9"/>
-      <c r="Q192" s="62"/>
-      <c r="R192" s="67"/>
+      <c r="Q192" s="64"/>
+      <c r="R192" s="58"/>
     </row>
     <row r="193" spans="1:18" ht="15.75">
       <c r="A193" s="15"/>
-      <c r="B193" s="63"/>
-      <c r="C193" s="64"/>
+      <c r="B193" s="65"/>
+      <c r="C193" s="66"/>
       <c r="D193" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -7930,13 +7927,13 @@
       <c r="N193" s="9"/>
       <c r="O193" s="9"/>
       <c r="P193" s="9"/>
-      <c r="Q193" s="63"/>
-      <c r="R193" s="67"/>
+      <c r="Q193" s="65"/>
+      <c r="R193" s="58"/>
     </row>
     <row r="194" spans="1:18" ht="25.5" customHeight="1">
       <c r="A194" s="15"/>
-      <c r="B194" s="61"/>
-      <c r="C194" s="64"/>
+      <c r="B194" s="63"/>
+      <c r="C194" s="66"/>
       <c r="D194" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -7965,13 +7962,13 @@
       <c r="N194" s="9"/>
       <c r="O194" s="9"/>
       <c r="P194" s="9"/>
-      <c r="Q194" s="61"/>
-      <c r="R194" s="67"/>
+      <c r="Q194" s="63"/>
+      <c r="R194" s="58"/>
     </row>
     <row r="195" spans="1:18" ht="15.75">
       <c r="A195" s="15"/>
-      <c r="B195" s="62"/>
-      <c r="C195" s="64"/>
+      <c r="B195" s="64"/>
+      <c r="C195" s="66"/>
       <c r="D195" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8000,13 +7997,13 @@
       <c r="N195" s="9"/>
       <c r="O195" s="9"/>
       <c r="P195" s="9"/>
-      <c r="Q195" s="62"/>
-      <c r="R195" s="67"/>
+      <c r="Q195" s="64"/>
+      <c r="R195" s="58"/>
     </row>
     <row r="196" spans="1:18" ht="15.75">
       <c r="A196" s="15"/>
-      <c r="B196" s="62"/>
-      <c r="C196" s="64"/>
+      <c r="B196" s="64"/>
+      <c r="C196" s="66"/>
       <c r="D196" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8035,13 +8032,13 @@
       <c r="N196" s="9"/>
       <c r="O196" s="9"/>
       <c r="P196" s="9"/>
-      <c r="Q196" s="62"/>
-      <c r="R196" s="67"/>
+      <c r="Q196" s="64"/>
+      <c r="R196" s="58"/>
     </row>
     <row r="197" spans="1:18" ht="15.75">
       <c r="A197" s="15"/>
-      <c r="B197" s="62"/>
-      <c r="C197" s="64"/>
+      <c r="B197" s="64"/>
+      <c r="C197" s="66"/>
       <c r="D197" s="30" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8070,13 +8067,13 @@
       <c r="N197" s="9"/>
       <c r="O197" s="9"/>
       <c r="P197" s="9"/>
-      <c r="Q197" s="62"/>
-      <c r="R197" s="67"/>
+      <c r="Q197" s="64"/>
+      <c r="R197" s="58"/>
     </row>
     <row r="198" spans="1:18" ht="15.75">
       <c r="A198" s="15"/>
-      <c r="B198" s="62"/>
-      <c r="C198" s="64"/>
+      <c r="B198" s="64"/>
+      <c r="C198" s="66"/>
       <c r="D198" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8105,13 +8102,13 @@
       <c r="N198" s="9"/>
       <c r="O198" s="9"/>
       <c r="P198" s="9"/>
-      <c r="Q198" s="62"/>
-      <c r="R198" s="67"/>
+      <c r="Q198" s="64"/>
+      <c r="R198" s="58"/>
     </row>
     <row r="199" spans="1:18" ht="15.75">
       <c r="A199" s="15"/>
-      <c r="B199" s="62"/>
-      <c r="C199" s="64"/>
+      <c r="B199" s="64"/>
+      <c r="C199" s="66"/>
       <c r="D199" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8140,13 +8137,13 @@
       <c r="N199" s="9"/>
       <c r="O199" s="9"/>
       <c r="P199" s="9"/>
-      <c r="Q199" s="62"/>
-      <c r="R199" s="67"/>
+      <c r="Q199" s="64"/>
+      <c r="R199" s="58"/>
     </row>
     <row r="200" spans="1:18" ht="15.75">
       <c r="A200" s="15"/>
-      <c r="B200" s="62"/>
-      <c r="C200" s="64"/>
+      <c r="B200" s="64"/>
+      <c r="C200" s="66"/>
       <c r="D200" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8175,13 +8172,13 @@
       <c r="N200" s="9"/>
       <c r="O200" s="9"/>
       <c r="P200" s="9"/>
-      <c r="Q200" s="62"/>
-      <c r="R200" s="67"/>
+      <c r="Q200" s="64"/>
+      <c r="R200" s="58"/>
     </row>
     <row r="201" spans="1:18" ht="15.75">
       <c r="A201" s="15"/>
-      <c r="B201" s="62"/>
-      <c r="C201" s="64"/>
+      <c r="B201" s="64"/>
+      <c r="C201" s="66"/>
       <c r="D201" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8210,13 +8207,13 @@
       <c r="N201" s="9"/>
       <c r="O201" s="9"/>
       <c r="P201" s="9"/>
-      <c r="Q201" s="62"/>
-      <c r="R201" s="67"/>
+      <c r="Q201" s="64"/>
+      <c r="R201" s="58"/>
     </row>
     <row r="202" spans="1:18" ht="15.75">
       <c r="A202" s="15"/>
-      <c r="B202" s="62"/>
-      <c r="C202" s="64"/>
+      <c r="B202" s="64"/>
+      <c r="C202" s="66"/>
       <c r="D202" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8245,13 +8242,13 @@
       <c r="N202" s="9"/>
       <c r="O202" s="9"/>
       <c r="P202" s="9"/>
-      <c r="Q202" s="62"/>
-      <c r="R202" s="67"/>
+      <c r="Q202" s="64"/>
+      <c r="R202" s="58"/>
     </row>
     <row r="203" spans="1:18" ht="15.75">
       <c r="A203" s="15"/>
-      <c r="B203" s="62"/>
-      <c r="C203" s="64"/>
+      <c r="B203" s="64"/>
+      <c r="C203" s="66"/>
       <c r="D203" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8280,13 +8277,13 @@
       <c r="N203" s="9"/>
       <c r="O203" s="9"/>
       <c r="P203" s="9"/>
-      <c r="Q203" s="62"/>
-      <c r="R203" s="67"/>
+      <c r="Q203" s="64"/>
+      <c r="R203" s="58"/>
     </row>
     <row r="204" spans="1:18" ht="15.75">
       <c r="A204" s="15"/>
-      <c r="B204" s="62"/>
-      <c r="C204" s="64"/>
+      <c r="B204" s="64"/>
+      <c r="C204" s="66"/>
       <c r="D204" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8315,13 +8312,13 @@
       <c r="N204" s="9"/>
       <c r="O204" s="9"/>
       <c r="P204" s="9"/>
-      <c r="Q204" s="62"/>
-      <c r="R204" s="67"/>
+      <c r="Q204" s="64"/>
+      <c r="R204" s="58"/>
     </row>
     <row r="205" spans="1:18" ht="15.75">
       <c r="A205" s="15"/>
-      <c r="B205" s="62"/>
-      <c r="C205" s="64"/>
+      <c r="B205" s="64"/>
+      <c r="C205" s="66"/>
       <c r="D205" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8350,13 +8347,13 @@
       <c r="N205" s="9"/>
       <c r="O205" s="9"/>
       <c r="P205" s="9"/>
-      <c r="Q205" s="62"/>
-      <c r="R205" s="67"/>
+      <c r="Q205" s="64"/>
+      <c r="R205" s="58"/>
     </row>
     <row r="206" spans="1:18" ht="15.75">
       <c r="A206" s="15"/>
-      <c r="B206" s="62"/>
-      <c r="C206" s="64"/>
+      <c r="B206" s="64"/>
+      <c r="C206" s="66"/>
       <c r="D206" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8385,13 +8382,13 @@
       <c r="N206" s="9"/>
       <c r="O206" s="9"/>
       <c r="P206" s="9"/>
-      <c r="Q206" s="62"/>
-      <c r="R206" s="67"/>
+      <c r="Q206" s="64"/>
+      <c r="R206" s="58"/>
     </row>
     <row r="207" spans="1:18" ht="15.75">
       <c r="A207" s="15"/>
-      <c r="B207" s="62"/>
-      <c r="C207" s="64"/>
+      <c r="B207" s="64"/>
+      <c r="C207" s="66"/>
       <c r="D207" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8420,13 +8417,13 @@
       <c r="N207" s="9"/>
       <c r="O207" s="9"/>
       <c r="P207" s="9"/>
-      <c r="Q207" s="62"/>
-      <c r="R207" s="67"/>
+      <c r="Q207" s="64"/>
+      <c r="R207" s="58"/>
     </row>
     <row r="208" spans="1:18" ht="15.75">
       <c r="A208" s="15"/>
-      <c r="B208" s="63"/>
-      <c r="C208" s="64"/>
+      <c r="B208" s="65"/>
+      <c r="C208" s="66"/>
       <c r="D208" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8455,13 +8452,13 @@
       <c r="N208" s="9"/>
       <c r="O208" s="9"/>
       <c r="P208" s="9"/>
-      <c r="Q208" s="63"/>
-      <c r="R208" s="67"/>
+      <c r="Q208" s="65"/>
+      <c r="R208" s="58"/>
     </row>
     <row r="209" spans="1:18" ht="12.75" customHeight="1">
       <c r="A209" s="15"/>
-      <c r="B209" s="61"/>
-      <c r="C209" s="64"/>
+      <c r="B209" s="63"/>
+      <c r="C209" s="66"/>
       <c r="D209" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8490,13 +8487,13 @@
       <c r="N209" s="9"/>
       <c r="O209" s="9"/>
       <c r="P209" s="9"/>
-      <c r="Q209" s="61"/>
-      <c r="R209" s="67"/>
+      <c r="Q209" s="63"/>
+      <c r="R209" s="58"/>
     </row>
     <row r="210" spans="1:18" ht="15.75">
       <c r="A210" s="15"/>
-      <c r="B210" s="62"/>
-      <c r="C210" s="64"/>
+      <c r="B210" s="64"/>
+      <c r="C210" s="66"/>
       <c r="D210" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8525,13 +8522,13 @@
       <c r="N210" s="9"/>
       <c r="O210" s="9"/>
       <c r="P210" s="9"/>
-      <c r="Q210" s="62"/>
-      <c r="R210" s="67"/>
+      <c r="Q210" s="64"/>
+      <c r="R210" s="58"/>
     </row>
     <row r="211" spans="1:18" ht="15.75">
       <c r="A211" s="15"/>
-      <c r="B211" s="62"/>
-      <c r="C211" s="64"/>
+      <c r="B211" s="64"/>
+      <c r="C211" s="66"/>
       <c r="D211" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8560,13 +8557,13 @@
       <c r="N211" s="9"/>
       <c r="O211" s="9"/>
       <c r="P211" s="9"/>
-      <c r="Q211" s="62"/>
-      <c r="R211" s="67"/>
+      <c r="Q211" s="64"/>
+      <c r="R211" s="58"/>
     </row>
     <row r="212" spans="1:18" ht="15.75">
       <c r="A212" s="15"/>
-      <c r="B212" s="62"/>
-      <c r="C212" s="64"/>
+      <c r="B212" s="64"/>
+      <c r="C212" s="66"/>
       <c r="D212" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8595,13 +8592,13 @@
       <c r="N212" s="9"/>
       <c r="O212" s="9"/>
       <c r="P212" s="9"/>
-      <c r="Q212" s="62"/>
-      <c r="R212" s="67"/>
+      <c r="Q212" s="64"/>
+      <c r="R212" s="58"/>
     </row>
     <row r="213" spans="1:18" ht="15.75">
       <c r="A213" s="15"/>
-      <c r="B213" s="62"/>
-      <c r="C213" s="64"/>
+      <c r="B213" s="64"/>
+      <c r="C213" s="66"/>
       <c r="D213" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8630,13 +8627,13 @@
       <c r="N213" s="9"/>
       <c r="O213" s="9"/>
       <c r="P213" s="9"/>
-      <c r="Q213" s="62"/>
-      <c r="R213" s="67"/>
+      <c r="Q213" s="64"/>
+      <c r="R213" s="58"/>
     </row>
     <row r="214" spans="1:18" ht="15.75">
       <c r="A214" s="15"/>
-      <c r="B214" s="62"/>
-      <c r="C214" s="64"/>
+      <c r="B214" s="64"/>
+      <c r="C214" s="66"/>
       <c r="D214" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8665,13 +8662,13 @@
       <c r="N214" s="9"/>
       <c r="O214" s="9"/>
       <c r="P214" s="9"/>
-      <c r="Q214" s="62"/>
-      <c r="R214" s="67"/>
+      <c r="Q214" s="64"/>
+      <c r="R214" s="58"/>
     </row>
     <row r="215" spans="1:18" ht="15.75">
       <c r="A215" s="15"/>
-      <c r="B215" s="62"/>
-      <c r="C215" s="64"/>
+      <c r="B215" s="64"/>
+      <c r="C215" s="66"/>
       <c r="D215" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8700,13 +8697,13 @@
       <c r="N215" s="9"/>
       <c r="O215" s="9"/>
       <c r="P215" s="9"/>
-      <c r="Q215" s="62"/>
-      <c r="R215" s="67"/>
+      <c r="Q215" s="64"/>
+      <c r="R215" s="58"/>
     </row>
     <row r="216" spans="1:18" ht="15.75">
       <c r="A216" s="15"/>
-      <c r="B216" s="62"/>
-      <c r="C216" s="64"/>
+      <c r="B216" s="64"/>
+      <c r="C216" s="66"/>
       <c r="D216" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8735,13 +8732,13 @@
       <c r="N216" s="9"/>
       <c r="O216" s="9"/>
       <c r="P216" s="9"/>
-      <c r="Q216" s="62"/>
-      <c r="R216" s="67"/>
+      <c r="Q216" s="64"/>
+      <c r="R216" s="58"/>
     </row>
     <row r="217" spans="1:18" ht="15.75">
       <c r="A217" s="15"/>
-      <c r="B217" s="62"/>
-      <c r="C217" s="64"/>
+      <c r="B217" s="64"/>
+      <c r="C217" s="66"/>
       <c r="D217" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8770,13 +8767,13 @@
       <c r="N217" s="9"/>
       <c r="O217" s="9"/>
       <c r="P217" s="9"/>
-      <c r="Q217" s="62"/>
-      <c r="R217" s="67"/>
+      <c r="Q217" s="64"/>
+      <c r="R217" s="58"/>
     </row>
     <row r="218" spans="1:18" ht="15.75">
       <c r="A218" s="15"/>
-      <c r="B218" s="62"/>
-      <c r="C218" s="64"/>
+      <c r="B218" s="64"/>
+      <c r="C218" s="66"/>
       <c r="D218" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8805,13 +8802,13 @@
       <c r="N218" s="9"/>
       <c r="O218" s="9"/>
       <c r="P218" s="9"/>
-      <c r="Q218" s="62"/>
-      <c r="R218" s="67"/>
+      <c r="Q218" s="64"/>
+      <c r="R218" s="58"/>
     </row>
     <row r="219" spans="1:18" ht="15.75">
       <c r="A219" s="15"/>
-      <c r="B219" s="62"/>
-      <c r="C219" s="64"/>
+      <c r="B219" s="64"/>
+      <c r="C219" s="66"/>
       <c r="D219" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8840,13 +8837,13 @@
       <c r="N219" s="9"/>
       <c r="O219" s="9"/>
       <c r="P219" s="9"/>
-      <c r="Q219" s="62"/>
-      <c r="R219" s="67"/>
+      <c r="Q219" s="64"/>
+      <c r="R219" s="58"/>
     </row>
     <row r="220" spans="1:18" ht="15.75">
       <c r="A220" s="15"/>
-      <c r="B220" s="62"/>
-      <c r="C220" s="64"/>
+      <c r="B220" s="64"/>
+      <c r="C220" s="66"/>
       <c r="D220" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8875,13 +8872,13 @@
       <c r="N220" s="9"/>
       <c r="O220" s="9"/>
       <c r="P220" s="9"/>
-      <c r="Q220" s="62"/>
-      <c r="R220" s="67"/>
+      <c r="Q220" s="64"/>
+      <c r="R220" s="58"/>
     </row>
     <row r="221" spans="1:18" ht="15.75">
       <c r="A221" s="15"/>
-      <c r="B221" s="62"/>
-      <c r="C221" s="64"/>
+      <c r="B221" s="64"/>
+      <c r="C221" s="66"/>
       <c r="D221" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8910,13 +8907,13 @@
       <c r="N221" s="9"/>
       <c r="O221" s="9"/>
       <c r="P221" s="9"/>
-      <c r="Q221" s="62"/>
-      <c r="R221" s="67"/>
+      <c r="Q221" s="64"/>
+      <c r="R221" s="58"/>
     </row>
     <row r="222" spans="1:18" ht="15.75">
       <c r="A222" s="15"/>
-      <c r="B222" s="62"/>
-      <c r="C222" s="64"/>
+      <c r="B222" s="64"/>
+      <c r="C222" s="66"/>
       <c r="D222" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8945,13 +8942,13 @@
       <c r="N222" s="9"/>
       <c r="O222" s="9"/>
       <c r="P222" s="9"/>
-      <c r="Q222" s="62"/>
-      <c r="R222" s="67"/>
+      <c r="Q222" s="64"/>
+      <c r="R222" s="58"/>
     </row>
     <row r="223" spans="1:18" ht="15.75">
       <c r="A223" s="15"/>
-      <c r="B223" s="63"/>
-      <c r="C223" s="64"/>
+      <c r="B223" s="65"/>
+      <c r="C223" s="66"/>
       <c r="D223" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -8980,13 +8977,13 @@
       <c r="N223" s="9"/>
       <c r="O223" s="9"/>
       <c r="P223" s="9"/>
-      <c r="Q223" s="63"/>
-      <c r="R223" s="67"/>
+      <c r="Q223" s="65"/>
+      <c r="R223" s="58"/>
     </row>
     <row r="224" spans="1:18" ht="25.5" customHeight="1">
       <c r="A224" s="15"/>
-      <c r="B224" s="61"/>
-      <c r="C224" s="64"/>
+      <c r="B224" s="63"/>
+      <c r="C224" s="66"/>
       <c r="D224" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9015,13 +9012,13 @@
       <c r="N224" s="9"/>
       <c r="O224" s="9"/>
       <c r="P224" s="42"/>
-      <c r="Q224" s="61"/>
-      <c r="R224" s="67"/>
+      <c r="Q224" s="63"/>
+      <c r="R224" s="58"/>
     </row>
     <row r="225" spans="1:18" ht="15.75">
       <c r="A225" s="15"/>
-      <c r="B225" s="62"/>
-      <c r="C225" s="64"/>
+      <c r="B225" s="64"/>
+      <c r="C225" s="66"/>
       <c r="D225" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9050,13 +9047,13 @@
       <c r="N225" s="9"/>
       <c r="O225" s="9"/>
       <c r="P225" s="42"/>
-      <c r="Q225" s="62"/>
-      <c r="R225" s="67"/>
+      <c r="Q225" s="64"/>
+      <c r="R225" s="58"/>
     </row>
     <row r="226" spans="1:18" ht="15.75">
       <c r="A226" s="15"/>
-      <c r="B226" s="62"/>
-      <c r="C226" s="64"/>
+      <c r="B226" s="64"/>
+      <c r="C226" s="66"/>
       <c r="D226" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9085,13 +9082,13 @@
       <c r="N226" s="9"/>
       <c r="O226" s="9"/>
       <c r="P226" s="9"/>
-      <c r="Q226" s="62"/>
-      <c r="R226" s="67"/>
+      <c r="Q226" s="64"/>
+      <c r="R226" s="58"/>
     </row>
     <row r="227" spans="1:18" ht="15.75">
       <c r="A227" s="15"/>
-      <c r="B227" s="62"/>
-      <c r="C227" s="64"/>
+      <c r="B227" s="64"/>
+      <c r="C227" s="66"/>
       <c r="D227" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9120,13 +9117,13 @@
       <c r="N227" s="9"/>
       <c r="O227" s="9"/>
       <c r="P227" s="9"/>
-      <c r="Q227" s="62"/>
-      <c r="R227" s="67"/>
+      <c r="Q227" s="64"/>
+      <c r="R227" s="58"/>
     </row>
     <row r="228" spans="1:18" ht="15.75">
       <c r="A228" s="15"/>
-      <c r="B228" s="62"/>
-      <c r="C228" s="64"/>
+      <c r="B228" s="64"/>
+      <c r="C228" s="66"/>
       <c r="D228" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9155,13 +9152,13 @@
       <c r="N228" s="9"/>
       <c r="O228" s="9"/>
       <c r="P228" s="9"/>
-      <c r="Q228" s="62"/>
-      <c r="R228" s="67"/>
+      <c r="Q228" s="64"/>
+      <c r="R228" s="58"/>
     </row>
     <row r="229" spans="1:18" ht="15.75">
       <c r="A229" s="15"/>
-      <c r="B229" s="62"/>
-      <c r="C229" s="64"/>
+      <c r="B229" s="64"/>
+      <c r="C229" s="66"/>
       <c r="D229" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9190,13 +9187,13 @@
       <c r="N229" s="9"/>
       <c r="O229" s="9"/>
       <c r="P229" s="9"/>
-      <c r="Q229" s="62"/>
-      <c r="R229" s="67"/>
+      <c r="Q229" s="64"/>
+      <c r="R229" s="58"/>
     </row>
     <row r="230" spans="1:18" ht="15.75">
       <c r="A230" s="15"/>
-      <c r="B230" s="62"/>
-      <c r="C230" s="64"/>
+      <c r="B230" s="64"/>
+      <c r="C230" s="66"/>
       <c r="D230" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9225,13 +9222,13 @@
       <c r="N230" s="9"/>
       <c r="O230" s="9"/>
       <c r="P230" s="9"/>
-      <c r="Q230" s="62"/>
-      <c r="R230" s="67"/>
+      <c r="Q230" s="64"/>
+      <c r="R230" s="58"/>
     </row>
     <row r="231" spans="1:18" ht="15.75">
       <c r="A231" s="15"/>
-      <c r="B231" s="62"/>
-      <c r="C231" s="64"/>
+      <c r="B231" s="64"/>
+      <c r="C231" s="66"/>
       <c r="D231" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9260,13 +9257,13 @@
       <c r="N231" s="9"/>
       <c r="O231" s="9"/>
       <c r="P231" s="9"/>
-      <c r="Q231" s="62"/>
-      <c r="R231" s="67"/>
+      <c r="Q231" s="64"/>
+      <c r="R231" s="58"/>
     </row>
     <row r="232" spans="1:18" ht="15.75">
       <c r="A232" s="15"/>
-      <c r="B232" s="62"/>
-      <c r="C232" s="64"/>
+      <c r="B232" s="64"/>
+      <c r="C232" s="66"/>
       <c r="D232" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9295,13 +9292,13 @@
       <c r="N232" s="9"/>
       <c r="O232" s="9"/>
       <c r="P232" s="9"/>
-      <c r="Q232" s="62"/>
-      <c r="R232" s="67"/>
+      <c r="Q232" s="64"/>
+      <c r="R232" s="58"/>
     </row>
     <row r="233" spans="1:18" ht="15.75">
       <c r="A233" s="15"/>
-      <c r="B233" s="62"/>
-      <c r="C233" s="64"/>
+      <c r="B233" s="64"/>
+      <c r="C233" s="66"/>
       <c r="D233" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9330,13 +9327,13 @@
       <c r="N233" s="9"/>
       <c r="O233" s="9"/>
       <c r="P233" s="9"/>
-      <c r="Q233" s="62"/>
-      <c r="R233" s="67"/>
+      <c r="Q233" s="64"/>
+      <c r="R233" s="58"/>
     </row>
     <row r="234" spans="1:18" ht="15.75">
       <c r="A234" s="15"/>
-      <c r="B234" s="62"/>
-      <c r="C234" s="64"/>
+      <c r="B234" s="64"/>
+      <c r="C234" s="66"/>
       <c r="D234" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9365,13 +9362,13 @@
       <c r="N234" s="9"/>
       <c r="O234" s="9"/>
       <c r="P234" s="9"/>
-      <c r="Q234" s="62"/>
-      <c r="R234" s="67"/>
+      <c r="Q234" s="64"/>
+      <c r="R234" s="58"/>
     </row>
     <row r="235" spans="1:18" ht="15.75">
       <c r="A235" s="15"/>
-      <c r="B235" s="62"/>
-      <c r="C235" s="64"/>
+      <c r="B235" s="64"/>
+      <c r="C235" s="66"/>
       <c r="D235" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9400,13 +9397,13 @@
       <c r="N235" s="9"/>
       <c r="O235" s="9"/>
       <c r="P235" s="9"/>
-      <c r="Q235" s="62"/>
-      <c r="R235" s="67"/>
+      <c r="Q235" s="64"/>
+      <c r="R235" s="58"/>
     </row>
     <row r="236" spans="1:18" ht="15.75">
       <c r="A236" s="15"/>
-      <c r="B236" s="62"/>
-      <c r="C236" s="64"/>
+      <c r="B236" s="64"/>
+      <c r="C236" s="66"/>
       <c r="D236" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9435,13 +9432,13 @@
       <c r="N236" s="9"/>
       <c r="O236" s="9"/>
       <c r="P236" s="9"/>
-      <c r="Q236" s="62"/>
-      <c r="R236" s="67"/>
+      <c r="Q236" s="64"/>
+      <c r="R236" s="58"/>
     </row>
     <row r="237" spans="1:18" ht="15.75">
       <c r="A237" s="15"/>
-      <c r="B237" s="62"/>
-      <c r="C237" s="64"/>
+      <c r="B237" s="64"/>
+      <c r="C237" s="66"/>
       <c r="D237" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9470,13 +9467,13 @@
       <c r="N237" s="9"/>
       <c r="O237" s="9"/>
       <c r="P237" s="9"/>
-      <c r="Q237" s="62"/>
-      <c r="R237" s="67"/>
+      <c r="Q237" s="64"/>
+      <c r="R237" s="58"/>
     </row>
     <row r="238" spans="1:18" ht="15.75">
       <c r="A238" s="15"/>
-      <c r="B238" s="63"/>
-      <c r="C238" s="64"/>
+      <c r="B238" s="65"/>
+      <c r="C238" s="66"/>
       <c r="D238" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9505,13 +9502,13 @@
       <c r="N238" s="9"/>
       <c r="O238" s="9"/>
       <c r="P238" s="9"/>
-      <c r="Q238" s="63"/>
-      <c r="R238" s="67"/>
+      <c r="Q238" s="65"/>
+      <c r="R238" s="58"/>
     </row>
     <row r="239" spans="1:18" ht="15.75">
       <c r="A239" s="15"/>
-      <c r="B239" s="61"/>
-      <c r="C239" s="64"/>
+      <c r="B239" s="63"/>
+      <c r="C239" s="66"/>
       <c r="D239" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9540,13 +9537,13 @@
       <c r="N239" s="9"/>
       <c r="O239" s="9"/>
       <c r="P239" s="9"/>
-      <c r="Q239" s="61"/>
-      <c r="R239" s="67"/>
+      <c r="Q239" s="63"/>
+      <c r="R239" s="58"/>
     </row>
     <row r="240" spans="1:18" ht="15.75">
       <c r="A240" s="15"/>
-      <c r="B240" s="62"/>
-      <c r="C240" s="64"/>
+      <c r="B240" s="64"/>
+      <c r="C240" s="66"/>
       <c r="D240" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9575,13 +9572,13 @@
       <c r="N240" s="9"/>
       <c r="O240" s="9"/>
       <c r="P240" s="9"/>
-      <c r="Q240" s="62"/>
-      <c r="R240" s="67"/>
+      <c r="Q240" s="64"/>
+      <c r="R240" s="58"/>
     </row>
     <row r="241" spans="1:18" ht="15.75">
       <c r="A241" s="15"/>
-      <c r="B241" s="62"/>
-      <c r="C241" s="64"/>
+      <c r="B241" s="64"/>
+      <c r="C241" s="66"/>
       <c r="D241" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9610,13 +9607,13 @@
       <c r="N241" s="9"/>
       <c r="O241" s="9"/>
       <c r="P241" s="9"/>
-      <c r="Q241" s="62"/>
-      <c r="R241" s="67"/>
+      <c r="Q241" s="64"/>
+      <c r="R241" s="58"/>
     </row>
     <row r="242" spans="1:18" ht="15.75">
       <c r="A242" s="15"/>
-      <c r="B242" s="62"/>
-      <c r="C242" s="64"/>
+      <c r="B242" s="64"/>
+      <c r="C242" s="66"/>
       <c r="D242" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9645,13 +9642,13 @@
       <c r="N242" s="9"/>
       <c r="O242" s="9"/>
       <c r="P242" s="9"/>
-      <c r="Q242" s="62"/>
-      <c r="R242" s="67"/>
+      <c r="Q242" s="64"/>
+      <c r="R242" s="58"/>
     </row>
     <row r="243" spans="1:18" ht="15.75">
       <c r="A243" s="15"/>
-      <c r="B243" s="62"/>
-      <c r="C243" s="64"/>
+      <c r="B243" s="64"/>
+      <c r="C243" s="66"/>
       <c r="D243" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9680,13 +9677,13 @@
       <c r="N243" s="9"/>
       <c r="O243" s="9"/>
       <c r="P243" s="9"/>
-      <c r="Q243" s="62"/>
-      <c r="R243" s="67"/>
+      <c r="Q243" s="64"/>
+      <c r="R243" s="58"/>
     </row>
     <row r="244" spans="1:18" ht="15.75">
       <c r="A244" s="15"/>
-      <c r="B244" s="62"/>
-      <c r="C244" s="64"/>
+      <c r="B244" s="64"/>
+      <c r="C244" s="66"/>
       <c r="D244" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9715,13 +9712,13 @@
       <c r="N244" s="9"/>
       <c r="O244" s="9"/>
       <c r="P244" s="9"/>
-      <c r="Q244" s="62"/>
-      <c r="R244" s="67"/>
+      <c r="Q244" s="64"/>
+      <c r="R244" s="58"/>
     </row>
     <row r="245" spans="1:18" ht="15.75">
       <c r="A245" s="15"/>
-      <c r="B245" s="62"/>
-      <c r="C245" s="64"/>
+      <c r="B245" s="64"/>
+      <c r="C245" s="66"/>
       <c r="D245" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9750,13 +9747,13 @@
       <c r="N245" s="9"/>
       <c r="O245" s="9"/>
       <c r="P245" s="9"/>
-      <c r="Q245" s="62"/>
-      <c r="R245" s="67"/>
+      <c r="Q245" s="64"/>
+      <c r="R245" s="58"/>
     </row>
     <row r="246" spans="1:18" ht="15.75">
       <c r="A246" s="15"/>
-      <c r="B246" s="62"/>
-      <c r="C246" s="64"/>
+      <c r="B246" s="64"/>
+      <c r="C246" s="66"/>
       <c r="D246" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9785,13 +9782,13 @@
       <c r="N246" s="9"/>
       <c r="O246" s="9"/>
       <c r="P246" s="9"/>
-      <c r="Q246" s="62"/>
-      <c r="R246" s="67"/>
+      <c r="Q246" s="64"/>
+      <c r="R246" s="58"/>
     </row>
     <row r="247" spans="1:18" ht="15.75">
       <c r="A247" s="15"/>
-      <c r="B247" s="62"/>
-      <c r="C247" s="64"/>
+      <c r="B247" s="64"/>
+      <c r="C247" s="66"/>
       <c r="D247" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9820,13 +9817,13 @@
       <c r="N247" s="9"/>
       <c r="O247" s="9"/>
       <c r="P247" s="9"/>
-      <c r="Q247" s="62"/>
-      <c r="R247" s="67"/>
+      <c r="Q247" s="64"/>
+      <c r="R247" s="58"/>
     </row>
     <row r="248" spans="1:18" ht="15.75">
       <c r="A248" s="15"/>
-      <c r="B248" s="62"/>
-      <c r="C248" s="64"/>
+      <c r="B248" s="64"/>
+      <c r="C248" s="66"/>
       <c r="D248" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9855,13 +9852,13 @@
       <c r="N248" s="9"/>
       <c r="O248" s="9"/>
       <c r="P248" s="9"/>
-      <c r="Q248" s="62"/>
-      <c r="R248" s="67"/>
+      <c r="Q248" s="64"/>
+      <c r="R248" s="58"/>
     </row>
     <row r="249" spans="1:18" ht="15.75">
       <c r="A249" s="15"/>
-      <c r="B249" s="62"/>
-      <c r="C249" s="64"/>
+      <c r="B249" s="64"/>
+      <c r="C249" s="66"/>
       <c r="D249" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9890,13 +9887,13 @@
       <c r="N249" s="9"/>
       <c r="O249" s="9"/>
       <c r="P249" s="9"/>
-      <c r="Q249" s="62"/>
-      <c r="R249" s="67"/>
+      <c r="Q249" s="64"/>
+      <c r="R249" s="58"/>
     </row>
     <row r="250" spans="1:18" ht="15.75">
       <c r="A250" s="15"/>
-      <c r="B250" s="62"/>
-      <c r="C250" s="64"/>
+      <c r="B250" s="64"/>
+      <c r="C250" s="66"/>
       <c r="D250" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9925,13 +9922,13 @@
       <c r="N250" s="9"/>
       <c r="O250" s="9"/>
       <c r="P250" s="9"/>
-      <c r="Q250" s="62"/>
-      <c r="R250" s="67"/>
+      <c r="Q250" s="64"/>
+      <c r="R250" s="58"/>
     </row>
     <row r="251" spans="1:18" ht="15.75">
       <c r="A251" s="15"/>
-      <c r="B251" s="62"/>
-      <c r="C251" s="64"/>
+      <c r="B251" s="64"/>
+      <c r="C251" s="66"/>
       <c r="D251" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9960,13 +9957,13 @@
       <c r="N251" s="9"/>
       <c r="O251" s="9"/>
       <c r="P251" s="9"/>
-      <c r="Q251" s="62"/>
-      <c r="R251" s="67"/>
+      <c r="Q251" s="64"/>
+      <c r="R251" s="58"/>
     </row>
     <row r="252" spans="1:18" ht="15.75">
       <c r="A252" s="15"/>
-      <c r="B252" s="62"/>
-      <c r="C252" s="64"/>
+      <c r="B252" s="64"/>
+      <c r="C252" s="66"/>
       <c r="D252" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -9995,13 +9992,13 @@
       <c r="N252" s="9"/>
       <c r="O252" s="9"/>
       <c r="P252" s="9"/>
-      <c r="Q252" s="62"/>
-      <c r="R252" s="67"/>
+      <c r="Q252" s="64"/>
+      <c r="R252" s="58"/>
     </row>
     <row r="253" spans="1:18" ht="15.75">
       <c r="A253" s="15"/>
-      <c r="B253" s="63"/>
-      <c r="C253" s="64"/>
+      <c r="B253" s="65"/>
+      <c r="C253" s="66"/>
       <c r="D253" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10030,13 +10027,13 @@
       <c r="N253" s="43"/>
       <c r="O253" s="43"/>
       <c r="P253" s="43"/>
-      <c r="Q253" s="63"/>
-      <c r="R253" s="67"/>
+      <c r="Q253" s="65"/>
+      <c r="R253" s="58"/>
     </row>
     <row r="254" spans="1:18" ht="12.75" customHeight="1">
       <c r="A254" s="15"/>
-      <c r="B254" s="61"/>
-      <c r="C254" s="64"/>
+      <c r="B254" s="63"/>
+      <c r="C254" s="66"/>
       <c r="D254" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10065,13 +10062,13 @@
       <c r="N254" s="43"/>
       <c r="O254" s="43"/>
       <c r="P254" s="43"/>
-      <c r="Q254" s="61"/>
-      <c r="R254" s="67"/>
+      <c r="Q254" s="63"/>
+      <c r="R254" s="58"/>
     </row>
     <row r="255" spans="1:18" ht="15.75">
       <c r="A255" s="15"/>
-      <c r="B255" s="62"/>
-      <c r="C255" s="64"/>
+      <c r="B255" s="64"/>
+      <c r="C255" s="66"/>
       <c r="D255" s="5" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
@@ -10100,13 +10097,13 @@
       <c r="N255" s="43"/>
       <c r="O255" s="43"/>
       <c r="P255" s="43"/>
-      <c r="Q255" s="62"/>
-      <c r="R255" s="67"/>
+      <c r="Q255" s="64"/>
+      <c r="R255" s="58"/>
     </row>
     <row r="256" spans="1:18" ht="15.75">
       <c r="A256" s="15"/>
-      <c r="B256" s="62"/>
-      <c r="C256" s="64"/>
+      <c r="B256" s="64"/>
+      <c r="C256" s="66"/>
       <c r="D256" s="5" t="str">
         <f t="shared" ref="D256:D268" si="15">IF(LEN(E256)&gt;5,IF(LEN(K256&amp;L256&amp;M256)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -10135,13 +10132,13 @@
       <c r="N256" s="43"/>
       <c r="O256" s="43"/>
       <c r="P256" s="43"/>
-      <c r="Q256" s="62"/>
-      <c r="R256" s="67"/>
+      <c r="Q256" s="64"/>
+      <c r="R256" s="58"/>
     </row>
     <row r="257" spans="1:18" ht="15.75">
       <c r="A257" s="15"/>
-      <c r="B257" s="62"/>
-      <c r="C257" s="64"/>
+      <c r="B257" s="64"/>
+      <c r="C257" s="66"/>
       <c r="D257" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10170,13 +10167,13 @@
       <c r="N257" s="43"/>
       <c r="O257" s="43"/>
       <c r="P257" s="43"/>
-      <c r="Q257" s="62"/>
-      <c r="R257" s="67"/>
+      <c r="Q257" s="64"/>
+      <c r="R257" s="58"/>
     </row>
     <row r="258" spans="1:18" ht="15.75">
       <c r="A258" s="15"/>
-      <c r="B258" s="62"/>
-      <c r="C258" s="64"/>
+      <c r="B258" s="64"/>
+      <c r="C258" s="66"/>
       <c r="D258" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10205,13 +10202,13 @@
       <c r="N258" s="43"/>
       <c r="O258" s="43"/>
       <c r="P258" s="43"/>
-      <c r="Q258" s="62"/>
-      <c r="R258" s="67"/>
+      <c r="Q258" s="64"/>
+      <c r="R258" s="58"/>
     </row>
     <row r="259" spans="1:18" ht="15.75">
       <c r="A259" s="15"/>
-      <c r="B259" s="62"/>
-      <c r="C259" s="64"/>
+      <c r="B259" s="64"/>
+      <c r="C259" s="66"/>
       <c r="D259" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10240,13 +10237,13 @@
       <c r="N259" s="43"/>
       <c r="O259" s="43"/>
       <c r="P259" s="43"/>
-      <c r="Q259" s="62"/>
-      <c r="R259" s="67"/>
+      <c r="Q259" s="64"/>
+      <c r="R259" s="58"/>
     </row>
     <row r="260" spans="1:18" ht="15.75">
       <c r="A260" s="15"/>
-      <c r="B260" s="62"/>
-      <c r="C260" s="64"/>
+      <c r="B260" s="64"/>
+      <c r="C260" s="66"/>
       <c r="D260" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10275,13 +10272,13 @@
       <c r="N260" s="43"/>
       <c r="O260" s="43"/>
       <c r="P260" s="43"/>
-      <c r="Q260" s="62"/>
-      <c r="R260" s="67"/>
+      <c r="Q260" s="64"/>
+      <c r="R260" s="58"/>
     </row>
     <row r="261" spans="1:18" ht="15.75">
       <c r="A261" s="15"/>
-      <c r="B261" s="62"/>
-      <c r="C261" s="64"/>
+      <c r="B261" s="64"/>
+      <c r="C261" s="66"/>
       <c r="D261" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10309,13 +10306,13 @@
       </c>
       <c r="N261" s="43"/>
       <c r="P261" s="43"/>
-      <c r="Q261" s="62"/>
-      <c r="R261" s="67"/>
+      <c r="Q261" s="64"/>
+      <c r="R261" s="58"/>
     </row>
     <row r="262" spans="1:18" ht="15.75">
       <c r="A262" s="15"/>
-      <c r="B262" s="62"/>
-      <c r="C262" s="64"/>
+      <c r="B262" s="64"/>
+      <c r="C262" s="66"/>
       <c r="D262" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10344,13 +10341,13 @@
       <c r="N262" s="43"/>
       <c r="O262" s="43"/>
       <c r="P262" s="43"/>
-      <c r="Q262" s="62"/>
-      <c r="R262" s="67"/>
+      <c r="Q262" s="64"/>
+      <c r="R262" s="58"/>
     </row>
     <row r="263" spans="1:18" ht="15.75">
       <c r="A263" s="15"/>
-      <c r="B263" s="62"/>
-      <c r="C263" s="64"/>
+      <c r="B263" s="64"/>
+      <c r="C263" s="66"/>
       <c r="D263" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10379,13 +10376,13 @@
       <c r="N263" s="43"/>
       <c r="O263" s="43"/>
       <c r="P263" s="43"/>
-      <c r="Q263" s="62"/>
-      <c r="R263" s="67"/>
+      <c r="Q263" s="64"/>
+      <c r="R263" s="58"/>
     </row>
     <row r="264" spans="1:18" ht="15.75">
       <c r="A264" s="15"/>
-      <c r="B264" s="62"/>
-      <c r="C264" s="64"/>
+      <c r="B264" s="64"/>
+      <c r="C264" s="66"/>
       <c r="D264" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10414,13 +10411,13 @@
       <c r="N264" s="43"/>
       <c r="O264" s="43"/>
       <c r="P264" s="43"/>
-      <c r="Q264" s="62"/>
-      <c r="R264" s="67"/>
+      <c r="Q264" s="64"/>
+      <c r="R264" s="58"/>
     </row>
     <row r="265" spans="1:18" ht="15.75">
       <c r="A265" s="15"/>
-      <c r="B265" s="62"/>
-      <c r="C265" s="64"/>
+      <c r="B265" s="64"/>
+      <c r="C265" s="66"/>
       <c r="D265" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10449,13 +10446,13 @@
       <c r="N265" s="43"/>
       <c r="O265" s="43"/>
       <c r="P265" s="43"/>
-      <c r="Q265" s="62"/>
-      <c r="R265" s="67"/>
+      <c r="Q265" s="64"/>
+      <c r="R265" s="58"/>
     </row>
     <row r="266" spans="1:18" ht="15.75">
       <c r="A266" s="15"/>
-      <c r="B266" s="62"/>
-      <c r="C266" s="64"/>
+      <c r="B266" s="64"/>
+      <c r="C266" s="66"/>
       <c r="D266" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10484,13 +10481,13 @@
       <c r="N266" s="43"/>
       <c r="O266" s="43"/>
       <c r="P266" s="43"/>
-      <c r="Q266" s="62"/>
-      <c r="R266" s="67"/>
+      <c r="Q266" s="64"/>
+      <c r="R266" s="58"/>
     </row>
     <row r="267" spans="1:18" ht="15.75">
       <c r="A267" s="15"/>
-      <c r="B267" s="62"/>
-      <c r="C267" s="64"/>
+      <c r="B267" s="64"/>
+      <c r="C267" s="66"/>
       <c r="D267" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10519,13 +10516,13 @@
       <c r="N267" s="43"/>
       <c r="O267" s="43"/>
       <c r="P267" s="43"/>
-      <c r="Q267" s="62"/>
-      <c r="R267" s="67"/>
+      <c r="Q267" s="64"/>
+      <c r="R267" s="58"/>
     </row>
     <row r="268" spans="1:18" ht="15.75">
       <c r="A268" s="24"/>
-      <c r="B268" s="63"/>
-      <c r="C268" s="64"/>
+      <c r="B268" s="65"/>
+      <c r="C268" s="66"/>
       <c r="D268" s="5" t="str">
         <f t="shared" si="15"/>
         <v>-</v>
@@ -10554,8 +10551,8 @@
       <c r="N268" s="43"/>
       <c r="O268" s="43"/>
       <c r="P268" s="43"/>
-      <c r="Q268" s="63"/>
-      <c r="R268" s="67"/>
+      <c r="Q268" s="65"/>
+      <c r="R268" s="58"/>
     </row>
     <row r="269" spans="1:18" ht="15.75">
       <c r="G269" s="48"/>
@@ -10609,6 +10606,49 @@
   </sheetData>
   <autoFilter ref="A1:P268"/>
   <mergeCells count="59">
+    <mergeCell ref="A4:A17"/>
+    <mergeCell ref="A18:A103"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="B18:B31"/>
+    <mergeCell ref="B32:B43"/>
+    <mergeCell ref="B44:B58"/>
+    <mergeCell ref="B59:B73"/>
+    <mergeCell ref="B74:B88"/>
+    <mergeCell ref="B89:B103"/>
+    <mergeCell ref="B224:B238"/>
+    <mergeCell ref="B239:B253"/>
+    <mergeCell ref="B104:B118"/>
+    <mergeCell ref="B119:B133"/>
+    <mergeCell ref="B134:B148"/>
+    <mergeCell ref="B149:B163"/>
+    <mergeCell ref="B164:B178"/>
+    <mergeCell ref="C179:C193"/>
+    <mergeCell ref="C194:C208"/>
+    <mergeCell ref="C209:C223"/>
+    <mergeCell ref="B179:B193"/>
+    <mergeCell ref="B194:B208"/>
+    <mergeCell ref="B209:B223"/>
+    <mergeCell ref="Q149:Q163"/>
+    <mergeCell ref="Q164:Q178"/>
+    <mergeCell ref="Q179:Q193"/>
+    <mergeCell ref="B254:B268"/>
+    <mergeCell ref="C4:C17"/>
+    <mergeCell ref="C18:C31"/>
+    <mergeCell ref="C32:C43"/>
+    <mergeCell ref="C44:C58"/>
+    <mergeCell ref="C59:C73"/>
+    <mergeCell ref="C74:C88"/>
+    <mergeCell ref="C89:C103"/>
+    <mergeCell ref="C104:C118"/>
+    <mergeCell ref="C119:C133"/>
+    <mergeCell ref="C134:C148"/>
+    <mergeCell ref="C149:C163"/>
+    <mergeCell ref="C164:C178"/>
+    <mergeCell ref="Q74:Q88"/>
+    <mergeCell ref="Q89:Q103"/>
+    <mergeCell ref="Q104:Q118"/>
+    <mergeCell ref="Q119:Q133"/>
+    <mergeCell ref="Q134:Q148"/>
     <mergeCell ref="R4:R88"/>
     <mergeCell ref="R89:R268"/>
     <mergeCell ref="A1:F2"/>
@@ -10625,49 +10665,6 @@
     <mergeCell ref="Q32:Q43"/>
     <mergeCell ref="Q44:Q58"/>
     <mergeCell ref="Q59:Q73"/>
-    <mergeCell ref="Q74:Q88"/>
-    <mergeCell ref="Q89:Q103"/>
-    <mergeCell ref="Q104:Q118"/>
-    <mergeCell ref="Q119:Q133"/>
-    <mergeCell ref="Q134:Q148"/>
-    <mergeCell ref="Q149:Q163"/>
-    <mergeCell ref="Q164:Q178"/>
-    <mergeCell ref="Q179:Q193"/>
-    <mergeCell ref="B254:B268"/>
-    <mergeCell ref="C4:C17"/>
-    <mergeCell ref="C18:C31"/>
-    <mergeCell ref="C32:C43"/>
-    <mergeCell ref="C44:C58"/>
-    <mergeCell ref="C59:C73"/>
-    <mergeCell ref="C74:C88"/>
-    <mergeCell ref="C89:C103"/>
-    <mergeCell ref="C104:C118"/>
-    <mergeCell ref="C119:C133"/>
-    <mergeCell ref="C134:C148"/>
-    <mergeCell ref="C149:C163"/>
-    <mergeCell ref="C164:C178"/>
-    <mergeCell ref="C179:C193"/>
-    <mergeCell ref="C194:C208"/>
-    <mergeCell ref="C209:C223"/>
-    <mergeCell ref="B179:B193"/>
-    <mergeCell ref="B194:B208"/>
-    <mergeCell ref="B209:B223"/>
-    <mergeCell ref="B224:B238"/>
-    <mergeCell ref="B239:B253"/>
-    <mergeCell ref="B104:B118"/>
-    <mergeCell ref="B119:B133"/>
-    <mergeCell ref="B134:B148"/>
-    <mergeCell ref="B149:B163"/>
-    <mergeCell ref="B164:B178"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A18:A103"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="B18:B31"/>
-    <mergeCell ref="B32:B43"/>
-    <mergeCell ref="B44:B58"/>
-    <mergeCell ref="B59:B73"/>
-    <mergeCell ref="B74:B88"/>
-    <mergeCell ref="B89:B103"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D268">
     <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Check">
@@ -10778,7 +10775,7 @@
     <hyperlink ref="E44:E45" r:id="rId19" display="http://10.141.1.9:8080/svn/HKVA_inv/GNE114/Planning/"/>
     <hyperlink ref="E59" r:id="rId20" display="http://10.141.1.9:8080/svn/HKVA_inv/GNE114/Planning/"/>
     <hyperlink ref="E74" r:id="rId21"/>
-    <hyperlink ref="E60" r:id="rId22" tooltip="http://10.141.1.9:8080/svn/FW_17801/" display="http://10.141.1.9:8080/svn/FW_17801/"/>
+    <hyperlink ref="E60" r:id="rId22" tooltip="http://10.141.1.9:8080/svn/FW_17801/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
